--- a/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
+++ b/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/angaritat_js_javeriana_edu_co/Documents/CLASES/PROGRAMACION WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarap\Documents\GitHub\Web_Desarrollo\veterinaria\src\main\resources\static\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44757738-7619-402C-9AD9-666B5C2A2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268FCE08-8739-4591-A345-328A74DEFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICAMENTOS BD FINAL" sheetId="10" r:id="rId1"/>
@@ -1626,10 +1626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,6 +1644,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1700,12 +1713,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ESVAC OK" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1990,25 +2007,25 @@
   <dimension ref="A1:E524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>525</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2018,14 +2035,14 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>151300</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>60520</v>
       </c>
       <c r="D2">
@@ -2035,14 +2052,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>155100</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>124080</v>
       </c>
       <c r="D3">
@@ -2052,14 +2069,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>114800</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>91840</v>
       </c>
       <c r="D4">
@@ -2069,14 +2086,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>147600</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>103320</v>
       </c>
       <c r="D5">
@@ -2086,14 +2103,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>129000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>64500</v>
       </c>
       <c r="D6">
@@ -2103,14 +2120,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>164900</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>115430</v>
       </c>
       <c r="D7">
@@ -2120,14 +2137,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>125800</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>100640</v>
       </c>
       <c r="D8">
@@ -2137,14 +2154,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>79100</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>47460</v>
       </c>
       <c r="D9">
@@ -2154,14 +2171,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>182000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>109200</v>
       </c>
       <c r="D10">
@@ -2171,14 +2188,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>133400</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>80040</v>
       </c>
       <c r="D11">
@@ -2188,14 +2205,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>135500</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>108400</v>
       </c>
       <c r="D12">
@@ -2205,14 +2222,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>86800</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>52080</v>
       </c>
       <c r="D13">
@@ -2222,14 +2239,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>182900</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>109740</v>
       </c>
       <c r="D14">
@@ -2239,14 +2256,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>141600</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>70800</v>
       </c>
       <c r="D15">
@@ -2256,14 +2273,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>146800</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>102760</v>
       </c>
       <c r="D16">
@@ -2273,14 +2290,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>58600</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>29300</v>
       </c>
       <c r="D17">
@@ -2290,14 +2307,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>50700</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>25350</v>
       </c>
       <c r="D18">
@@ -2307,14 +2324,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>198200</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>158560</v>
       </c>
       <c r="D19">
@@ -2324,14 +2341,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>84500</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>59150</v>
       </c>
       <c r="D20">
@@ -2341,14 +2358,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>64000</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>44800</v>
       </c>
       <c r="D21">
@@ -2358,14 +2375,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>182300</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>91150</v>
       </c>
       <c r="D22">
@@ -2375,14 +2392,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>93100</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>65170</v>
       </c>
       <c r="D23">
@@ -2392,14 +2409,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>86100</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>34440</v>
       </c>
       <c r="D24">
@@ -2409,14 +2426,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>52600</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>21040</v>
       </c>
       <c r="D25">
@@ -2426,14 +2443,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>142800</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>114240</v>
       </c>
       <c r="D26">
@@ -2443,14 +2460,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>133500</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>93450</v>
       </c>
       <c r="D27">
@@ -2460,14 +2477,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>90200</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>45100</v>
       </c>
       <c r="D28">
@@ -2477,14 +2494,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>104500</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>41800</v>
       </c>
       <c r="D29">
@@ -2494,14 +2511,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>151400</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>75700</v>
       </c>
       <c r="D30">
@@ -2511,14 +2528,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>193000</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>77200</v>
       </c>
       <c r="D31">
@@ -2528,14 +2545,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>190000</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>95000</v>
       </c>
       <c r="D32">
@@ -2545,14 +2562,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>162000</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>97200</v>
       </c>
       <c r="D33">
@@ -2562,14 +2579,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>190200</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>152160</v>
       </c>
       <c r="D34">
@@ -2579,14 +2596,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>177900</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>124530</v>
       </c>
       <c r="D35">
@@ -2596,14 +2613,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>141800</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>99260</v>
       </c>
       <c r="D36">
@@ -2613,14 +2630,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>144200</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>57680</v>
       </c>
       <c r="D37">
@@ -2630,14 +2647,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>188700</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>75480</v>
       </c>
       <c r="D38">
@@ -2647,14 +2664,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>155400</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>77700</v>
       </c>
       <c r="D39">
@@ -2664,14 +2681,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>110500</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>77350</v>
       </c>
       <c r="D40">
@@ -2681,14 +2698,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>118100</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>47240</v>
       </c>
       <c r="D41">
@@ -2698,14 +2715,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>148700</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>89220</v>
       </c>
       <c r="D42">
@@ -2715,14 +2732,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>155700</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>77850</v>
       </c>
       <c r="D43">
@@ -2732,14 +2749,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>131000</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="4">
         <v>65500</v>
       </c>
       <c r="D44">
@@ -2749,14 +2766,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>106400</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="4">
         <v>85120</v>
       </c>
       <c r="D45">
@@ -2766,14 +2783,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>131300</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="4">
         <v>105040</v>
       </c>
       <c r="D46">
@@ -2783,14 +2800,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>63000</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="4">
         <v>31500</v>
       </c>
       <c r="D47">
@@ -2800,14 +2817,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>181800</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>109080</v>
       </c>
       <c r="D48">
@@ -2817,14 +2834,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>131900</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="4">
         <v>79140</v>
       </c>
       <c r="D49">
@@ -2834,14 +2851,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>53600</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="4">
         <v>37520</v>
       </c>
       <c r="D50">
@@ -2851,14 +2868,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>167700</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="4">
         <v>117390</v>
       </c>
       <c r="D51">
@@ -2868,14 +2885,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>125700</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="4">
         <v>87990</v>
       </c>
       <c r="D52">
@@ -2885,14 +2902,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>143200</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="4">
         <v>57280</v>
       </c>
       <c r="D53">
@@ -2902,14 +2919,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>76000</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="4">
         <v>53200</v>
       </c>
       <c r="D54">
@@ -2919,14 +2936,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>113700</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="4">
         <v>90960</v>
       </c>
       <c r="D55">
@@ -2936,14 +2953,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>58500</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="4">
         <v>40950</v>
       </c>
       <c r="D56">
@@ -2953,14 +2970,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>64400</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="4">
         <v>38640</v>
       </c>
       <c r="D57">
@@ -2970,14 +2987,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>142300</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="4">
         <v>71150</v>
       </c>
       <c r="D58">
@@ -2987,14 +3004,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>108800</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="4">
         <v>76160</v>
       </c>
       <c r="D59">
@@ -3004,14 +3021,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>113500</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="4">
         <v>56750</v>
       </c>
       <c r="D60">
@@ -3021,14 +3038,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>124700</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="4">
         <v>99760</v>
       </c>
       <c r="D61">
@@ -3038,14 +3055,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>198800</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="4">
         <v>99400</v>
       </c>
       <c r="D62">
@@ -3055,14 +3072,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>185500</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="4">
         <v>148400</v>
       </c>
       <c r="D63">
@@ -3072,14 +3089,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>139400</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="4">
         <v>111520</v>
       </c>
       <c r="D64">
@@ -3089,14 +3106,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>178300</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="4">
         <v>142640</v>
       </c>
       <c r="D65">
@@ -3106,14 +3123,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>96800</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="4">
         <v>48400</v>
       </c>
       <c r="D66">
@@ -3123,14 +3140,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>180200</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="4">
         <v>126140</v>
       </c>
       <c r="D67">
@@ -3140,14 +3157,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>92400</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="4">
         <v>64680</v>
       </c>
       <c r="D68">
@@ -3157,14 +3174,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>67600</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="4">
         <v>54080</v>
       </c>
       <c r="D69">
@@ -3174,14 +3191,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>107600</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="4">
         <v>53800</v>
       </c>
       <c r="D70">
@@ -3191,14 +3208,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>165800</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="4">
         <v>132640</v>
       </c>
       <c r="D71">
@@ -3208,14 +3225,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>109700</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="4">
         <v>65820</v>
       </c>
       <c r="D72">
@@ -3225,14 +3242,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>137600</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="4">
         <v>96320</v>
       </c>
       <c r="D73">
@@ -3242,14 +3259,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>90300</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="4">
         <v>63210</v>
       </c>
       <c r="D74">
@@ -3259,14 +3276,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>118</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>129700</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="4">
         <v>77820</v>
       </c>
       <c r="D75">
@@ -3276,14 +3293,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>108600</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="4">
         <v>86880</v>
       </c>
       <c r="D76">
@@ -3293,14 +3310,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>120</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>167300</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="4">
         <v>100380</v>
       </c>
       <c r="D77">
@@ -3310,14 +3327,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>121</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>76100</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="4">
         <v>53270</v>
       </c>
       <c r="D78">
@@ -3327,14 +3344,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>58500</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>23400</v>
       </c>
       <c r="D79">
@@ -3344,14 +3361,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>143500</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="4">
         <v>100450</v>
       </c>
       <c r="D80">
@@ -3361,14 +3378,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>124</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>92800</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="4">
         <v>37120</v>
       </c>
       <c r="D81">
@@ -3378,14 +3395,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>163400</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="4">
         <v>130720</v>
       </c>
       <c r="D82">
@@ -3395,14 +3412,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>55000</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="4">
         <v>38500</v>
       </c>
       <c r="D83">
@@ -3412,14 +3429,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>127</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>160700</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="4">
         <v>64280</v>
       </c>
       <c r="D84">
@@ -3429,14 +3446,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>58000</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="4">
         <v>46400</v>
       </c>
       <c r="D85">
@@ -3446,14 +3463,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>120900</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="4">
         <v>48360</v>
       </c>
       <c r="D86">
@@ -3463,14 +3480,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>117500</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="4">
         <v>94000</v>
       </c>
       <c r="D87">
@@ -3480,14 +3497,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>98600</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="4">
         <v>69020</v>
       </c>
       <c r="D88">
@@ -3497,14 +3514,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>57600</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="4">
         <v>40320</v>
       </c>
       <c r="D89">
@@ -3514,14 +3531,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>133</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>104500</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="4">
         <v>62700</v>
       </c>
       <c r="D90">
@@ -3531,14 +3548,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>118100</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="4">
         <v>82670</v>
       </c>
       <c r="D91">
@@ -3548,14 +3565,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>135</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>51500</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="4">
         <v>36050</v>
       </c>
       <c r="D92">
@@ -3565,14 +3582,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>183900</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="4">
         <v>128730</v>
       </c>
       <c r="D93">
@@ -3582,14 +3599,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>137</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>156600</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="4">
         <v>78300</v>
       </c>
       <c r="D94">
@@ -3599,14 +3616,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>138</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>62700</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="4">
         <v>43890</v>
       </c>
       <c r="D95">
@@ -3616,14 +3633,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>52200</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="4">
         <v>26100</v>
       </c>
       <c r="D96">
@@ -3633,14 +3650,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>140</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>186800</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="4">
         <v>112080</v>
       </c>
       <c r="D97">
@@ -3650,14 +3667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>141</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>133000</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="4">
         <v>53200</v>
       </c>
       <c r="D98">
@@ -3667,14 +3684,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>197200</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="4">
         <v>118320</v>
       </c>
       <c r="D99">
@@ -3684,14 +3701,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>179900</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="4">
         <v>125930</v>
       </c>
       <c r="D100">
@@ -3701,14 +3718,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>144</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>152200</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="4">
         <v>91320</v>
       </c>
       <c r="D101">
@@ -3718,14 +3735,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>145</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>110800</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="4">
         <v>55400</v>
       </c>
       <c r="D102">
@@ -3735,14 +3752,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>146</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>52000</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="4">
         <v>26000</v>
       </c>
       <c r="D103">
@@ -3752,14 +3769,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>112500</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="4">
         <v>90000</v>
       </c>
       <c r="D104">
@@ -3769,14 +3786,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>118500</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="4">
         <v>71100</v>
       </c>
       <c r="D105">
@@ -3786,14 +3803,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>149</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>71100</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="4">
         <v>35550</v>
       </c>
       <c r="D106">
@@ -3803,14 +3820,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>150</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>199900</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="4">
         <v>119940</v>
       </c>
       <c r="D107">
@@ -3820,14 +3837,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>151</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>91600</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="4">
         <v>64120</v>
       </c>
       <c r="D108">
@@ -3837,14 +3854,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>152</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>58800</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="4">
         <v>41160</v>
       </c>
       <c r="D109">
@@ -3854,14 +3871,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>153</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>87800</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="4">
         <v>52680</v>
       </c>
       <c r="D110">
@@ -3871,14 +3888,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>154</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>195800</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="4">
         <v>97900</v>
       </c>
       <c r="D111">
@@ -3888,14 +3905,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>155</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>102100</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="4">
         <v>61260</v>
       </c>
       <c r="D112">
@@ -3905,14 +3922,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>156</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>56100</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="4">
         <v>33660</v>
       </c>
       <c r="D113">
@@ -3922,14 +3939,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>84400</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="4">
         <v>50640</v>
       </c>
       <c r="D114">
@@ -3939,14 +3956,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>157</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>181700</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="4">
         <v>109020</v>
       </c>
       <c r="D115">
@@ -3956,14 +3973,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>158</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>196000</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="4">
         <v>156800</v>
       </c>
       <c r="D116">
@@ -3973,14 +3990,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>159</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>59300</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="4">
         <v>47440</v>
       </c>
       <c r="D117">
@@ -3990,14 +4007,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>160</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>177800</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="4">
         <v>71120</v>
       </c>
       <c r="D118">
@@ -4007,14 +4024,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>168400</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="4">
         <v>134720</v>
       </c>
       <c r="D119">
@@ -4024,14 +4041,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>146900</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="4">
         <v>117520</v>
       </c>
       <c r="D120">
@@ -4041,14 +4058,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>190600</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="4">
         <v>152480</v>
       </c>
       <c r="D121">
@@ -4058,14 +4075,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>164</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>75700</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="4">
         <v>60560</v>
       </c>
       <c r="D122">
@@ -4075,14 +4092,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>78400</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="4">
         <v>39200</v>
       </c>
       <c r="D123">
@@ -4092,14 +4109,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>165</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>128400</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="4">
         <v>64200</v>
       </c>
       <c r="D124">
@@ -4109,14 +4126,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>166</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>99300</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="4">
         <v>59580</v>
       </c>
       <c r="D125">
@@ -4126,14 +4143,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>167</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>82900</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="4">
         <v>49740</v>
       </c>
       <c r="D126">
@@ -4143,14 +4160,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>168</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>149000</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="4">
         <v>104300</v>
       </c>
       <c r="D127">
@@ -4160,14 +4177,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>169</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>77600</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="4">
         <v>54320</v>
       </c>
       <c r="D128">
@@ -4177,14 +4194,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>94800</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="4">
         <v>75840</v>
       </c>
       <c r="D129">
@@ -4194,14 +4211,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>36</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>123300</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="4">
         <v>73980</v>
       </c>
       <c r="D130">
@@ -4211,14 +4228,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>170</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>129900</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="4">
         <v>51960</v>
       </c>
       <c r="D131">
@@ -4228,14 +4245,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>162500</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="4">
         <v>113750</v>
       </c>
       <c r="D132">
@@ -4245,14 +4262,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>512</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>196700</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="4">
         <v>157360</v>
       </c>
       <c r="D133">
@@ -4262,14 +4279,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>172</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>183900</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="4">
         <v>110340</v>
       </c>
       <c r="D134">
@@ -4279,14 +4296,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>145300</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="4">
         <v>116240</v>
       </c>
       <c r="D135">
@@ -4296,14 +4313,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>173</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>84700</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="4">
         <v>67760</v>
       </c>
       <c r="D136">
@@ -4313,14 +4330,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>134600</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="4">
         <v>107680</v>
       </c>
       <c r="D137">
@@ -4330,14 +4347,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>175</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>110000</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="4">
         <v>88000</v>
       </c>
       <c r="D138">
@@ -4347,14 +4364,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>176</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>156300</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="4">
         <v>125040</v>
       </c>
       <c r="D139">
@@ -4364,14 +4381,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>177</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>108300</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="4">
         <v>54150</v>
       </c>
       <c r="D140">
@@ -4381,14 +4398,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>40</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>133700</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="4">
         <v>80220</v>
       </c>
       <c r="D141">
@@ -4398,14 +4415,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>178</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>143000</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="4">
         <v>85800</v>
       </c>
       <c r="D142">
@@ -4415,14 +4432,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>179</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>139700</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="4">
         <v>111760</v>
       </c>
       <c r="D143">
@@ -4432,14 +4449,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>180</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>112700</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="4">
         <v>56350</v>
       </c>
       <c r="D144">
@@ -4449,14 +4466,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>181</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>196200</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="4">
         <v>137340</v>
       </c>
       <c r="D145">
@@ -4466,14 +4483,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>182</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>195000</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="4">
         <v>156000</v>
       </c>
       <c r="D146">
@@ -4483,14 +4500,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>183</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>123900</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="4">
         <v>49560</v>
       </c>
       <c r="D147">
@@ -4500,14 +4517,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>184</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>155500</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="4">
         <v>93300</v>
       </c>
       <c r="D148">
@@ -4517,14 +4534,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>158400</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="4">
         <v>110880</v>
       </c>
       <c r="D149">
@@ -4534,14 +4551,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>185</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>199400</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="4">
         <v>99700</v>
       </c>
       <c r="D150">
@@ -4551,14 +4568,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>186</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>68500</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="4">
         <v>47950</v>
       </c>
       <c r="D151">
@@ -4568,14 +4585,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>187</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>112800</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="4">
         <v>45120</v>
       </c>
       <c r="D152">
@@ -4585,14 +4602,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>173400</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="4">
         <v>104040</v>
       </c>
       <c r="D153">
@@ -4602,14 +4619,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>189</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>192600</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="4">
         <v>115560</v>
       </c>
       <c r="D154">
@@ -4619,14 +4636,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>162900</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="4">
         <v>65160</v>
       </c>
       <c r="D155">
@@ -4636,14 +4653,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>191</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>156600</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="4">
         <v>62640</v>
       </c>
       <c r="D156">
@@ -4653,14 +4670,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>192</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>91800</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="4">
         <v>45900</v>
       </c>
       <c r="D157">
@@ -4670,14 +4687,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>193</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>177000</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="4">
         <v>123900</v>
       </c>
       <c r="D158">
@@ -4687,14 +4704,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>194</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>108100</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="4">
         <v>43240</v>
       </c>
       <c r="D159">
@@ -4704,14 +4721,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>195</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>161100</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="4">
         <v>96660</v>
       </c>
       <c r="D160">
@@ -4721,14 +4738,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>196</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>167100</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="4">
         <v>83550</v>
       </c>
       <c r="D161">
@@ -4738,14 +4755,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>197</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>143800</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="4">
         <v>100660</v>
       </c>
       <c r="D162">
@@ -4755,14 +4772,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>42</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>175000</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="4">
         <v>70000</v>
       </c>
       <c r="D163">
@@ -4772,14 +4789,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>198</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>186300</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="4">
         <v>111780</v>
       </c>
       <c r="D164">
@@ -4789,14 +4806,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>199</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>133500</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="4">
         <v>66750</v>
       </c>
       <c r="D165">
@@ -4806,14 +4823,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>200</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>137300</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="4">
         <v>109840</v>
       </c>
       <c r="D166">
@@ -4823,14 +4840,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>201</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>169200</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="4">
         <v>101520</v>
       </c>
       <c r="D167">
@@ -4840,14 +4857,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>202</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>120600</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="4">
         <v>96480</v>
       </c>
       <c r="D168">
@@ -4857,14 +4874,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>203</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>177600</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="4">
         <v>142080</v>
       </c>
       <c r="D169">
@@ -4874,14 +4891,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>204</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>143800</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="4">
         <v>71900</v>
       </c>
       <c r="D170">
@@ -4891,14 +4908,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>205</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>102900</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="4">
         <v>41160</v>
       </c>
       <c r="D171">
@@ -4908,14 +4925,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>206</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>166400</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="4">
         <v>116480</v>
       </c>
       <c r="D172">
@@ -4925,14 +4942,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>207</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>178100</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="4">
         <v>106860</v>
       </c>
       <c r="D173">
@@ -4942,14 +4959,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>208</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>87800</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="4">
         <v>70240</v>
       </c>
       <c r="D174">
@@ -4959,14 +4976,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>209</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>136300</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="4">
         <v>109040</v>
       </c>
       <c r="D175">
@@ -4976,14 +4993,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>210</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>90100</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="4">
         <v>54060</v>
       </c>
       <c r="D176">
@@ -4993,14 +5010,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>211</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>192100</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="4">
         <v>115260</v>
       </c>
       <c r="D177">
@@ -5010,14 +5027,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>212</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>118700</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="4">
         <v>83090</v>
       </c>
       <c r="D178">
@@ -5027,14 +5044,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>213</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>58400</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="4">
         <v>40880</v>
       </c>
       <c r="D179">
@@ -5044,14 +5061,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>513</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>51700</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="4">
         <v>36190</v>
       </c>
       <c r="D180">
@@ -5061,14 +5078,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>214</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>139400</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="4">
         <v>55760</v>
       </c>
       <c r="D181">
@@ -5078,14 +5095,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>215</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>152200</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="4">
         <v>91320</v>
       </c>
       <c r="D182">
@@ -5095,14 +5112,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>216</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>136700</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="4">
         <v>82020</v>
       </c>
       <c r="D183">
@@ -5112,14 +5129,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>37</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>103200</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="4">
         <v>61920</v>
       </c>
       <c r="D184">
@@ -5129,14 +5146,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>217</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>81600</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="4">
         <v>40800</v>
       </c>
       <c r="D185">
@@ -5146,14 +5163,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>514</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>200000</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="4">
         <v>120000</v>
       </c>
       <c r="D186">
@@ -5163,14 +5180,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>218</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>53600</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="4">
         <v>32160</v>
       </c>
       <c r="D187">
@@ -5180,14 +5197,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>141700</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="4">
         <v>56680</v>
       </c>
       <c r="D188">
@@ -5197,14 +5214,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>219</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>196900</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="4">
         <v>137830</v>
       </c>
       <c r="D189">
@@ -5214,14 +5231,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>220</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>136100</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="4">
         <v>108880</v>
       </c>
       <c r="D190">
@@ -5231,14 +5248,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>38</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>112200</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="4">
         <v>89760</v>
       </c>
       <c r="D191">
@@ -5248,14 +5265,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>221</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>198400</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="4">
         <v>99200</v>
       </c>
       <c r="D192">
@@ -5265,14 +5282,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>222</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>136600</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="4">
         <v>68300</v>
       </c>
       <c r="D193">
@@ -5282,14 +5299,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>223</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>65400</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="4">
         <v>39240</v>
       </c>
       <c r="D194">
@@ -5299,14 +5316,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>224</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <v>91200</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="4">
         <v>36480</v>
       </c>
       <c r="D195">
@@ -5316,14 +5333,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>35</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <v>180600</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="4">
         <v>144480</v>
       </c>
       <c r="D196">
@@ -5333,14 +5350,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>225</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <v>164500</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="4">
         <v>82250</v>
       </c>
       <c r="D197">
@@ -5350,14 +5367,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>226</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <v>168000</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="4">
         <v>134400</v>
       </c>
       <c r="D198">
@@ -5367,14 +5384,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>227</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <v>55700</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="4">
         <v>22280</v>
       </c>
       <c r="D199">
@@ -5384,14 +5401,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>228</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <v>136100</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="4">
         <v>81660</v>
       </c>
       <c r="D200">
@@ -5401,14 +5418,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>229</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <v>82600</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="4">
         <v>57820</v>
       </c>
       <c r="D201">
@@ -5418,14 +5435,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>230</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202">
         <v>170100</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="4">
         <v>102060</v>
       </c>
       <c r="D202">
@@ -5435,14 +5452,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203">
         <v>179300</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="4">
         <v>125510</v>
       </c>
       <c r="D203">
@@ -5452,14 +5469,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>231</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <v>169600</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="4">
         <v>67840</v>
       </c>
       <c r="D204">
@@ -5469,14 +5486,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>515</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <v>69300</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="4">
         <v>55440</v>
       </c>
       <c r="D205">
@@ -5486,14 +5503,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>232</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <v>177500</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="4">
         <v>124250</v>
       </c>
       <c r="D206">
@@ -5503,14 +5520,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>233</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <v>107300</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="4">
         <v>85840</v>
       </c>
       <c r="D207">
@@ -5520,14 +5537,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>234</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208">
         <v>140400</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="4">
         <v>84240</v>
       </c>
       <c r="D208">
@@ -5537,14 +5554,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>235</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <v>57900</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="4">
         <v>28950</v>
       </c>
       <c r="D209">
@@ -5554,14 +5571,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>236</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <v>165400</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="4">
         <v>82700</v>
       </c>
       <c r="D210">
@@ -5571,14 +5588,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>237</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211">
         <v>53300</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="4">
         <v>31980</v>
       </c>
       <c r="D211">
@@ -5588,14 +5605,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>238</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212">
         <v>118300</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="4">
         <v>47320</v>
       </c>
       <c r="D212">
@@ -5605,14 +5622,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>239</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213">
         <v>120500</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="4">
         <v>72300</v>
       </c>
       <c r="D213">
@@ -5622,14 +5639,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>240</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214">
         <v>65700</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="4">
         <v>32850</v>
       </c>
       <c r="D214">
@@ -5639,14 +5656,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>241</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215">
         <v>53200</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="4">
         <v>42560</v>
       </c>
       <c r="D215">
@@ -5656,14 +5673,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>516</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216">
         <v>160700</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="4">
         <v>64280</v>
       </c>
       <c r="D216">
@@ -5673,14 +5690,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>242</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217">
         <v>181400</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="4">
         <v>108840</v>
       </c>
       <c r="D217">
@@ -5690,14 +5707,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>243</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218">
         <v>127700</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="4">
         <v>89390</v>
       </c>
       <c r="D218">
@@ -5707,14 +5724,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>244</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219">
         <v>97800</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="4">
         <v>78240</v>
       </c>
       <c r="D219">
@@ -5724,14 +5741,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>49</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220">
         <v>80600</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="4">
         <v>32240</v>
       </c>
       <c r="D220">
@@ -5741,14 +5758,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>245</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221">
         <v>133900</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="4">
         <v>80340</v>
       </c>
       <c r="D221">
@@ -5758,14 +5775,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>246</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222">
         <v>168100</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="4">
         <v>84050</v>
       </c>
       <c r="D222">
@@ -5775,14 +5792,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223">
         <v>162700</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="4">
         <v>97620</v>
       </c>
       <c r="D223">
@@ -5792,14 +5809,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>248</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224">
         <v>84100</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="4">
         <v>50460</v>
       </c>
       <c r="D224">
@@ -5809,14 +5826,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225">
         <v>107200</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="4">
         <v>75040</v>
       </c>
       <c r="D225">
@@ -5826,14 +5843,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226">
         <v>129000</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="4">
         <v>64500</v>
       </c>
       <c r="D226">
@@ -5843,14 +5860,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>250</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227">
         <v>177100</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="4">
         <v>106260</v>
       </c>
       <c r="D227">
@@ -5860,14 +5877,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228">
         <v>172900</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="4">
         <v>138320</v>
       </c>
       <c r="D228">
@@ -5877,14 +5894,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229">
         <v>84300</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="4">
         <v>67440</v>
       </c>
       <c r="D229">
@@ -5894,14 +5911,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230">
         <v>62100</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="4">
         <v>49680</v>
       </c>
       <c r="D230">
@@ -5911,14 +5928,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>254</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231">
         <v>61700</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="4">
         <v>37020</v>
       </c>
       <c r="D231">
@@ -5928,14 +5945,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232">
         <v>124000</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="4">
         <v>99200</v>
       </c>
       <c r="D232">
@@ -5945,14 +5962,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>47</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233">
         <v>154700</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="4">
         <v>92820</v>
       </c>
       <c r="D233">
@@ -5962,14 +5979,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>256</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234">
         <v>135100</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="4">
         <v>67550</v>
       </c>
       <c r="D234">
@@ -5979,14 +5996,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>257</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235">
         <v>124200</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="4">
         <v>74520</v>
       </c>
       <c r="D235">
@@ -5996,14 +6013,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>24</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236">
         <v>105100</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="4">
         <v>42040</v>
       </c>
       <c r="D236">
@@ -6013,14 +6030,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>258</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237">
         <v>121000</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="4">
         <v>48400</v>
       </c>
       <c r="D237">
@@ -6030,14 +6047,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>259</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238">
         <v>115600</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="4">
         <v>57800</v>
       </c>
       <c r="D238">
@@ -6047,14 +6064,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>260</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239">
         <v>138800</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="4">
         <v>69400</v>
       </c>
       <c r="D239">
@@ -6064,14 +6081,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>261</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240">
         <v>161800</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="4">
         <v>97080</v>
       </c>
       <c r="D240">
@@ -6081,14 +6098,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>262</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241">
         <v>161300</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="4">
         <v>129040</v>
       </c>
       <c r="D241">
@@ -6098,14 +6115,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>263</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242">
         <v>141600</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="4">
         <v>99120</v>
       </c>
       <c r="D242">
@@ -6115,14 +6132,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>264</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243">
         <v>108000</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="4">
         <v>75600</v>
       </c>
       <c r="D243">
@@ -6132,14 +6149,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>265</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244">
         <v>86700</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="4">
         <v>52020</v>
       </c>
       <c r="D244">
@@ -6149,14 +6166,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245">
         <v>96700</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="4">
         <v>67690</v>
       </c>
       <c r="D245">
@@ -6166,14 +6183,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>266</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246">
         <v>166300</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="4">
         <v>83150</v>
       </c>
       <c r="D246">
@@ -6183,14 +6200,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>267</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247">
         <v>157000</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="4">
         <v>94200</v>
       </c>
       <c r="D247">
@@ -6200,14 +6217,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248">
         <v>160900</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="4">
         <v>80450</v>
       </c>
       <c r="D248">
@@ -6217,14 +6234,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>268</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249">
         <v>185200</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="4">
         <v>111120</v>
       </c>
       <c r="D249">
@@ -6234,14 +6251,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>269</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250">
         <v>101200</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="4">
         <v>50600</v>
       </c>
       <c r="D250">
@@ -6251,14 +6268,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>270</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251">
         <v>113000</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="4">
         <v>90400</v>
       </c>
       <c r="D251">
@@ -6268,14 +6285,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>271</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252">
         <v>68200</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="4">
         <v>47740</v>
       </c>
       <c r="D252">
@@ -6285,14 +6302,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>272</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253">
         <v>126300</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="4">
         <v>88410</v>
       </c>
       <c r="D253">
@@ -6302,14 +6319,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>273</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254">
         <v>60300</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="4">
         <v>48240</v>
       </c>
       <c r="D254">
@@ -6319,14 +6336,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>274</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255">
         <v>70000</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="4">
         <v>49000</v>
       </c>
       <c r="D255">
@@ -6336,14 +6353,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>275</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256">
         <v>144000</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="4">
         <v>100800</v>
       </c>
       <c r="D256">
@@ -6353,14 +6370,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>276</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257">
         <v>162000</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="4">
         <v>129600</v>
       </c>
       <c r="D257">
@@ -6370,14 +6387,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>277</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258">
         <v>134600</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="4">
         <v>80760</v>
       </c>
       <c r="D258">
@@ -6387,14 +6404,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>278</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259">
         <v>77300</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="4">
         <v>61840</v>
       </c>
       <c r="D259">
@@ -6404,14 +6421,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>279</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260">
         <v>98700</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="4">
         <v>59220</v>
       </c>
       <c r="D260">
@@ -6421,14 +6438,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>280</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261">
         <v>76100</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="4">
         <v>60880</v>
       </c>
       <c r="D261">
@@ -6438,14 +6455,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>281</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262">
         <v>185900</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="4">
         <v>74360</v>
       </c>
       <c r="D262">
@@ -6455,14 +6472,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>517</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263">
         <v>168300</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="4">
         <v>117810</v>
       </c>
       <c r="D263">
@@ -6472,14 +6489,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>282</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264">
         <v>189100</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="4">
         <v>113460</v>
       </c>
       <c r="D264">
@@ -6489,14 +6506,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>283</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265">
         <v>116900</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="4">
         <v>70140</v>
       </c>
       <c r="D265">
@@ -6506,14 +6523,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>284</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266">
         <v>161100</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="4">
         <v>80550</v>
       </c>
       <c r="D266">
@@ -6523,14 +6540,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>285</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267">
         <v>110600</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="4">
         <v>88480</v>
       </c>
       <c r="D267">
@@ -6540,14 +6557,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>518</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268">
         <v>57900</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="4">
         <v>46320</v>
       </c>
       <c r="D268">
@@ -6557,14 +6574,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>286</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269">
         <v>138500</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="4">
         <v>69250</v>
       </c>
       <c r="D269">
@@ -6574,14 +6591,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>287</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270">
         <v>80400</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="4">
         <v>32160</v>
       </c>
       <c r="D270">
@@ -6591,14 +6608,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>32</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271">
         <v>172700</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="4">
         <v>69080</v>
       </c>
       <c r="D271">
@@ -6608,14 +6625,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>288</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272">
         <v>138000</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="4">
         <v>96600</v>
       </c>
       <c r="D272">
@@ -6625,14 +6642,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>50</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273">
         <v>111500</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="4">
         <v>89200</v>
       </c>
       <c r="D273">
@@ -6642,14 +6659,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>26</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274">
         <v>195800</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="4">
         <v>117480</v>
       </c>
       <c r="D274">
@@ -6659,14 +6676,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>289</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275">
         <v>119900</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="4">
         <v>59950</v>
       </c>
       <c r="D275">
@@ -6676,14 +6693,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>290</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276">
         <v>80500</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="4">
         <v>56350</v>
       </c>
       <c r="D276">
@@ -6693,14 +6710,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>291</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277">
         <v>159700</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277" s="4">
         <v>95820</v>
       </c>
       <c r="D277">
@@ -6710,14 +6727,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278">
         <v>189400</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278" s="4">
         <v>94700</v>
       </c>
       <c r="D278">
@@ -6727,14 +6744,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>292</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279">
         <v>104200</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279" s="4">
         <v>52100</v>
       </c>
       <c r="D279">
@@ -6744,14 +6761,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>293</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280">
         <v>71300</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280" s="4">
         <v>49910</v>
       </c>
       <c r="D280">
@@ -6761,14 +6778,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>294</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281">
         <v>72500</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281" s="4">
         <v>29000</v>
       </c>
       <c r="D281">
@@ -6778,14 +6795,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>295</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282">
         <v>184500</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282" s="4">
         <v>73800</v>
       </c>
       <c r="D282">
@@ -6795,14 +6812,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>296</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283">
         <v>60300</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283" s="4">
         <v>30150</v>
       </c>
       <c r="D283">
@@ -6812,14 +6829,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>297</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284">
         <v>167300</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284" s="4">
         <v>117110</v>
       </c>
       <c r="D284">
@@ -6829,14 +6846,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>27</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285">
         <v>70300</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285" s="4">
         <v>56240</v>
       </c>
       <c r="D285">
@@ -6846,14 +6863,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>298</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286">
         <v>191100</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286" s="4">
         <v>76440</v>
       </c>
       <c r="D286">
@@ -6863,14 +6880,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>299</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287">
         <v>126700</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287" s="4">
         <v>63350</v>
       </c>
       <c r="D287">
@@ -6880,14 +6897,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>300</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288">
         <v>145900</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288" s="4">
         <v>87540</v>
       </c>
       <c r="D288">
@@ -6897,14 +6914,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>301</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289">
         <v>89200</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289" s="4">
         <v>71360</v>
       </c>
       <c r="D289">
@@ -6914,14 +6931,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>302</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290">
         <v>134100</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290" s="4">
         <v>107280</v>
       </c>
       <c r="D290">
@@ -6931,14 +6948,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>7</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291">
         <v>180400</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291" s="4">
         <v>108240</v>
       </c>
       <c r="D291">
@@ -6948,14 +6965,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>303</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292">
         <v>126900</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292" s="4">
         <v>101520</v>
       </c>
       <c r="D292">
@@ -6965,14 +6982,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>304</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293">
         <v>177500</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293" s="4">
         <v>106500</v>
       </c>
       <c r="D293">
@@ -6982,14 +6999,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>305</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294">
         <v>182000</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294" s="4">
         <v>145600</v>
       </c>
       <c r="D294">
@@ -6999,14 +7016,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>306</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295">
         <v>61900</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295" s="4">
         <v>24760</v>
       </c>
       <c r="D295">
@@ -7016,14 +7033,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>307</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296">
         <v>117300</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296" s="4">
         <v>93840</v>
       </c>
       <c r="D296">
@@ -7033,14 +7050,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>308</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297">
         <v>141000</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297" s="4">
         <v>84600</v>
       </c>
       <c r="D297">
@@ -7050,14 +7067,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>309</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298">
         <v>119700</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298" s="4">
         <v>71820</v>
       </c>
       <c r="D298">
@@ -7067,14 +7084,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>310</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299">
         <v>135500</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299" s="4">
         <v>94850</v>
       </c>
       <c r="D299">
@@ -7084,14 +7101,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>311</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300">
         <v>63900</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300" s="4">
         <v>51120</v>
       </c>
       <c r="D300">
@@ -7101,14 +7118,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>312</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301">
         <v>83500</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301" s="4">
         <v>58450</v>
       </c>
       <c r="D301">
@@ -7118,14 +7135,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>313</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302">
         <v>197600</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302" s="4">
         <v>98800</v>
       </c>
       <c r="D302">
@@ -7135,14 +7152,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>314</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303">
         <v>127700</v>
       </c>
-      <c r="C303" s="2">
+      <c r="C303" s="4">
         <v>63850</v>
       </c>
       <c r="D303">
@@ -7152,14 +7169,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>315</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304">
         <v>181500</v>
       </c>
-      <c r="C304" s="2">
+      <c r="C304" s="4">
         <v>127050</v>
       </c>
       <c r="D304">
@@ -7169,14 +7186,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>316</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305">
         <v>128200</v>
       </c>
-      <c r="C305" s="2">
+      <c r="C305" s="4">
         <v>76920</v>
       </c>
       <c r="D305">
@@ -7186,14 +7203,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>317</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306">
         <v>184700</v>
       </c>
-      <c r="C306" s="2">
+      <c r="C306" s="4">
         <v>92350</v>
       </c>
       <c r="D306">
@@ -7203,14 +7220,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>318</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307">
         <v>63100</v>
       </c>
-      <c r="C307" s="2">
+      <c r="C307" s="4">
         <v>50480</v>
       </c>
       <c r="D307">
@@ -7220,14 +7237,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>22</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308">
         <v>145500</v>
       </c>
-      <c r="C308" s="2">
+      <c r="C308" s="4">
         <v>72750</v>
       </c>
       <c r="D308">
@@ -7237,14 +7254,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>319</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309">
         <v>93700</v>
       </c>
-      <c r="C309" s="2">
+      <c r="C309" s="4">
         <v>37480</v>
       </c>
       <c r="D309">
@@ -7254,14 +7271,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>320</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310">
         <v>96600</v>
       </c>
-      <c r="C310" s="2">
+      <c r="C310" s="4">
         <v>57960</v>
       </c>
       <c r="D310">
@@ -7271,14 +7288,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>321</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311">
         <v>160100</v>
       </c>
-      <c r="C311" s="2">
+      <c r="C311" s="4">
         <v>112070</v>
       </c>
       <c r="D311">
@@ -7288,14 +7305,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>322</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312">
         <v>145600</v>
       </c>
-      <c r="C312" s="2">
+      <c r="C312" s="4">
         <v>87360</v>
       </c>
       <c r="D312">
@@ -7305,14 +7322,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>323</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313">
         <v>86400</v>
       </c>
-      <c r="C313" s="2">
+      <c r="C313" s="4">
         <v>69120</v>
       </c>
       <c r="D313">
@@ -7322,14 +7339,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>324</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314">
         <v>84900</v>
       </c>
-      <c r="C314" s="2">
+      <c r="C314" s="4">
         <v>50940</v>
       </c>
       <c r="D314">
@@ -7339,14 +7356,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315">
         <v>118300</v>
       </c>
-      <c r="C315" s="2">
+      <c r="C315" s="4">
         <v>82810</v>
       </c>
       <c r="D315">
@@ -7356,14 +7373,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>325</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316">
         <v>86700</v>
       </c>
-      <c r="C316" s="2">
+      <c r="C316" s="4">
         <v>69360</v>
       </c>
       <c r="D316">
@@ -7373,14 +7390,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>326</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317">
         <v>74100</v>
       </c>
-      <c r="C317" s="2">
+      <c r="C317" s="4">
         <v>29640</v>
       </c>
       <c r="D317">
@@ -7390,14 +7407,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>327</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318">
         <v>70600</v>
       </c>
-      <c r="C318" s="2">
+      <c r="C318" s="4">
         <v>56480</v>
       </c>
       <c r="D318">
@@ -7407,14 +7424,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>328</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319">
         <v>125800</v>
       </c>
-      <c r="C319" s="2">
+      <c r="C319" s="4">
         <v>75480</v>
       </c>
       <c r="D319">
@@ -7424,14 +7441,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>329</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320">
         <v>126100</v>
       </c>
-      <c r="C320" s="2">
+      <c r="C320" s="4">
         <v>75660</v>
       </c>
       <c r="D320">
@@ -7441,14 +7458,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>330</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321">
         <v>184200</v>
       </c>
-      <c r="C321" s="2">
+      <c r="C321" s="4">
         <v>73680</v>
       </c>
       <c r="D321">
@@ -7458,14 +7475,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>331</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322">
         <v>195400</v>
       </c>
-      <c r="C322" s="2">
+      <c r="C322" s="4">
         <v>136780</v>
       </c>
       <c r="D322">
@@ -7475,14 +7492,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>23</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323">
         <v>68700</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323" s="4">
         <v>48090</v>
       </c>
       <c r="D323">
@@ -7492,14 +7509,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>332</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324">
         <v>54200</v>
       </c>
-      <c r="C324" s="2">
+      <c r="C324" s="4">
         <v>27100</v>
       </c>
       <c r="D324">
@@ -7509,14 +7526,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>333</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325">
         <v>110300</v>
       </c>
-      <c r="C325" s="2">
+      <c r="C325" s="4">
         <v>66180</v>
       </c>
       <c r="D325">
@@ -7526,14 +7543,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>334</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326">
         <v>90700</v>
       </c>
-      <c r="C326" s="2">
+      <c r="C326" s="4">
         <v>54420</v>
       </c>
       <c r="D326">
@@ -7543,14 +7560,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>335</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327">
         <v>181800</v>
       </c>
-      <c r="C327" s="2">
+      <c r="C327" s="4">
         <v>72720</v>
       </c>
       <c r="D327">
@@ -7560,14 +7577,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>336</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328">
         <v>170600</v>
       </c>
-      <c r="C328" s="2">
+      <c r="C328" s="4">
         <v>85300</v>
       </c>
       <c r="D328">
@@ -7577,14 +7594,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>337</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329">
         <v>168200</v>
       </c>
-      <c r="C329" s="2">
+      <c r="C329" s="4">
         <v>117740</v>
       </c>
       <c r="D329">
@@ -7594,14 +7611,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>338</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330">
         <v>95900</v>
       </c>
-      <c r="C330" s="2">
+      <c r="C330" s="4">
         <v>67130</v>
       </c>
       <c r="D330">
@@ -7611,14 +7628,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>339</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331">
         <v>76700</v>
       </c>
-      <c r="C331" s="2">
+      <c r="C331" s="4">
         <v>30680</v>
       </c>
       <c r="D331">
@@ -7628,14 +7645,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>340</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332">
         <v>117400</v>
       </c>
-      <c r="C332" s="2">
+      <c r="C332" s="4">
         <v>82180</v>
       </c>
       <c r="D332">
@@ -7645,14 +7662,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>341</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333">
         <v>109900</v>
       </c>
-      <c r="C333" s="2">
+      <c r="C333" s="4">
         <v>76930</v>
       </c>
       <c r="D333">
@@ -7662,14 +7679,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>342</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334">
         <v>136600</v>
       </c>
-      <c r="C334" s="2">
+      <c r="C334" s="4">
         <v>95620</v>
       </c>
       <c r="D334">
@@ -7679,14 +7696,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>343</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335">
         <v>98300</v>
       </c>
-      <c r="C335" s="2">
+      <c r="C335" s="4">
         <v>58980</v>
       </c>
       <c r="D335">
@@ -7696,14 +7713,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>344</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336">
         <v>55400</v>
       </c>
-      <c r="C336" s="2">
+      <c r="C336" s="4">
         <v>27700</v>
       </c>
       <c r="D336">
@@ -7713,14 +7730,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>345</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337">
         <v>135500</v>
       </c>
-      <c r="C337" s="2">
+      <c r="C337" s="4">
         <v>81300</v>
       </c>
       <c r="D337">
@@ -7730,14 +7747,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>346</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338">
         <v>124200</v>
       </c>
-      <c r="C338" s="2">
+      <c r="C338" s="4">
         <v>86940</v>
       </c>
       <c r="D338">
@@ -7747,14 +7764,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>347</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339">
         <v>77200</v>
       </c>
-      <c r="C339" s="2">
+      <c r="C339" s="4">
         <v>46320</v>
       </c>
       <c r="D339">
@@ -7764,14 +7781,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>348</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340">
         <v>165400</v>
       </c>
-      <c r="C340" s="2">
+      <c r="C340" s="4">
         <v>82700</v>
       </c>
       <c r="D340">
@@ -7781,14 +7798,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>349</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341">
         <v>72000</v>
       </c>
-      <c r="C341" s="2">
+      <c r="C341" s="4">
         <v>50400</v>
       </c>
       <c r="D341">
@@ -7798,14 +7815,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>350</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342">
         <v>159600</v>
       </c>
-      <c r="C342" s="2">
+      <c r="C342" s="4">
         <v>79800</v>
       </c>
       <c r="D342">
@@ -7815,14 +7832,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>351</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343">
         <v>148200</v>
       </c>
-      <c r="C343" s="2">
+      <c r="C343" s="4">
         <v>88920</v>
       </c>
       <c r="D343">
@@ -7832,14 +7849,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>519</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344">
         <v>101400</v>
       </c>
-      <c r="C344" s="2">
+      <c r="C344" s="4">
         <v>81120</v>
       </c>
       <c r="D344">
@@ -7849,14 +7866,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>352</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345">
         <v>53200</v>
       </c>
-      <c r="C345" s="2">
+      <c r="C345" s="4">
         <v>21280</v>
       </c>
       <c r="D345">
@@ -7866,14 +7883,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>353</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346">
         <v>138800</v>
       </c>
-      <c r="C346" s="2">
+      <c r="C346" s="4">
         <v>69400</v>
       </c>
       <c r="D346">
@@ -7883,14 +7900,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>354</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347">
         <v>78400</v>
       </c>
-      <c r="C347" s="2">
+      <c r="C347" s="4">
         <v>31360</v>
       </c>
       <c r="D347">
@@ -7900,14 +7917,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>355</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348">
         <v>177600</v>
       </c>
-      <c r="C348" s="2">
+      <c r="C348" s="4">
         <v>106560</v>
       </c>
       <c r="D348">
@@ -7917,14 +7934,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>356</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349">
         <v>72700</v>
       </c>
-      <c r="C349" s="2">
+      <c r="C349" s="4">
         <v>36350</v>
       </c>
       <c r="D349">
@@ -7934,14 +7951,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>357</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350">
         <v>115500</v>
       </c>
-      <c r="C350" s="2">
+      <c r="C350" s="4">
         <v>46200</v>
       </c>
       <c r="D350">
@@ -7951,14 +7968,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>358</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351">
         <v>76700</v>
       </c>
-      <c r="C351" s="2">
+      <c r="C351" s="4">
         <v>46020</v>
       </c>
       <c r="D351">
@@ -7968,14 +7985,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>359</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352">
         <v>163300</v>
       </c>
-      <c r="C352" s="2">
+      <c r="C352" s="4">
         <v>130640</v>
       </c>
       <c r="D352">
@@ -7985,14 +8002,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>360</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353">
         <v>130800</v>
       </c>
-      <c r="C353" s="2">
+      <c r="C353" s="4">
         <v>65400</v>
       </c>
       <c r="D353">
@@ -8002,14 +8019,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>361</v>
       </c>
-      <c r="B354" s="2">
+      <c r="B354">
         <v>101400</v>
       </c>
-      <c r="C354" s="2">
+      <c r="C354" s="4">
         <v>50700</v>
       </c>
       <c r="D354">
@@ -8019,14 +8036,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>362</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355">
         <v>174400</v>
       </c>
-      <c r="C355" s="2">
+      <c r="C355" s="4">
         <v>104640</v>
       </c>
       <c r="D355">
@@ -8036,14 +8053,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356">
         <v>188500</v>
       </c>
-      <c r="C356" s="2">
+      <c r="C356" s="4">
         <v>150800</v>
       </c>
       <c r="D356">
@@ -8053,14 +8070,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>33</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357">
         <v>141300</v>
       </c>
-      <c r="C357" s="2">
+      <c r="C357" s="4">
         <v>70650</v>
       </c>
       <c r="D357">
@@ -8070,14 +8087,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>363</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358">
         <v>59400</v>
       </c>
-      <c r="C358" s="2">
+      <c r="C358" s="4">
         <v>35640</v>
       </c>
       <c r="D358">
@@ -8087,14 +8104,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>364</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359">
         <v>110700</v>
       </c>
-      <c r="C359" s="2">
+      <c r="C359" s="4">
         <v>44280</v>
       </c>
       <c r="D359">
@@ -8104,14 +8121,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>365</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360">
         <v>154200</v>
       </c>
-      <c r="C360" s="2">
+      <c r="C360" s="4">
         <v>92520</v>
       </c>
       <c r="D360">
@@ -8121,14 +8138,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>366</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361">
         <v>54400</v>
       </c>
-      <c r="C361" s="2">
+      <c r="C361" s="4">
         <v>43520</v>
       </c>
       <c r="D361">
@@ -8138,14 +8155,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>367</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362">
         <v>83500</v>
       </c>
-      <c r="C362" s="2">
+      <c r="C362" s="4">
         <v>58450</v>
       </c>
       <c r="D362">
@@ -8155,14 +8172,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>368</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363">
         <v>163500</v>
       </c>
-      <c r="C363" s="2">
+      <c r="C363" s="4">
         <v>98100</v>
       </c>
       <c r="D363">
@@ -8172,14 +8189,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>369</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364">
         <v>97200</v>
       </c>
-      <c r="C364" s="2">
+      <c r="C364" s="4">
         <v>58320</v>
       </c>
       <c r="D364">
@@ -8189,14 +8206,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>370</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365">
         <v>114000</v>
       </c>
-      <c r="C365" s="2">
+      <c r="C365" s="4">
         <v>91200</v>
       </c>
       <c r="D365">
@@ -8206,14 +8223,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>18</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366">
         <v>189400</v>
       </c>
-      <c r="C366" s="2">
+      <c r="C366" s="4">
         <v>113640</v>
       </c>
       <c r="D366">
@@ -8223,14 +8240,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>371</v>
       </c>
-      <c r="B367" s="2">
+      <c r="B367">
         <v>87700</v>
       </c>
-      <c r="C367" s="2">
+      <c r="C367" s="4">
         <v>35080</v>
       </c>
       <c r="D367">
@@ -8240,14 +8257,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="2">
+      <c r="B368">
         <v>50500</v>
       </c>
-      <c r="C368" s="2">
+      <c r="C368" s="4">
         <v>20200</v>
       </c>
       <c r="D368">
@@ -8257,14 +8274,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>372</v>
       </c>
-      <c r="B369" s="2">
+      <c r="B369">
         <v>156800</v>
       </c>
-      <c r="C369" s="2">
+      <c r="C369" s="4">
         <v>62720</v>
       </c>
       <c r="D369">
@@ -8274,14 +8291,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>373</v>
       </c>
-      <c r="B370" s="2">
+      <c r="B370">
         <v>89700</v>
       </c>
-      <c r="C370" s="2">
+      <c r="C370" s="4">
         <v>71760</v>
       </c>
       <c r="D370">
@@ -8291,14 +8308,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>374</v>
       </c>
-      <c r="B371" s="2">
+      <c r="B371">
         <v>139900</v>
       </c>
-      <c r="C371" s="2">
+      <c r="C371" s="4">
         <v>69950</v>
       </c>
       <c r="D371">
@@ -8308,14 +8325,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>375</v>
       </c>
-      <c r="B372" s="2">
+      <c r="B372">
         <v>82100</v>
       </c>
-      <c r="C372" s="2">
+      <c r="C372" s="4">
         <v>41050</v>
       </c>
       <c r="D372">
@@ -8325,14 +8342,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>376</v>
       </c>
-      <c r="B373" s="2">
+      <c r="B373">
         <v>155200</v>
       </c>
-      <c r="C373" s="2">
+      <c r="C373" s="4">
         <v>62080</v>
       </c>
       <c r="D373">
@@ -8342,14 +8359,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>13</v>
       </c>
-      <c r="B374" s="2">
+      <c r="B374">
         <v>106700</v>
       </c>
-      <c r="C374" s="2">
+      <c r="C374" s="4">
         <v>64020</v>
       </c>
       <c r="D374">
@@ -8359,14 +8376,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
-      <c r="B375" s="2">
+      <c r="B375">
         <v>81100</v>
       </c>
-      <c r="C375" s="2">
+      <c r="C375" s="4">
         <v>40550</v>
       </c>
       <c r="D375">
@@ -8376,14 +8393,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
-      <c r="B376" s="2">
+      <c r="B376">
         <v>86400</v>
       </c>
-      <c r="C376" s="2">
+      <c r="C376" s="4">
         <v>43200</v>
       </c>
       <c r="D376">
@@ -8393,14 +8410,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
-      <c r="B377" s="2">
+      <c r="B377">
         <v>95700</v>
       </c>
-      <c r="C377" s="2">
+      <c r="C377" s="4">
         <v>38280</v>
       </c>
       <c r="D377">
@@ -8410,14 +8427,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
-      <c r="B378" s="2">
+      <c r="B378">
         <v>143900</v>
       </c>
-      <c r="C378" s="2">
+      <c r="C378" s="4">
         <v>57560</v>
       </c>
       <c r="D378">
@@ -8427,14 +8444,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
-      <c r="B379" s="2">
+      <c r="B379">
         <v>164700</v>
       </c>
-      <c r="C379" s="2">
+      <c r="C379" s="4">
         <v>115290</v>
       </c>
       <c r="D379">
@@ -8444,14 +8461,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
-      <c r="B380" s="2">
+      <c r="B380">
         <v>192700</v>
       </c>
-      <c r="C380" s="2">
+      <c r="C380" s="4">
         <v>134890</v>
       </c>
       <c r="D380">
@@ -8461,14 +8478,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
-      <c r="B381" s="2">
+      <c r="B381">
         <v>115400</v>
       </c>
-      <c r="C381" s="2">
+      <c r="C381" s="4">
         <v>92320</v>
       </c>
       <c r="D381">
@@ -8478,14 +8495,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
-      <c r="B382" s="2">
+      <c r="B382">
         <v>146400</v>
       </c>
-      <c r="C382" s="2">
+      <c r="C382" s="4">
         <v>87840</v>
       </c>
       <c r="D382">
@@ -8495,14 +8512,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
-      <c r="B383" s="2">
+      <c r="B383">
         <v>52100</v>
       </c>
-      <c r="C383" s="2">
+      <c r="C383" s="4">
         <v>20840</v>
       </c>
       <c r="D383">
@@ -8512,14 +8529,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
-      <c r="B384" s="2">
+      <c r="B384">
         <v>63200</v>
       </c>
-      <c r="C384" s="2">
+      <c r="C384" s="4">
         <v>37920</v>
       </c>
       <c r="D384">
@@ -8529,14 +8546,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
-      <c r="B385" s="2">
+      <c r="B385">
         <v>148100</v>
       </c>
-      <c r="C385" s="2">
+      <c r="C385" s="4">
         <v>74050</v>
       </c>
       <c r="D385">
@@ -8546,14 +8563,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
-      <c r="B386" s="2">
+      <c r="B386">
         <v>172600</v>
       </c>
-      <c r="C386" s="2">
+      <c r="C386" s="4">
         <v>103560</v>
       </c>
       <c r="D386">
@@ -8563,14 +8580,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
-      <c r="B387" s="2">
+      <c r="B387">
         <v>119400</v>
       </c>
-      <c r="C387" s="2">
+      <c r="C387" s="4">
         <v>59700</v>
       </c>
       <c r="D387">
@@ -8580,14 +8597,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
-      <c r="B388" s="2">
+      <c r="B388">
         <v>127800</v>
       </c>
-      <c r="C388" s="2">
+      <c r="C388" s="4">
         <v>63900</v>
       </c>
       <c r="D388">
@@ -8597,14 +8614,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
-      <c r="B389" s="2">
+      <c r="B389">
         <v>90800</v>
       </c>
-      <c r="C389" s="2">
+      <c r="C389" s="4">
         <v>72640</v>
       </c>
       <c r="D389">
@@ -8614,14 +8631,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>44</v>
       </c>
-      <c r="B390" s="2">
+      <c r="B390">
         <v>99100</v>
       </c>
-      <c r="C390" s="2">
+      <c r="C390" s="4">
         <v>49550</v>
       </c>
       <c r="D390">
@@ -8631,14 +8648,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>392</v>
       </c>
-      <c r="B391" s="2">
+      <c r="B391">
         <v>170200</v>
       </c>
-      <c r="C391" s="2">
+      <c r="C391" s="4">
         <v>102120</v>
       </c>
       <c r="D391">
@@ -8648,14 +8665,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>393</v>
       </c>
-      <c r="B392" s="2">
+      <c r="B392">
         <v>186700</v>
       </c>
-      <c r="C392" s="2">
+      <c r="C392" s="4">
         <v>74680</v>
       </c>
       <c r="D392">
@@ -8665,14 +8682,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>394</v>
       </c>
-      <c r="B393" s="2">
+      <c r="B393">
         <v>156200</v>
       </c>
-      <c r="C393" s="2">
+      <c r="C393" s="4">
         <v>93720</v>
       </c>
       <c r="D393">
@@ -8682,14 +8699,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>51</v>
       </c>
-      <c r="B394" s="2">
+      <c r="B394">
         <v>192000</v>
       </c>
-      <c r="C394" s="2">
+      <c r="C394" s="4">
         <v>76800</v>
       </c>
       <c r="D394">
@@ -8699,14 +8716,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>395</v>
       </c>
-      <c r="B395" s="2">
+      <c r="B395">
         <v>172400</v>
       </c>
-      <c r="C395" s="2">
+      <c r="C395" s="4">
         <v>137920</v>
       </c>
       <c r="D395">
@@ -8716,14 +8733,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>396</v>
       </c>
-      <c r="B396" s="2">
+      <c r="B396">
         <v>113100</v>
       </c>
-      <c r="C396" s="2">
+      <c r="C396" s="4">
         <v>79170</v>
       </c>
       <c r="D396">
@@ -8733,14 +8750,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>397</v>
       </c>
-      <c r="B397" s="2">
+      <c r="B397">
         <v>83300</v>
       </c>
-      <c r="C397" s="2">
+      <c r="C397" s="4">
         <v>66640</v>
       </c>
       <c r="D397">
@@ -8750,14 +8767,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>398</v>
       </c>
-      <c r="B398" s="2">
+      <c r="B398">
         <v>109900</v>
       </c>
-      <c r="C398" s="2">
+      <c r="C398" s="4">
         <v>43960</v>
       </c>
       <c r="D398">
@@ -8767,14 +8784,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>399</v>
       </c>
-      <c r="B399" s="2">
+      <c r="B399">
         <v>154200</v>
       </c>
-      <c r="C399" s="2">
+      <c r="C399" s="4">
         <v>77100</v>
       </c>
       <c r="D399">
@@ -8784,14 +8801,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>400</v>
       </c>
-      <c r="B400" s="2">
+      <c r="B400">
         <v>76900</v>
       </c>
-      <c r="C400" s="2">
+      <c r="C400" s="4">
         <v>61520</v>
       </c>
       <c r="D400">
@@ -8801,14 +8818,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>401</v>
       </c>
-      <c r="B401" s="2">
+      <c r="B401">
         <v>184500</v>
       </c>
-      <c r="C401" s="2">
+      <c r="C401" s="4">
         <v>110700</v>
       </c>
       <c r="D401">
@@ -8818,14 +8835,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>402</v>
       </c>
-      <c r="B402" s="2">
+      <c r="B402">
         <v>176800</v>
       </c>
-      <c r="C402" s="2">
+      <c r="C402" s="4">
         <v>70720</v>
       </c>
       <c r="D402">
@@ -8835,14 +8852,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>403</v>
       </c>
-      <c r="B403" s="2">
+      <c r="B403">
         <v>91200</v>
       </c>
-      <c r="C403" s="2">
+      <c r="C403" s="4">
         <v>54720</v>
       </c>
       <c r="D403">
@@ -8852,14 +8869,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>404</v>
       </c>
-      <c r="B404" s="2">
+      <c r="B404">
         <v>172800</v>
       </c>
-      <c r="C404" s="2">
+      <c r="C404" s="4">
         <v>86400</v>
       </c>
       <c r="D404">
@@ -8869,14 +8886,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>405</v>
       </c>
-      <c r="B405" s="2">
+      <c r="B405">
         <v>99400</v>
       </c>
-      <c r="C405" s="2">
+      <c r="C405" s="4">
         <v>79520</v>
       </c>
       <c r="D405">
@@ -8886,14 +8903,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>14</v>
       </c>
-      <c r="B406" s="2">
+      <c r="B406">
         <v>194100</v>
       </c>
-      <c r="C406" s="2">
+      <c r="C406" s="4">
         <v>77640</v>
       </c>
       <c r="D406">
@@ -8903,14 +8920,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-      <c r="B407" s="2">
+      <c r="B407">
         <v>196700</v>
       </c>
-      <c r="C407" s="2">
+      <c r="C407" s="4">
         <v>98350</v>
       </c>
       <c r="D407">
@@ -8920,14 +8937,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
-      <c r="B408" s="2">
+      <c r="B408">
         <v>134100</v>
       </c>
-      <c r="C408" s="2">
+      <c r="C408" s="4">
         <v>93870</v>
       </c>
       <c r="D408">
@@ -8937,14 +8954,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>407</v>
       </c>
-      <c r="B409" s="2">
+      <c r="B409">
         <v>96100</v>
       </c>
-      <c r="C409" s="2">
+      <c r="C409" s="4">
         <v>57660</v>
       </c>
       <c r="D409">
@@ -8954,14 +8971,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>408</v>
       </c>
-      <c r="B410" s="2">
+      <c r="B410">
         <v>186900</v>
       </c>
-      <c r="C410" s="2">
+      <c r="C410" s="4">
         <v>130830</v>
       </c>
       <c r="D410">
@@ -8971,14 +8988,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>409</v>
       </c>
-      <c r="B411" s="2">
+      <c r="B411">
         <v>171900</v>
       </c>
-      <c r="C411" s="2">
+      <c r="C411" s="4">
         <v>103140</v>
       </c>
       <c r="D411">
@@ -8988,14 +9005,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>410</v>
       </c>
-      <c r="B412" s="2">
+      <c r="B412">
         <v>138700</v>
       </c>
-      <c r="C412" s="2">
+      <c r="C412" s="4">
         <v>55480</v>
       </c>
       <c r="D412">
@@ -9005,14 +9022,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>411</v>
       </c>
-      <c r="B413" s="2">
+      <c r="B413">
         <v>167700</v>
       </c>
-      <c r="C413" s="2">
+      <c r="C413" s="4">
         <v>134160</v>
       </c>
       <c r="D413">
@@ -9022,14 +9039,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>412</v>
       </c>
-      <c r="B414" s="2">
+      <c r="B414">
         <v>87000</v>
       </c>
-      <c r="C414" s="2">
+      <c r="C414" s="4">
         <v>34800</v>
       </c>
       <c r="D414">
@@ -9039,14 +9056,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>413</v>
       </c>
-      <c r="B415" s="2">
+      <c r="B415">
         <v>113900</v>
       </c>
-      <c r="C415" s="2">
+      <c r="C415" s="4">
         <v>68340</v>
       </c>
       <c r="D415">
@@ -9056,14 +9073,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>414</v>
       </c>
-      <c r="B416" s="2">
+      <c r="B416">
         <v>76300</v>
       </c>
-      <c r="C416" s="2">
+      <c r="C416" s="4">
         <v>61040</v>
       </c>
       <c r="D416">
@@ -9073,14 +9090,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>415</v>
       </c>
-      <c r="B417" s="2">
+      <c r="B417">
         <v>145800</v>
       </c>
-      <c r="C417" s="2">
+      <c r="C417" s="4">
         <v>116640</v>
       </c>
       <c r="D417">
@@ -9090,14 +9107,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>416</v>
       </c>
-      <c r="B418" s="2">
+      <c r="B418">
         <v>98400</v>
       </c>
-      <c r="C418" s="2">
+      <c r="C418" s="4">
         <v>39360</v>
       </c>
       <c r="D418">
@@ -9107,14 +9124,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>417</v>
       </c>
-      <c r="B419" s="2">
+      <c r="B419">
         <v>66300</v>
       </c>
-      <c r="C419" s="2">
+      <c r="C419" s="4">
         <v>46410</v>
       </c>
       <c r="D419">
@@ -9124,14 +9141,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>418</v>
       </c>
-      <c r="B420" s="2">
+      <c r="B420">
         <v>170900</v>
       </c>
-      <c r="C420" s="2">
+      <c r="C420" s="4">
         <v>85450</v>
       </c>
       <c r="D420">
@@ -9141,14 +9158,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>419</v>
       </c>
-      <c r="B421" s="2">
+      <c r="B421">
         <v>75400</v>
       </c>
-      <c r="C421" s="2">
+      <c r="C421" s="4">
         <v>30160</v>
       </c>
       <c r="D421">
@@ -9158,14 +9175,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
-      <c r="B422" s="2">
+      <c r="B422">
         <v>131500</v>
       </c>
-      <c r="C422" s="2">
+      <c r="C422" s="4">
         <v>65750</v>
       </c>
       <c r="D422">
@@ -9175,14 +9192,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>421</v>
       </c>
-      <c r="B423" s="2">
+      <c r="B423">
         <v>132000</v>
       </c>
-      <c r="C423" s="2">
+      <c r="C423" s="4">
         <v>92400</v>
       </c>
       <c r="D423">
@@ -9192,14 +9209,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>422</v>
       </c>
-      <c r="B424" s="2">
+      <c r="B424">
         <v>73300</v>
       </c>
-      <c r="C424" s="2">
+      <c r="C424" s="4">
         <v>29320</v>
       </c>
       <c r="D424">
@@ -9209,14 +9226,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>423</v>
       </c>
-      <c r="B425" s="2">
+      <c r="B425">
         <v>129800</v>
       </c>
-      <c r="C425" s="2">
+      <c r="C425" s="4">
         <v>64900</v>
       </c>
       <c r="D425">
@@ -9226,14 +9243,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>424</v>
       </c>
-      <c r="B426" s="2">
+      <c r="B426">
         <v>131500</v>
       </c>
-      <c r="C426" s="2">
+      <c r="C426" s="4">
         <v>105200</v>
       </c>
       <c r="D426">
@@ -9243,14 +9260,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>520</v>
       </c>
-      <c r="B427" s="2">
+      <c r="B427">
         <v>125600</v>
       </c>
-      <c r="C427" s="2">
+      <c r="C427" s="4">
         <v>100480</v>
       </c>
       <c r="D427">
@@ -9260,14 +9277,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>425</v>
       </c>
-      <c r="B428" s="2">
+      <c r="B428">
         <v>184000</v>
       </c>
-      <c r="C428" s="2">
+      <c r="C428" s="4">
         <v>147200</v>
       </c>
       <c r="D428">
@@ -9277,14 +9294,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>426</v>
       </c>
-      <c r="B429" s="2">
+      <c r="B429">
         <v>97000</v>
       </c>
-      <c r="C429" s="2">
+      <c r="C429" s="4">
         <v>58200</v>
       </c>
       <c r="D429">
@@ -9294,14 +9311,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>427</v>
       </c>
-      <c r="B430" s="2">
+      <c r="B430">
         <v>199100</v>
       </c>
-      <c r="C430" s="2">
+      <c r="C430" s="4">
         <v>139370</v>
       </c>
       <c r="D430">
@@ -9311,14 +9328,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>428</v>
       </c>
-      <c r="B431" s="2">
+      <c r="B431">
         <v>167700</v>
       </c>
-      <c r="C431" s="2">
+      <c r="C431" s="4">
         <v>100620</v>
       </c>
       <c r="D431">
@@ -9328,14 +9345,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>429</v>
       </c>
-      <c r="B432" s="2">
+      <c r="B432">
         <v>121000</v>
       </c>
-      <c r="C432" s="2">
+      <c r="C432" s="4">
         <v>96800</v>
       </c>
       <c r="D432">
@@ -9345,14 +9362,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>521</v>
       </c>
-      <c r="B433" s="2">
+      <c r="B433">
         <v>70800</v>
       </c>
-      <c r="C433" s="2">
+      <c r="C433" s="4">
         <v>56640</v>
       </c>
       <c r="D433">
@@ -9362,14 +9379,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>430</v>
       </c>
-      <c r="B434" s="2">
+      <c r="B434">
         <v>133400</v>
       </c>
-      <c r="C434" s="2">
+      <c r="C434" s="4">
         <v>53360</v>
       </c>
       <c r="D434">
@@ -9379,14 +9396,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>431</v>
       </c>
-      <c r="B435" s="2">
+      <c r="B435">
         <v>119100</v>
       </c>
-      <c r="C435" s="2">
+      <c r="C435" s="4">
         <v>95280</v>
       </c>
       <c r="D435">
@@ -9396,14 +9413,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>432</v>
       </c>
-      <c r="B436" s="2">
+      <c r="B436">
         <v>73600</v>
       </c>
-      <c r="C436" s="2">
+      <c r="C436" s="4">
         <v>51520</v>
       </c>
       <c r="D436">
@@ -9413,14 +9430,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>433</v>
       </c>
-      <c r="B437" s="2">
+      <c r="B437">
         <v>72700</v>
       </c>
-      <c r="C437" s="2">
+      <c r="C437" s="4">
         <v>36350</v>
       </c>
       <c r="D437">
@@ -9430,14 +9447,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>434</v>
       </c>
-      <c r="B438" s="2">
+      <c r="B438">
         <v>189900</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C438" s="4">
         <v>151920</v>
       </c>
       <c r="D438">
@@ -9447,14 +9464,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>435</v>
       </c>
-      <c r="B439" s="2">
+      <c r="B439">
         <v>59000</v>
       </c>
-      <c r="C439" s="2">
+      <c r="C439" s="4">
         <v>47200</v>
       </c>
       <c r="D439">
@@ -9464,14 +9481,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>29</v>
       </c>
-      <c r="B440" s="2">
+      <c r="B440">
         <v>52800</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C440" s="4">
         <v>26400</v>
       </c>
       <c r="D440">
@@ -9481,14 +9498,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>436</v>
       </c>
-      <c r="B441" s="2">
+      <c r="B441">
         <v>175500</v>
       </c>
-      <c r="C441" s="2">
+      <c r="C441" s="4">
         <v>140400</v>
       </c>
       <c r="D441">
@@ -9498,14 +9515,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>437</v>
       </c>
-      <c r="B442" s="2">
+      <c r="B442">
         <v>62300</v>
       </c>
-      <c r="C442" s="2">
+      <c r="C442" s="4">
         <v>24920</v>
       </c>
       <c r="D442">
@@ -9515,14 +9532,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>438</v>
       </c>
-      <c r="B443" s="2">
+      <c r="B443">
         <v>165000</v>
       </c>
-      <c r="C443" s="2">
+      <c r="C443" s="4">
         <v>66000</v>
       </c>
       <c r="D443">
@@ -9532,14 +9549,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>439</v>
       </c>
-      <c r="B444" s="2">
+      <c r="B444">
         <v>51200</v>
       </c>
-      <c r="C444" s="2">
+      <c r="C444" s="4">
         <v>20480</v>
       </c>
       <c r="D444">
@@ -9549,14 +9566,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>440</v>
       </c>
-      <c r="B445" s="2">
+      <c r="B445">
         <v>172600</v>
       </c>
-      <c r="C445" s="2">
+      <c r="C445" s="4">
         <v>120820</v>
       </c>
       <c r="D445">
@@ -9566,14 +9583,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>15</v>
       </c>
-      <c r="B446" s="2">
+      <c r="B446">
         <v>195000</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C446" s="4">
         <v>97500</v>
       </c>
       <c r="D446">
@@ -9583,14 +9600,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>441</v>
       </c>
-      <c r="B447" s="2">
+      <c r="B447">
         <v>110900</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C447" s="4">
         <v>77630</v>
       </c>
       <c r="D447">
@@ -9600,14 +9617,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>442</v>
       </c>
-      <c r="B448" s="2">
+      <c r="B448">
         <v>160300</v>
       </c>
-      <c r="C448" s="2">
+      <c r="C448" s="4">
         <v>128240</v>
       </c>
       <c r="D448">
@@ -9617,14 +9634,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>443</v>
       </c>
-      <c r="B449" s="2">
+      <c r="B449">
         <v>168600</v>
       </c>
-      <c r="C449" s="2">
+      <c r="C449" s="4">
         <v>118020</v>
       </c>
       <c r="D449">
@@ -9634,14 +9651,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>444</v>
       </c>
-      <c r="B450" s="2">
+      <c r="B450">
         <v>69900</v>
       </c>
-      <c r="C450" s="2">
+      <c r="C450" s="4">
         <v>48930</v>
       </c>
       <c r="D450">
@@ -9651,14 +9668,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>445</v>
       </c>
-      <c r="B451" s="2">
+      <c r="B451">
         <v>101400</v>
       </c>
-      <c r="C451" s="2">
+      <c r="C451" s="4">
         <v>50700</v>
       </c>
       <c r="D451">
@@ -9668,14 +9685,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>446</v>
       </c>
-      <c r="B452" s="2">
+      <c r="B452">
         <v>126700</v>
       </c>
-      <c r="C452" s="2">
+      <c r="C452" s="4">
         <v>101360</v>
       </c>
       <c r="D452">
@@ -9685,14 +9702,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>447</v>
       </c>
-      <c r="B453" s="2">
+      <c r="B453">
         <v>89700</v>
       </c>
-      <c r="C453" s="2">
+      <c r="C453" s="4">
         <v>35880</v>
       </c>
       <c r="D453">
@@ -9702,14 +9719,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>448</v>
       </c>
-      <c r="B454" s="2">
+      <c r="B454">
         <v>84400</v>
       </c>
-      <c r="C454" s="2">
+      <c r="C454" s="4">
         <v>33760</v>
       </c>
       <c r="D454">
@@ -9719,14 +9736,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>449</v>
       </c>
-      <c r="B455" s="2">
+      <c r="B455">
         <v>196800</v>
       </c>
-      <c r="C455" s="2">
+      <c r="C455" s="4">
         <v>137760</v>
       </c>
       <c r="D455">
@@ -9736,14 +9753,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>450</v>
       </c>
-      <c r="B456" s="2">
+      <c r="B456">
         <v>135000</v>
       </c>
-      <c r="C456" s="2">
+      <c r="C456" s="4">
         <v>108000</v>
       </c>
       <c r="D456">
@@ -9753,14 +9770,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>451</v>
       </c>
-      <c r="B457" s="2">
+      <c r="B457">
         <v>61800</v>
       </c>
-      <c r="C457" s="2">
+      <c r="C457" s="4">
         <v>24720</v>
       </c>
       <c r="D457">
@@ -9770,14 +9787,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>19</v>
       </c>
-      <c r="B458" s="2">
+      <c r="B458">
         <v>109800</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C458" s="4">
         <v>76860</v>
       </c>
       <c r="D458">
@@ -9787,14 +9804,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>452</v>
       </c>
-      <c r="B459" s="2">
+      <c r="B459">
         <v>80800</v>
       </c>
-      <c r="C459" s="2">
+      <c r="C459" s="4">
         <v>64640</v>
       </c>
       <c r="D459">
@@ -9804,14 +9821,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>453</v>
       </c>
-      <c r="B460" s="2">
+      <c r="B460">
         <v>52300</v>
       </c>
-      <c r="C460" s="2">
+      <c r="C460" s="4">
         <v>26150</v>
       </c>
       <c r="D460">
@@ -9821,14 +9838,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>454</v>
       </c>
-      <c r="B461" s="2">
+      <c r="B461">
         <v>81300</v>
       </c>
-      <c r="C461" s="2">
+      <c r="C461" s="4">
         <v>56910</v>
       </c>
       <c r="D461">
@@ -9838,14 +9855,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>455</v>
       </c>
-      <c r="B462" s="2">
+      <c r="B462">
         <v>58100</v>
       </c>
-      <c r="C462" s="2">
+      <c r="C462" s="4">
         <v>29050</v>
       </c>
       <c r="D462">
@@ -9855,14 +9872,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>456</v>
       </c>
-      <c r="B463" s="2">
+      <c r="B463">
         <v>127600</v>
       </c>
-      <c r="C463" s="2">
+      <c r="C463" s="4">
         <v>102080</v>
       </c>
       <c r="D463">
@@ -9872,14 +9889,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>457</v>
       </c>
-      <c r="B464" s="2">
+      <c r="B464">
         <v>179800</v>
       </c>
-      <c r="C464" s="2">
+      <c r="C464" s="4">
         <v>143840</v>
       </c>
       <c r="D464">
@@ -9889,14 +9906,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>458</v>
       </c>
-      <c r="B465" s="2">
+      <c r="B465">
         <v>181000</v>
       </c>
-      <c r="C465" s="2">
+      <c r="C465" s="4">
         <v>144800</v>
       </c>
       <c r="D465">
@@ -9906,14 +9923,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>459</v>
       </c>
-      <c r="B466" s="2">
+      <c r="B466">
         <v>107800</v>
       </c>
-      <c r="C466" s="2">
+      <c r="C466" s="4">
         <v>64680</v>
       </c>
       <c r="D466">
@@ -9923,14 +9940,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>460</v>
       </c>
-      <c r="B467" s="2">
+      <c r="B467">
         <v>84200</v>
       </c>
-      <c r="C467" s="2">
+      <c r="C467" s="4">
         <v>42100</v>
       </c>
       <c r="D467">
@@ -9940,14 +9957,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>461</v>
       </c>
-      <c r="B468" s="2">
+      <c r="B468">
         <v>199500</v>
       </c>
-      <c r="C468" s="2">
+      <c r="C468" s="4">
         <v>99750</v>
       </c>
       <c r="D468">
@@ -9957,14 +9974,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>462</v>
       </c>
-      <c r="B469" s="2">
+      <c r="B469">
         <v>177500</v>
       </c>
-      <c r="C469" s="2">
+      <c r="C469" s="4">
         <v>142000</v>
       </c>
       <c r="D469">
@@ -9974,14 +9991,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>463</v>
       </c>
-      <c r="B470" s="2">
+      <c r="B470">
         <v>198900</v>
       </c>
-      <c r="C470" s="2">
+      <c r="C470" s="4">
         <v>119340</v>
       </c>
       <c r="D470">
@@ -9991,14 +10008,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>464</v>
       </c>
-      <c r="B471" s="2">
+      <c r="B471">
         <v>90600</v>
       </c>
-      <c r="C471" s="2">
+      <c r="C471" s="4">
         <v>54360</v>
       </c>
       <c r="D471">
@@ -10008,14 +10025,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>465</v>
       </c>
-      <c r="B472" s="2">
+      <c r="B472">
         <v>156700</v>
       </c>
-      <c r="C472" s="2">
+      <c r="C472" s="4">
         <v>109690</v>
       </c>
       <c r="D472">
@@ -10025,14 +10042,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>43</v>
       </c>
-      <c r="B473" s="2">
+      <c r="B473">
         <v>146000</v>
       </c>
-      <c r="C473" s="2">
+      <c r="C473" s="4">
         <v>87600</v>
       </c>
       <c r="D473">
@@ -10042,14 +10059,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>522</v>
       </c>
-      <c r="B474" s="2">
+      <c r="B474">
         <v>68500</v>
       </c>
-      <c r="C474" s="2">
+      <c r="C474" s="4">
         <v>47950</v>
       </c>
       <c r="D474">
@@ -10059,14 +10076,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>466</v>
       </c>
-      <c r="B475" s="2">
+      <c r="B475">
         <v>152300</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C475" s="4">
         <v>106610</v>
       </c>
       <c r="D475">
@@ -10076,14 +10093,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>467</v>
       </c>
-      <c r="B476" s="2">
+      <c r="B476">
         <v>144900</v>
       </c>
-      <c r="C476" s="2">
+      <c r="C476" s="4">
         <v>72450</v>
       </c>
       <c r="D476">
@@ -10093,14 +10110,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>16</v>
       </c>
-      <c r="B477" s="2">
+      <c r="B477">
         <v>175200</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C477" s="4">
         <v>140160</v>
       </c>
       <c r="D477">
@@ -10110,14 +10127,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>468</v>
       </c>
-      <c r="B478" s="2">
+      <c r="B478">
         <v>166400</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C478" s="4">
         <v>133120</v>
       </c>
       <c r="D478">
@@ -10127,14 +10144,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>45</v>
       </c>
-      <c r="B479" s="2">
+      <c r="B479">
         <v>183500</v>
       </c>
-      <c r="C479" s="2">
+      <c r="C479" s="4">
         <v>73400</v>
       </c>
       <c r="D479">
@@ -10144,14 +10161,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>469</v>
       </c>
-      <c r="B480" s="2">
+      <c r="B480">
         <v>123200</v>
       </c>
-      <c r="C480" s="2">
+      <c r="C480" s="4">
         <v>49280</v>
       </c>
       <c r="D480">
@@ -10161,14 +10178,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>470</v>
       </c>
-      <c r="B481" s="2">
+      <c r="B481">
         <v>179100</v>
       </c>
-      <c r="C481" s="2">
+      <c r="C481" s="4">
         <v>107460</v>
       </c>
       <c r="D481">
@@ -10178,14 +10195,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>471</v>
       </c>
-      <c r="B482" s="2">
+      <c r="B482">
         <v>103000</v>
       </c>
-      <c r="C482" s="2">
+      <c r="C482" s="4">
         <v>61800</v>
       </c>
       <c r="D482">
@@ -10195,14 +10212,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>472</v>
       </c>
-      <c r="B483" s="2">
+      <c r="B483">
         <v>117700</v>
       </c>
-      <c r="C483" s="2">
+      <c r="C483" s="4">
         <v>70620</v>
       </c>
       <c r="D483">
@@ -10212,14 +10229,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>473</v>
       </c>
-      <c r="B484" s="2">
+      <c r="B484">
         <v>98700</v>
       </c>
-      <c r="C484" s="2">
+      <c r="C484" s="4">
         <v>59220</v>
       </c>
       <c r="D484">
@@ -10229,14 +10246,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>474</v>
       </c>
-      <c r="B485" s="2">
+      <c r="B485">
         <v>114400</v>
       </c>
-      <c r="C485" s="2">
+      <c r="C485" s="4">
         <v>91520</v>
       </c>
       <c r="D485">
@@ -10246,14 +10263,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>475</v>
       </c>
-      <c r="B486" s="2">
+      <c r="B486">
         <v>52500</v>
       </c>
-      <c r="C486" s="2">
+      <c r="C486" s="4">
         <v>42000</v>
       </c>
       <c r="D486">
@@ -10263,14 +10280,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>476</v>
       </c>
-      <c r="B487" s="2">
+      <c r="B487">
         <v>57500</v>
       </c>
-      <c r="C487" s="2">
+      <c r="C487" s="4">
         <v>23000</v>
       </c>
       <c r="D487">
@@ -10280,14 +10297,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>477</v>
       </c>
-      <c r="B488" s="2">
+      <c r="B488">
         <v>181400</v>
       </c>
-      <c r="C488" s="2">
+      <c r="C488" s="4">
         <v>90700</v>
       </c>
       <c r="D488">
@@ -10297,14 +10314,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>478</v>
       </c>
-      <c r="B489" s="2">
+      <c r="B489">
         <v>180600</v>
       </c>
-      <c r="C489" s="2">
+      <c r="C489" s="4">
         <v>90300</v>
       </c>
       <c r="D489">
@@ -10314,14 +10331,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>479</v>
       </c>
-      <c r="B490" s="2">
+      <c r="B490">
         <v>178700</v>
       </c>
-      <c r="C490" s="2">
+      <c r="C490" s="4">
         <v>125090</v>
       </c>
       <c r="D490">
@@ -10331,14 +10348,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>480</v>
       </c>
-      <c r="B491" s="2">
+      <c r="B491">
         <v>158100</v>
       </c>
-      <c r="C491" s="2">
+      <c r="C491" s="4">
         <v>110670</v>
       </c>
       <c r="D491">
@@ -10348,14 +10365,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>481</v>
       </c>
-      <c r="B492" s="2">
+      <c r="B492">
         <v>95700</v>
       </c>
-      <c r="C492" s="2">
+      <c r="C492" s="4">
         <v>76560</v>
       </c>
       <c r="D492">
@@ -10365,14 +10382,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>482</v>
       </c>
-      <c r="B493" s="2">
+      <c r="B493">
         <v>199800</v>
       </c>
-      <c r="C493" s="2">
+      <c r="C493" s="4">
         <v>119880</v>
       </c>
       <c r="D493">
@@ -10382,14 +10399,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>483</v>
       </c>
-      <c r="B494" s="2">
+      <c r="B494">
         <v>134400</v>
       </c>
-      <c r="C494" s="2">
+      <c r="C494" s="4">
         <v>107520</v>
       </c>
       <c r="D494">
@@ -10399,14 +10416,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>484</v>
       </c>
-      <c r="B495" s="2">
+      <c r="B495">
         <v>154700</v>
       </c>
-      <c r="C495" s="2">
+      <c r="C495" s="4">
         <v>123760</v>
       </c>
       <c r="D495">
@@ -10416,14 +10433,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>485</v>
       </c>
-      <c r="B496" s="2">
+      <c r="B496">
         <v>122000</v>
       </c>
-      <c r="C496" s="2">
+      <c r="C496" s="4">
         <v>97600</v>
       </c>
       <c r="D496">
@@ -10433,14 +10450,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>486</v>
       </c>
-      <c r="B497" s="2">
+      <c r="B497">
         <v>126300</v>
       </c>
-      <c r="C497" s="2">
+      <c r="C497" s="4">
         <v>88410</v>
       </c>
       <c r="D497">
@@ -10450,14 +10467,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>487</v>
       </c>
-      <c r="B498" s="2">
+      <c r="B498">
         <v>75300</v>
       </c>
-      <c r="C498" s="2">
+      <c r="C498" s="4">
         <v>45180</v>
       </c>
       <c r="D498">
@@ -10467,14 +10484,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>488</v>
       </c>
-      <c r="B499" s="2">
+      <c r="B499">
         <v>101300</v>
       </c>
-      <c r="C499" s="2">
+      <c r="C499" s="4">
         <v>60780</v>
       </c>
       <c r="D499">
@@ -10484,14 +10501,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>489</v>
       </c>
-      <c r="B500" s="2">
+      <c r="B500">
         <v>144600</v>
       </c>
-      <c r="C500" s="2">
+      <c r="C500" s="4">
         <v>86760</v>
       </c>
       <c r="D500">
@@ -10501,14 +10518,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>490</v>
       </c>
-      <c r="B501" s="2">
+      <c r="B501">
         <v>136600</v>
       </c>
-      <c r="C501" s="2">
+      <c r="C501" s="4">
         <v>68300</v>
       </c>
       <c r="D501">
@@ -10518,14 +10535,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>523</v>
       </c>
-      <c r="B502" s="2">
+      <c r="B502">
         <v>142300</v>
       </c>
-      <c r="C502" s="2">
+      <c r="C502" s="4">
         <v>85380</v>
       </c>
       <c r="D502">
@@ -10535,14 +10552,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>17</v>
       </c>
-      <c r="B503" s="2">
+      <c r="B503">
         <v>121100</v>
       </c>
-      <c r="C503" s="2">
+      <c r="C503" s="4">
         <v>48440</v>
       </c>
       <c r="D503">
@@ -10552,14 +10569,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>491</v>
       </c>
-      <c r="B504" s="2">
+      <c r="B504">
         <v>172600</v>
       </c>
-      <c r="C504" s="2">
+      <c r="C504" s="4">
         <v>138080</v>
       </c>
       <c r="D504">
@@ -10569,14 +10586,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>492</v>
       </c>
-      <c r="B505" s="2">
+      <c r="B505">
         <v>159500</v>
       </c>
-      <c r="C505" s="2">
+      <c r="C505" s="4">
         <v>63800</v>
       </c>
       <c r="D505">
@@ -10586,14 +10603,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>493</v>
       </c>
-      <c r="B506" s="2">
+      <c r="B506">
         <v>147100</v>
       </c>
-      <c r="C506" s="2">
+      <c r="C506" s="4">
         <v>102970</v>
       </c>
       <c r="D506">
@@ -10603,14 +10620,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>494</v>
       </c>
-      <c r="B507" s="2">
+      <c r="B507">
         <v>100700</v>
       </c>
-      <c r="C507" s="2">
+      <c r="C507" s="4">
         <v>50350</v>
       </c>
       <c r="D507">
@@ -10620,14 +10637,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>495</v>
       </c>
-      <c r="B508" s="2">
+      <c r="B508">
         <v>112000</v>
       </c>
-      <c r="C508" s="2">
+      <c r="C508" s="4">
         <v>67200</v>
       </c>
       <c r="D508">
@@ -10637,14 +10654,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>496</v>
       </c>
-      <c r="B509" s="2">
+      <c r="B509">
         <v>198400</v>
       </c>
-      <c r="C509" s="2">
+      <c r="C509" s="4">
         <v>79360</v>
       </c>
       <c r="D509">
@@ -10654,14 +10671,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>497</v>
       </c>
-      <c r="B510" s="2">
+      <c r="B510">
         <v>68000</v>
       </c>
-      <c r="C510" s="2">
+      <c r="C510" s="4">
         <v>54400</v>
       </c>
       <c r="D510">
@@ -10671,14 +10688,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>498</v>
       </c>
-      <c r="B511" s="2">
+      <c r="B511">
         <v>181900</v>
       </c>
-      <c r="C511" s="2">
+      <c r="C511" s="4">
         <v>145520</v>
       </c>
       <c r="D511">
@@ -10688,14 +10705,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>499</v>
       </c>
-      <c r="B512" s="2">
+      <c r="B512">
         <v>194700</v>
       </c>
-      <c r="C512" s="2">
+      <c r="C512" s="4">
         <v>116820</v>
       </c>
       <c r="D512">
@@ -10705,14 +10722,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>34</v>
       </c>
-      <c r="B513" s="2">
+      <c r="B513">
         <v>136900</v>
       </c>
-      <c r="C513" s="2">
+      <c r="C513" s="4">
         <v>82140</v>
       </c>
       <c r="D513">
@@ -10722,14 +10739,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>25</v>
       </c>
-      <c r="B514" s="2">
+      <c r="B514">
         <v>150600</v>
       </c>
-      <c r="C514" s="2">
+      <c r="C514" s="4">
         <v>60240</v>
       </c>
       <c r="D514">
@@ -10739,14 +10756,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>500</v>
       </c>
-      <c r="B515" s="2">
+      <c r="B515">
         <v>76200</v>
       </c>
-      <c r="C515" s="2">
+      <c r="C515" s="4">
         <v>53340</v>
       </c>
       <c r="D515">
@@ -10756,14 +10773,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>501</v>
       </c>
-      <c r="B516" s="2">
+      <c r="B516">
         <v>175300</v>
       </c>
-      <c r="C516" s="2">
+      <c r="C516" s="4">
         <v>122710</v>
       </c>
       <c r="D516">
@@ -10773,14 +10790,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>502</v>
       </c>
-      <c r="B517" s="2">
+      <c r="B517">
         <v>102400</v>
       </c>
-      <c r="C517" s="2">
+      <c r="C517" s="4">
         <v>81920</v>
       </c>
       <c r="D517">
@@ -10790,14 +10807,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>503</v>
       </c>
-      <c r="B518" s="2">
+      <c r="B518">
         <v>60000</v>
       </c>
-      <c r="C518" s="2">
+      <c r="C518" s="4">
         <v>30000</v>
       </c>
       <c r="D518">
@@ -10807,14 +10824,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>504</v>
       </c>
-      <c r="B519" s="2">
+      <c r="B519">
         <v>103400</v>
       </c>
-      <c r="C519" s="2">
+      <c r="C519" s="4">
         <v>72380</v>
       </c>
       <c r="D519">
@@ -10824,14 +10841,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>505</v>
       </c>
-      <c r="B520" s="2">
+      <c r="B520">
         <v>93300</v>
       </c>
-      <c r="C520" s="2">
+      <c r="C520" s="4">
         <v>65310</v>
       </c>
       <c r="D520">
@@ -10841,14 +10858,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>506</v>
       </c>
-      <c r="B521" s="2">
+      <c r="B521">
         <v>126200</v>
       </c>
-      <c r="C521" s="2">
+      <c r="C521" s="4">
         <v>75720</v>
       </c>
       <c r="D521">
@@ -10858,14 +10875,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>507</v>
       </c>
-      <c r="B522" s="2">
+      <c r="B522">
         <v>197000</v>
       </c>
-      <c r="C522" s="2">
+      <c r="C522" s="4">
         <v>118200</v>
       </c>
       <c r="D522">
@@ -10875,14 +10892,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>508</v>
       </c>
-      <c r="B523" s="2">
+      <c r="B523">
         <v>187000</v>
       </c>
-      <c r="C523" s="2">
+      <c r="C523" s="4">
         <v>149600</v>
       </c>
       <c r="D523">
@@ -10892,14 +10909,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>509</v>
       </c>
-      <c r="B524" s="2">
+      <c r="B524">
         <v>169300</v>
       </c>
-      <c r="C524" s="2">
+      <c r="C524" s="4">
         <v>135440</v>
       </c>
       <c r="D524">

--- a/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
+++ b/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarap\Documents\GitHub\Web_Desarrollo\veterinaria\src\main\resources\static\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f54372214df82fd/Escritorio/web/Web_Desarrollo/veterinaria/src/main/resources/static/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268FCE08-8739-4591-A345-328A74DEFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{268FCE08-8739-4591-A345-328A74DEFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912283B1-2D43-4F33-9B85-2804AA192FFD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICAMENTOS BD FINAL" sheetId="10" r:id="rId1"/>
@@ -1719,10 +1719,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ESVAC OK" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2004,21 +2004,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22169EE9-4596-4307-A7B5-C6523647A88D}">
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2035,31 +2035,31 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
         <v>151300</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>60520</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3">
         <v>155100</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>124080</v>
       </c>
       <c r="D3">
@@ -2069,14 +2069,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4">
         <v>114800</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>91840</v>
       </c>
       <c r="D4">
@@ -2086,14 +2086,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5">
         <v>147600</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>103320</v>
       </c>
       <c r="D5">
@@ -2102,15 +2102,16 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6">
         <v>129000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>64500</v>
       </c>
       <c r="D6">
@@ -2120,14 +2121,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7">
         <v>164900</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>115430</v>
       </c>
       <c r="D7">
@@ -2137,14 +2138,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
       <c r="B8">
         <v>125800</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>100640</v>
       </c>
       <c r="D8">
@@ -2154,14 +2155,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>510</v>
       </c>
       <c r="B9">
         <v>79100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>47460</v>
       </c>
       <c r="D9">
@@ -2171,14 +2172,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
       <c r="B10">
         <v>182000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>109200</v>
       </c>
       <c r="D10">
@@ -2188,14 +2189,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
       <c r="B11">
         <v>133400</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>80040</v>
       </c>
       <c r="D11">
@@ -2205,14 +2206,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
       <c r="B12">
         <v>135500</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>108400</v>
       </c>
       <c r="D12">
@@ -2222,14 +2223,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
       <c r="B13">
         <v>86800</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>52080</v>
       </c>
       <c r="D13">
@@ -2239,14 +2240,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
       <c r="B14">
         <v>182900</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>109740</v>
       </c>
       <c r="D14">
@@ -2256,14 +2257,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15">
         <v>141600</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>70800</v>
       </c>
       <c r="D15">
@@ -2273,14 +2274,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16">
         <v>146800</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>102760</v>
       </c>
       <c r="D16">
@@ -2297,7 +2298,7 @@
       <c r="B17">
         <v>58600</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>29300</v>
       </c>
       <c r="D17">
@@ -2314,7 +2315,7 @@
       <c r="B18">
         <v>50700</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>25350</v>
       </c>
       <c r="D18">
@@ -2331,7 +2332,7 @@
       <c r="B19">
         <v>198200</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>158560</v>
       </c>
       <c r="D19">
@@ -2348,7 +2349,7 @@
       <c r="B20">
         <v>84500</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>59150</v>
       </c>
       <c r="D20">
@@ -2365,7 +2366,7 @@
       <c r="B21">
         <v>64000</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>44800</v>
       </c>
       <c r="D21">
@@ -2382,7 +2383,7 @@
       <c r="B22">
         <v>182300</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>91150</v>
       </c>
       <c r="D22">
@@ -2399,7 +2400,7 @@
       <c r="B23">
         <v>93100</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>65170</v>
       </c>
       <c r="D23">
@@ -2416,7 +2417,7 @@
       <c r="B24">
         <v>86100</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>34440</v>
       </c>
       <c r="D24">
@@ -2433,7 +2434,7 @@
       <c r="B25">
         <v>52600</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>21040</v>
       </c>
       <c r="D25">
@@ -2450,7 +2451,7 @@
       <c r="B26">
         <v>142800</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>114240</v>
       </c>
       <c r="D26">
@@ -2467,7 +2468,7 @@
       <c r="B27">
         <v>133500</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>93450</v>
       </c>
       <c r="D27">
@@ -2484,7 +2485,7 @@
       <c r="B28">
         <v>90200</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>45100</v>
       </c>
       <c r="D28">
@@ -2501,7 +2502,7 @@
       <c r="B29">
         <v>104500</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>41800</v>
       </c>
       <c r="D29">
@@ -2518,7 +2519,7 @@
       <c r="B30">
         <v>151400</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>75700</v>
       </c>
       <c r="D30">
@@ -2535,7 +2536,7 @@
       <c r="B31">
         <v>193000</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>77200</v>
       </c>
       <c r="D31">
@@ -2552,7 +2553,7 @@
       <c r="B32">
         <v>190000</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>95000</v>
       </c>
       <c r="D32">
@@ -2569,7 +2570,7 @@
       <c r="B33">
         <v>162000</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>97200</v>
       </c>
       <c r="D33">
@@ -2586,7 +2587,7 @@
       <c r="B34">
         <v>190200</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>152160</v>
       </c>
       <c r="D34">
@@ -2603,7 +2604,7 @@
       <c r="B35">
         <v>177900</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>124530</v>
       </c>
       <c r="D35">
@@ -2620,7 +2621,7 @@
       <c r="B36">
         <v>141800</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>99260</v>
       </c>
       <c r="D36">
@@ -2637,7 +2638,7 @@
       <c r="B37">
         <v>144200</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>57680</v>
       </c>
       <c r="D37">
@@ -2654,7 +2655,7 @@
       <c r="B38">
         <v>188700</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>75480</v>
       </c>
       <c r="D38">
@@ -2671,7 +2672,7 @@
       <c r="B39">
         <v>155400</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>77700</v>
       </c>
       <c r="D39">
@@ -2688,7 +2689,7 @@
       <c r="B40">
         <v>110500</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>77350</v>
       </c>
       <c r="D40">
@@ -2705,7 +2706,7 @@
       <c r="B41">
         <v>118100</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>47240</v>
       </c>
       <c r="D41">
@@ -2722,7 +2723,7 @@
       <c r="B42">
         <v>148700</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>89220</v>
       </c>
       <c r="D42">
@@ -2739,7 +2740,7 @@
       <c r="B43">
         <v>155700</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>77850</v>
       </c>
       <c r="D43">
@@ -2756,7 +2757,7 @@
       <c r="B44">
         <v>131000</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>65500</v>
       </c>
       <c r="D44">
@@ -2773,7 +2774,7 @@
       <c r="B45">
         <v>106400</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>85120</v>
       </c>
       <c r="D45">
@@ -2790,7 +2791,7 @@
       <c r="B46">
         <v>131300</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>105040</v>
       </c>
       <c r="D46">
@@ -2807,7 +2808,7 @@
       <c r="B47">
         <v>63000</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>31500</v>
       </c>
       <c r="D47">
@@ -2824,7 +2825,7 @@
       <c r="B48">
         <v>181800</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>109080</v>
       </c>
       <c r="D48">
@@ -2841,7 +2842,7 @@
       <c r="B49">
         <v>131900</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>79140</v>
       </c>
       <c r="D49">
@@ -2858,7 +2859,7 @@
       <c r="B50">
         <v>53600</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>37520</v>
       </c>
       <c r="D50">
@@ -2875,7 +2876,7 @@
       <c r="B51">
         <v>167700</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>117390</v>
       </c>
       <c r="D51">
@@ -2892,7 +2893,7 @@
       <c r="B52">
         <v>125700</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>87990</v>
       </c>
       <c r="D52">
@@ -2909,7 +2910,7 @@
       <c r="B53">
         <v>143200</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>57280</v>
       </c>
       <c r="D53">
@@ -2926,7 +2927,7 @@
       <c r="B54">
         <v>76000</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54">
         <v>53200</v>
       </c>
       <c r="D54">
@@ -2943,7 +2944,7 @@
       <c r="B55">
         <v>113700</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55">
         <v>90960</v>
       </c>
       <c r="D55">
@@ -2960,7 +2961,7 @@
       <c r="B56">
         <v>58500</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>40950</v>
       </c>
       <c r="D56">
@@ -2977,7 +2978,7 @@
       <c r="B57">
         <v>64400</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57">
         <v>38640</v>
       </c>
       <c r="D57">
@@ -2994,7 +2995,7 @@
       <c r="B58">
         <v>142300</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58">
         <v>71150</v>
       </c>
       <c r="D58">
@@ -3011,7 +3012,7 @@
       <c r="B59">
         <v>108800</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>76160</v>
       </c>
       <c r="D59">
@@ -3028,7 +3029,7 @@
       <c r="B60">
         <v>113500</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60">
         <v>56750</v>
       </c>
       <c r="D60">
@@ -3045,7 +3046,7 @@
       <c r="B61">
         <v>124700</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61">
         <v>99760</v>
       </c>
       <c r="D61">
@@ -3062,7 +3063,7 @@
       <c r="B62">
         <v>198800</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>99400</v>
       </c>
       <c r="D62">
@@ -3079,7 +3080,7 @@
       <c r="B63">
         <v>185500</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63">
         <v>148400</v>
       </c>
       <c r="D63">
@@ -3096,7 +3097,7 @@
       <c r="B64">
         <v>139400</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64">
         <v>111520</v>
       </c>
       <c r="D64">
@@ -3113,7 +3114,7 @@
       <c r="B65">
         <v>178300</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65">
         <v>142640</v>
       </c>
       <c r="D65">
@@ -3130,7 +3131,7 @@
       <c r="B66">
         <v>96800</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66">
         <v>48400</v>
       </c>
       <c r="D66">
@@ -3147,7 +3148,7 @@
       <c r="B67">
         <v>180200</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67">
         <v>126140</v>
       </c>
       <c r="D67">
@@ -3164,7 +3165,7 @@
       <c r="B68">
         <v>92400</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68">
         <v>64680</v>
       </c>
       <c r="D68">
@@ -3181,7 +3182,7 @@
       <c r="B69">
         <v>67600</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69">
         <v>54080</v>
       </c>
       <c r="D69">
@@ -3198,7 +3199,7 @@
       <c r="B70">
         <v>107600</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70">
         <v>53800</v>
       </c>
       <c r="D70">
@@ -3215,7 +3216,7 @@
       <c r="B71">
         <v>165800</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71">
         <v>132640</v>
       </c>
       <c r="D71">
@@ -3232,7 +3233,7 @@
       <c r="B72">
         <v>109700</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72">
         <v>65820</v>
       </c>
       <c r="D72">
@@ -3249,7 +3250,7 @@
       <c r="B73">
         <v>137600</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73">
         <v>96320</v>
       </c>
       <c r="D73">
@@ -3266,7 +3267,7 @@
       <c r="B74">
         <v>90300</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>63210</v>
       </c>
       <c r="D74">
@@ -3283,7 +3284,7 @@
       <c r="B75">
         <v>129700</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75">
         <v>77820</v>
       </c>
       <c r="D75">
@@ -3300,7 +3301,7 @@
       <c r="B76">
         <v>108600</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>86880</v>
       </c>
       <c r="D76">
@@ -3317,7 +3318,7 @@
       <c r="B77">
         <v>167300</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77">
         <v>100380</v>
       </c>
       <c r="D77">
@@ -3334,7 +3335,7 @@
       <c r="B78">
         <v>76100</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78">
         <v>53270</v>
       </c>
       <c r="D78">
@@ -3351,7 +3352,7 @@
       <c r="B79">
         <v>58500</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79">
         <v>23400</v>
       </c>
       <c r="D79">
@@ -3368,7 +3369,7 @@
       <c r="B80">
         <v>143500</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80">
         <v>100450</v>
       </c>
       <c r="D80">
@@ -3385,7 +3386,7 @@
       <c r="B81">
         <v>92800</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81">
         <v>37120</v>
       </c>
       <c r="D81">
@@ -3402,7 +3403,7 @@
       <c r="B82">
         <v>163400</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82">
         <v>130720</v>
       </c>
       <c r="D82">
@@ -3419,7 +3420,7 @@
       <c r="B83">
         <v>55000</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83">
         <v>38500</v>
       </c>
       <c r="D83">
@@ -3436,7 +3437,7 @@
       <c r="B84">
         <v>160700</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84">
         <v>64280</v>
       </c>
       <c r="D84">
@@ -3453,7 +3454,7 @@
       <c r="B85">
         <v>58000</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85">
         <v>46400</v>
       </c>
       <c r="D85">
@@ -3470,7 +3471,7 @@
       <c r="B86">
         <v>120900</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86">
         <v>48360</v>
       </c>
       <c r="D86">
@@ -3487,7 +3488,7 @@
       <c r="B87">
         <v>117500</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87">
         <v>94000</v>
       </c>
       <c r="D87">
@@ -3504,7 +3505,7 @@
       <c r="B88">
         <v>98600</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88">
         <v>69020</v>
       </c>
       <c r="D88">
@@ -3521,7 +3522,7 @@
       <c r="B89">
         <v>57600</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89">
         <v>40320</v>
       </c>
       <c r="D89">
@@ -3538,7 +3539,7 @@
       <c r="B90">
         <v>104500</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90">
         <v>62700</v>
       </c>
       <c r="D90">
@@ -3555,7 +3556,7 @@
       <c r="B91">
         <v>118100</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91">
         <v>82670</v>
       </c>
       <c r="D91">
@@ -3572,7 +3573,7 @@
       <c r="B92">
         <v>51500</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92">
         <v>36050</v>
       </c>
       <c r="D92">
@@ -3589,7 +3590,7 @@
       <c r="B93">
         <v>183900</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93">
         <v>128730</v>
       </c>
       <c r="D93">
@@ -3606,7 +3607,7 @@
       <c r="B94">
         <v>156600</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94">
         <v>78300</v>
       </c>
       <c r="D94">
@@ -3623,7 +3624,7 @@
       <c r="B95">
         <v>62700</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95">
         <v>43890</v>
       </c>
       <c r="D95">
@@ -3640,7 +3641,7 @@
       <c r="B96">
         <v>52200</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96">
         <v>26100</v>
       </c>
       <c r="D96">
@@ -3657,7 +3658,7 @@
       <c r="B97">
         <v>186800</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97">
         <v>112080</v>
       </c>
       <c r="D97">
@@ -3674,7 +3675,7 @@
       <c r="B98">
         <v>133000</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98">
         <v>53200</v>
       </c>
       <c r="D98">
@@ -3691,7 +3692,7 @@
       <c r="B99">
         <v>197200</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99">
         <v>118320</v>
       </c>
       <c r="D99">
@@ -3708,7 +3709,7 @@
       <c r="B100">
         <v>179900</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100">
         <v>125930</v>
       </c>
       <c r="D100">
@@ -3725,7 +3726,7 @@
       <c r="B101">
         <v>152200</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101">
         <v>91320</v>
       </c>
       <c r="D101">
@@ -3742,7 +3743,7 @@
       <c r="B102">
         <v>110800</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102">
         <v>55400</v>
       </c>
       <c r="D102">
@@ -3759,7 +3760,7 @@
       <c r="B103">
         <v>52000</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103">
         <v>26000</v>
       </c>
       <c r="D103">
@@ -3776,7 +3777,7 @@
       <c r="B104">
         <v>112500</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104">
         <v>90000</v>
       </c>
       <c r="D104">
@@ -3793,7 +3794,7 @@
       <c r="B105">
         <v>118500</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105">
         <v>71100</v>
       </c>
       <c r="D105">
@@ -3810,7 +3811,7 @@
       <c r="B106">
         <v>71100</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106">
         <v>35550</v>
       </c>
       <c r="D106">
@@ -3827,7 +3828,7 @@
       <c r="B107">
         <v>199900</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107">
         <v>119940</v>
       </c>
       <c r="D107">
@@ -3844,7 +3845,7 @@
       <c r="B108">
         <v>91600</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108">
         <v>64120</v>
       </c>
       <c r="D108">
@@ -3861,7 +3862,7 @@
       <c r="B109">
         <v>58800</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109">
         <v>41160</v>
       </c>
       <c r="D109">
@@ -3878,7 +3879,7 @@
       <c r="B110">
         <v>87800</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110">
         <v>52680</v>
       </c>
       <c r="D110">
@@ -3895,7 +3896,7 @@
       <c r="B111">
         <v>195800</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111">
         <v>97900</v>
       </c>
       <c r="D111">
@@ -3912,7 +3913,7 @@
       <c r="B112">
         <v>102100</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112">
         <v>61260</v>
       </c>
       <c r="D112">
@@ -3929,7 +3930,7 @@
       <c r="B113">
         <v>56100</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113">
         <v>33660</v>
       </c>
       <c r="D113">
@@ -3946,7 +3947,7 @@
       <c r="B114">
         <v>84400</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114">
         <v>50640</v>
       </c>
       <c r="D114">
@@ -3963,7 +3964,7 @@
       <c r="B115">
         <v>181700</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115">
         <v>109020</v>
       </c>
       <c r="D115">
@@ -3980,7 +3981,7 @@
       <c r="B116">
         <v>196000</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116">
         <v>156800</v>
       </c>
       <c r="D116">
@@ -3997,7 +3998,7 @@
       <c r="B117">
         <v>59300</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117">
         <v>47440</v>
       </c>
       <c r="D117">
@@ -4014,7 +4015,7 @@
       <c r="B118">
         <v>177800</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118">
         <v>71120</v>
       </c>
       <c r="D118">
@@ -4031,7 +4032,7 @@
       <c r="B119">
         <v>168400</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119">
         <v>134720</v>
       </c>
       <c r="D119">
@@ -4048,7 +4049,7 @@
       <c r="B120">
         <v>146900</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120">
         <v>117520</v>
       </c>
       <c r="D120">
@@ -4065,7 +4066,7 @@
       <c r="B121">
         <v>190600</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121">
         <v>152480</v>
       </c>
       <c r="D121">
@@ -4082,7 +4083,7 @@
       <c r="B122">
         <v>75700</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122">
         <v>60560</v>
       </c>
       <c r="D122">
@@ -4099,7 +4100,7 @@
       <c r="B123">
         <v>78400</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123">
         <v>39200</v>
       </c>
       <c r="D123">
@@ -4116,7 +4117,7 @@
       <c r="B124">
         <v>128400</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124">
         <v>64200</v>
       </c>
       <c r="D124">
@@ -4133,7 +4134,7 @@
       <c r="B125">
         <v>99300</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125">
         <v>59580</v>
       </c>
       <c r="D125">
@@ -4150,7 +4151,7 @@
       <c r="B126">
         <v>82900</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126">
         <v>49740</v>
       </c>
       <c r="D126">
@@ -4167,7 +4168,7 @@
       <c r="B127">
         <v>149000</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127">
         <v>104300</v>
       </c>
       <c r="D127">
@@ -4184,7 +4185,7 @@
       <c r="B128">
         <v>77600</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128">
         <v>54320</v>
       </c>
       <c r="D128">
@@ -4201,7 +4202,7 @@
       <c r="B129">
         <v>94800</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129">
         <v>75840</v>
       </c>
       <c r="D129">
@@ -4218,7 +4219,7 @@
       <c r="B130">
         <v>123300</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130">
         <v>73980</v>
       </c>
       <c r="D130">
@@ -4235,7 +4236,7 @@
       <c r="B131">
         <v>129900</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131">
         <v>51960</v>
       </c>
       <c r="D131">
@@ -4252,7 +4253,7 @@
       <c r="B132">
         <v>162500</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132">
         <v>113750</v>
       </c>
       <c r="D132">
@@ -4269,7 +4270,7 @@
       <c r="B133">
         <v>196700</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133">
         <v>157360</v>
       </c>
       <c r="D133">
@@ -4286,7 +4287,7 @@
       <c r="B134">
         <v>183900</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134">
         <v>110340</v>
       </c>
       <c r="D134">
@@ -4303,7 +4304,7 @@
       <c r="B135">
         <v>145300</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135">
         <v>116240</v>
       </c>
       <c r="D135">
@@ -4320,7 +4321,7 @@
       <c r="B136">
         <v>84700</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136">
         <v>67760</v>
       </c>
       <c r="D136">
@@ -4337,7 +4338,7 @@
       <c r="B137">
         <v>134600</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137">
         <v>107680</v>
       </c>
       <c r="D137">
@@ -4354,7 +4355,7 @@
       <c r="B138">
         <v>110000</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138">
         <v>88000</v>
       </c>
       <c r="D138">
@@ -4371,7 +4372,7 @@
       <c r="B139">
         <v>156300</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139">
         <v>125040</v>
       </c>
       <c r="D139">
@@ -4388,7 +4389,7 @@
       <c r="B140">
         <v>108300</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140">
         <v>54150</v>
       </c>
       <c r="D140">
@@ -4405,7 +4406,7 @@
       <c r="B141">
         <v>133700</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141">
         <v>80220</v>
       </c>
       <c r="D141">
@@ -4422,7 +4423,7 @@
       <c r="B142">
         <v>143000</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142">
         <v>85800</v>
       </c>
       <c r="D142">
@@ -4439,7 +4440,7 @@
       <c r="B143">
         <v>139700</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143">
         <v>111760</v>
       </c>
       <c r="D143">
@@ -4456,7 +4457,7 @@
       <c r="B144">
         <v>112700</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144">
         <v>56350</v>
       </c>
       <c r="D144">
@@ -4473,7 +4474,7 @@
       <c r="B145">
         <v>196200</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145">
         <v>137340</v>
       </c>
       <c r="D145">
@@ -4490,7 +4491,7 @@
       <c r="B146">
         <v>195000</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146">
         <v>156000</v>
       </c>
       <c r="D146">
@@ -4507,7 +4508,7 @@
       <c r="B147">
         <v>123900</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147">
         <v>49560</v>
       </c>
       <c r="D147">
@@ -4524,7 +4525,7 @@
       <c r="B148">
         <v>155500</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148">
         <v>93300</v>
       </c>
       <c r="D148">
@@ -4541,7 +4542,7 @@
       <c r="B149">
         <v>158400</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149">
         <v>110880</v>
       </c>
       <c r="D149">
@@ -4558,7 +4559,7 @@
       <c r="B150">
         <v>199400</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150">
         <v>99700</v>
       </c>
       <c r="D150">
@@ -4575,7 +4576,7 @@
       <c r="B151">
         <v>68500</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151">
         <v>47950</v>
       </c>
       <c r="D151">
@@ -4592,7 +4593,7 @@
       <c r="B152">
         <v>112800</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152">
         <v>45120</v>
       </c>
       <c r="D152">
@@ -4609,7 +4610,7 @@
       <c r="B153">
         <v>173400</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153">
         <v>104040</v>
       </c>
       <c r="D153">
@@ -4626,7 +4627,7 @@
       <c r="B154">
         <v>192600</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154">
         <v>115560</v>
       </c>
       <c r="D154">
@@ -4643,7 +4644,7 @@
       <c r="B155">
         <v>162900</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155">
         <v>65160</v>
       </c>
       <c r="D155">
@@ -4660,7 +4661,7 @@
       <c r="B156">
         <v>156600</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156">
         <v>62640</v>
       </c>
       <c r="D156">
@@ -4677,7 +4678,7 @@
       <c r="B157">
         <v>91800</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157">
         <v>45900</v>
       </c>
       <c r="D157">
@@ -4694,7 +4695,7 @@
       <c r="B158">
         <v>177000</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158">
         <v>123900</v>
       </c>
       <c r="D158">
@@ -4711,7 +4712,7 @@
       <c r="B159">
         <v>108100</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159">
         <v>43240</v>
       </c>
       <c r="D159">
@@ -4728,7 +4729,7 @@
       <c r="B160">
         <v>161100</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160">
         <v>96660</v>
       </c>
       <c r="D160">
@@ -4745,7 +4746,7 @@
       <c r="B161">
         <v>167100</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161">
         <v>83550</v>
       </c>
       <c r="D161">
@@ -4762,7 +4763,7 @@
       <c r="B162">
         <v>143800</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162">
         <v>100660</v>
       </c>
       <c r="D162">
@@ -4779,7 +4780,7 @@
       <c r="B163">
         <v>175000</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163">
         <v>70000</v>
       </c>
       <c r="D163">
@@ -4796,7 +4797,7 @@
       <c r="B164">
         <v>186300</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164">
         <v>111780</v>
       </c>
       <c r="D164">
@@ -4813,7 +4814,7 @@
       <c r="B165">
         <v>133500</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165">
         <v>66750</v>
       </c>
       <c r="D165">
@@ -4830,7 +4831,7 @@
       <c r="B166">
         <v>137300</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166">
         <v>109840</v>
       </c>
       <c r="D166">
@@ -4847,7 +4848,7 @@
       <c r="B167">
         <v>169200</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167">
         <v>101520</v>
       </c>
       <c r="D167">
@@ -4864,7 +4865,7 @@
       <c r="B168">
         <v>120600</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168">
         <v>96480</v>
       </c>
       <c r="D168">
@@ -4881,7 +4882,7 @@
       <c r="B169">
         <v>177600</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169">
         <v>142080</v>
       </c>
       <c r="D169">
@@ -4898,7 +4899,7 @@
       <c r="B170">
         <v>143800</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170">
         <v>71900</v>
       </c>
       <c r="D170">
@@ -4915,7 +4916,7 @@
       <c r="B171">
         <v>102900</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171">
         <v>41160</v>
       </c>
       <c r="D171">
@@ -4932,7 +4933,7 @@
       <c r="B172">
         <v>166400</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172">
         <v>116480</v>
       </c>
       <c r="D172">
@@ -4949,7 +4950,7 @@
       <c r="B173">
         <v>178100</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173">
         <v>106860</v>
       </c>
       <c r="D173">
@@ -4966,7 +4967,7 @@
       <c r="B174">
         <v>87800</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174">
         <v>70240</v>
       </c>
       <c r="D174">
@@ -4983,7 +4984,7 @@
       <c r="B175">
         <v>136300</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175">
         <v>109040</v>
       </c>
       <c r="D175">
@@ -5000,7 +5001,7 @@
       <c r="B176">
         <v>90100</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176">
         <v>54060</v>
       </c>
       <c r="D176">
@@ -5017,7 +5018,7 @@
       <c r="B177">
         <v>192100</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177">
         <v>115260</v>
       </c>
       <c r="D177">
@@ -5034,7 +5035,7 @@
       <c r="B178">
         <v>118700</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178">
         <v>83090</v>
       </c>
       <c r="D178">
@@ -5051,7 +5052,7 @@
       <c r="B179">
         <v>58400</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179">
         <v>40880</v>
       </c>
       <c r="D179">
@@ -5068,7 +5069,7 @@
       <c r="B180">
         <v>51700</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180">
         <v>36190</v>
       </c>
       <c r="D180">
@@ -5085,7 +5086,7 @@
       <c r="B181">
         <v>139400</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181">
         <v>55760</v>
       </c>
       <c r="D181">
@@ -5102,7 +5103,7 @@
       <c r="B182">
         <v>152200</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182">
         <v>91320</v>
       </c>
       <c r="D182">
@@ -5119,7 +5120,7 @@
       <c r="B183">
         <v>136700</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183">
         <v>82020</v>
       </c>
       <c r="D183">
@@ -5136,7 +5137,7 @@
       <c r="B184">
         <v>103200</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184">
         <v>61920</v>
       </c>
       <c r="D184">
@@ -5153,7 +5154,7 @@
       <c r="B185">
         <v>81600</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185">
         <v>40800</v>
       </c>
       <c r="D185">
@@ -5170,7 +5171,7 @@
       <c r="B186">
         <v>200000</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186">
         <v>120000</v>
       </c>
       <c r="D186">
@@ -5187,7 +5188,7 @@
       <c r="B187">
         <v>53600</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187">
         <v>32160</v>
       </c>
       <c r="D187">
@@ -5204,7 +5205,7 @@
       <c r="B188">
         <v>141700</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188">
         <v>56680</v>
       </c>
       <c r="D188">
@@ -5221,7 +5222,7 @@
       <c r="B189">
         <v>196900</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189">
         <v>137830</v>
       </c>
       <c r="D189">
@@ -5238,7 +5239,7 @@
       <c r="B190">
         <v>136100</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190">
         <v>108880</v>
       </c>
       <c r="D190">
@@ -5255,7 +5256,7 @@
       <c r="B191">
         <v>112200</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191">
         <v>89760</v>
       </c>
       <c r="D191">
@@ -5272,7 +5273,7 @@
       <c r="B192">
         <v>198400</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192">
         <v>99200</v>
       </c>
       <c r="D192">
@@ -5289,7 +5290,7 @@
       <c r="B193">
         <v>136600</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193">
         <v>68300</v>
       </c>
       <c r="D193">
@@ -5306,7 +5307,7 @@
       <c r="B194">
         <v>65400</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194">
         <v>39240</v>
       </c>
       <c r="D194">
@@ -5323,7 +5324,7 @@
       <c r="B195">
         <v>91200</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195">
         <v>36480</v>
       </c>
       <c r="D195">
@@ -5340,7 +5341,7 @@
       <c r="B196">
         <v>180600</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196">
         <v>144480</v>
       </c>
       <c r="D196">
@@ -5357,7 +5358,7 @@
       <c r="B197">
         <v>164500</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197">
         <v>82250</v>
       </c>
       <c r="D197">
@@ -5374,7 +5375,7 @@
       <c r="B198">
         <v>168000</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198">
         <v>134400</v>
       </c>
       <c r="D198">
@@ -5391,7 +5392,7 @@
       <c r="B199">
         <v>55700</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199">
         <v>22280</v>
       </c>
       <c r="D199">
@@ -5408,7 +5409,7 @@
       <c r="B200">
         <v>136100</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200">
         <v>81660</v>
       </c>
       <c r="D200">
@@ -5425,7 +5426,7 @@
       <c r="B201">
         <v>82600</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201">
         <v>57820</v>
       </c>
       <c r="D201">
@@ -5442,7 +5443,7 @@
       <c r="B202">
         <v>170100</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202">
         <v>102060</v>
       </c>
       <c r="D202">
@@ -5459,7 +5460,7 @@
       <c r="B203">
         <v>179300</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203">
         <v>125510</v>
       </c>
       <c r="D203">
@@ -5476,7 +5477,7 @@
       <c r="B204">
         <v>169600</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204">
         <v>67840</v>
       </c>
       <c r="D204">
@@ -5493,7 +5494,7 @@
       <c r="B205">
         <v>69300</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205">
         <v>55440</v>
       </c>
       <c r="D205">
@@ -5510,7 +5511,7 @@
       <c r="B206">
         <v>177500</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206">
         <v>124250</v>
       </c>
       <c r="D206">
@@ -5527,7 +5528,7 @@
       <c r="B207">
         <v>107300</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207">
         <v>85840</v>
       </c>
       <c r="D207">
@@ -5544,7 +5545,7 @@
       <c r="B208">
         <v>140400</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208">
         <v>84240</v>
       </c>
       <c r="D208">
@@ -5561,7 +5562,7 @@
       <c r="B209">
         <v>57900</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209">
         <v>28950</v>
       </c>
       <c r="D209">
@@ -5578,7 +5579,7 @@
       <c r="B210">
         <v>165400</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210">
         <v>82700</v>
       </c>
       <c r="D210">
@@ -5595,7 +5596,7 @@
       <c r="B211">
         <v>53300</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211">
         <v>31980</v>
       </c>
       <c r="D211">
@@ -5612,7 +5613,7 @@
       <c r="B212">
         <v>118300</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212">
         <v>47320</v>
       </c>
       <c r="D212">
@@ -5629,7 +5630,7 @@
       <c r="B213">
         <v>120500</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213">
         <v>72300</v>
       </c>
       <c r="D213">
@@ -5646,7 +5647,7 @@
       <c r="B214">
         <v>65700</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214">
         <v>32850</v>
       </c>
       <c r="D214">
@@ -5663,7 +5664,7 @@
       <c r="B215">
         <v>53200</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215">
         <v>42560</v>
       </c>
       <c r="D215">
@@ -5680,7 +5681,7 @@
       <c r="B216">
         <v>160700</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216">
         <v>64280</v>
       </c>
       <c r="D216">
@@ -5697,7 +5698,7 @@
       <c r="B217">
         <v>181400</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217">
         <v>108840</v>
       </c>
       <c r="D217">
@@ -5714,7 +5715,7 @@
       <c r="B218">
         <v>127700</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218">
         <v>89390</v>
       </c>
       <c r="D218">
@@ -5731,7 +5732,7 @@
       <c r="B219">
         <v>97800</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219">
         <v>78240</v>
       </c>
       <c r="D219">
@@ -5748,7 +5749,7 @@
       <c r="B220">
         <v>80600</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220">
         <v>32240</v>
       </c>
       <c r="D220">
@@ -5765,7 +5766,7 @@
       <c r="B221">
         <v>133900</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221">
         <v>80340</v>
       </c>
       <c r="D221">
@@ -5782,7 +5783,7 @@
       <c r="B222">
         <v>168100</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222">
         <v>84050</v>
       </c>
       <c r="D222">
@@ -5799,7 +5800,7 @@
       <c r="B223">
         <v>162700</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223">
         <v>97620</v>
       </c>
       <c r="D223">
@@ -5816,7 +5817,7 @@
       <c r="B224">
         <v>84100</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224">
         <v>50460</v>
       </c>
       <c r="D224">
@@ -5833,7 +5834,7 @@
       <c r="B225">
         <v>107200</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225">
         <v>75040</v>
       </c>
       <c r="D225">
@@ -5850,7 +5851,7 @@
       <c r="B226">
         <v>129000</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226">
         <v>64500</v>
       </c>
       <c r="D226">
@@ -5867,7 +5868,7 @@
       <c r="B227">
         <v>177100</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227">
         <v>106260</v>
       </c>
       <c r="D227">
@@ -5884,7 +5885,7 @@
       <c r="B228">
         <v>172900</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228">
         <v>138320</v>
       </c>
       <c r="D228">
@@ -5901,7 +5902,7 @@
       <c r="B229">
         <v>84300</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229">
         <v>67440</v>
       </c>
       <c r="D229">
@@ -5918,7 +5919,7 @@
       <c r="B230">
         <v>62100</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230">
         <v>49680</v>
       </c>
       <c r="D230">
@@ -5935,7 +5936,7 @@
       <c r="B231">
         <v>61700</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231">
         <v>37020</v>
       </c>
       <c r="D231">
@@ -5952,7 +5953,7 @@
       <c r="B232">
         <v>124000</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232">
         <v>99200</v>
       </c>
       <c r="D232">
@@ -5969,7 +5970,7 @@
       <c r="B233">
         <v>154700</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233">
         <v>92820</v>
       </c>
       <c r="D233">
@@ -5986,7 +5987,7 @@
       <c r="B234">
         <v>135100</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234">
         <v>67550</v>
       </c>
       <c r="D234">
@@ -6003,7 +6004,7 @@
       <c r="B235">
         <v>124200</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235">
         <v>74520</v>
       </c>
       <c r="D235">
@@ -6020,7 +6021,7 @@
       <c r="B236">
         <v>105100</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236">
         <v>42040</v>
       </c>
       <c r="D236">
@@ -6037,7 +6038,7 @@
       <c r="B237">
         <v>121000</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237">
         <v>48400</v>
       </c>
       <c r="D237">
@@ -6054,7 +6055,7 @@
       <c r="B238">
         <v>115600</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238">
         <v>57800</v>
       </c>
       <c r="D238">
@@ -6071,7 +6072,7 @@
       <c r="B239">
         <v>138800</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239">
         <v>69400</v>
       </c>
       <c r="D239">
@@ -6088,7 +6089,7 @@
       <c r="B240">
         <v>161800</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240">
         <v>97080</v>
       </c>
       <c r="D240">
@@ -6105,7 +6106,7 @@
       <c r="B241">
         <v>161300</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241">
         <v>129040</v>
       </c>
       <c r="D241">
@@ -6122,7 +6123,7 @@
       <c r="B242">
         <v>141600</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242">
         <v>99120</v>
       </c>
       <c r="D242">
@@ -6139,7 +6140,7 @@
       <c r="B243">
         <v>108000</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243">
         <v>75600</v>
       </c>
       <c r="D243">
@@ -6156,7 +6157,7 @@
       <c r="B244">
         <v>86700</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244">
         <v>52020</v>
       </c>
       <c r="D244">
@@ -6173,7 +6174,7 @@
       <c r="B245">
         <v>96700</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245">
         <v>67690</v>
       </c>
       <c r="D245">
@@ -6190,7 +6191,7 @@
       <c r="B246">
         <v>166300</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246">
         <v>83150</v>
       </c>
       <c r="D246">
@@ -6207,7 +6208,7 @@
       <c r="B247">
         <v>157000</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247">
         <v>94200</v>
       </c>
       <c r="D247">
@@ -6224,7 +6225,7 @@
       <c r="B248">
         <v>160900</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248">
         <v>80450</v>
       </c>
       <c r="D248">
@@ -6241,7 +6242,7 @@
       <c r="B249">
         <v>185200</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249">
         <v>111120</v>
       </c>
       <c r="D249">
@@ -6258,7 +6259,7 @@
       <c r="B250">
         <v>101200</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250">
         <v>50600</v>
       </c>
       <c r="D250">
@@ -6275,7 +6276,7 @@
       <c r="B251">
         <v>113000</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251">
         <v>90400</v>
       </c>
       <c r="D251">
@@ -6292,7 +6293,7 @@
       <c r="B252">
         <v>68200</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252">
         <v>47740</v>
       </c>
       <c r="D252">
@@ -6309,7 +6310,7 @@
       <c r="B253">
         <v>126300</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253">
         <v>88410</v>
       </c>
       <c r="D253">
@@ -6326,7 +6327,7 @@
       <c r="B254">
         <v>60300</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254">
         <v>48240</v>
       </c>
       <c r="D254">
@@ -6343,7 +6344,7 @@
       <c r="B255">
         <v>70000</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255">
         <v>49000</v>
       </c>
       <c r="D255">
@@ -6360,7 +6361,7 @@
       <c r="B256">
         <v>144000</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256">
         <v>100800</v>
       </c>
       <c r="D256">
@@ -6377,7 +6378,7 @@
       <c r="B257">
         <v>162000</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257">
         <v>129600</v>
       </c>
       <c r="D257">
@@ -6394,7 +6395,7 @@
       <c r="B258">
         <v>134600</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258">
         <v>80760</v>
       </c>
       <c r="D258">
@@ -6411,7 +6412,7 @@
       <c r="B259">
         <v>77300</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259">
         <v>61840</v>
       </c>
       <c r="D259">
@@ -6428,7 +6429,7 @@
       <c r="B260">
         <v>98700</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260">
         <v>59220</v>
       </c>
       <c r="D260">
@@ -6445,7 +6446,7 @@
       <c r="B261">
         <v>76100</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261">
         <v>60880</v>
       </c>
       <c r="D261">
@@ -6462,7 +6463,7 @@
       <c r="B262">
         <v>185900</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262">
         <v>74360</v>
       </c>
       <c r="D262">
@@ -6479,7 +6480,7 @@
       <c r="B263">
         <v>168300</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263">
         <v>117810</v>
       </c>
       <c r="D263">
@@ -6496,7 +6497,7 @@
       <c r="B264">
         <v>189100</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264">
         <v>113460</v>
       </c>
       <c r="D264">
@@ -6513,7 +6514,7 @@
       <c r="B265">
         <v>116900</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265">
         <v>70140</v>
       </c>
       <c r="D265">
@@ -6530,7 +6531,7 @@
       <c r="B266">
         <v>161100</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266">
         <v>80550</v>
       </c>
       <c r="D266">
@@ -6547,7 +6548,7 @@
       <c r="B267">
         <v>110600</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267">
         <v>88480</v>
       </c>
       <c r="D267">
@@ -6564,7 +6565,7 @@
       <c r="B268">
         <v>57900</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268">
         <v>46320</v>
       </c>
       <c r="D268">
@@ -6581,7 +6582,7 @@
       <c r="B269">
         <v>138500</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269">
         <v>69250</v>
       </c>
       <c r="D269">
@@ -6598,7 +6599,7 @@
       <c r="B270">
         <v>80400</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270">
         <v>32160</v>
       </c>
       <c r="D270">
@@ -6615,7 +6616,7 @@
       <c r="B271">
         <v>172700</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271">
         <v>69080</v>
       </c>
       <c r="D271">
@@ -6632,7 +6633,7 @@
       <c r="B272">
         <v>138000</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272">
         <v>96600</v>
       </c>
       <c r="D272">
@@ -6649,7 +6650,7 @@
       <c r="B273">
         <v>111500</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273">
         <v>89200</v>
       </c>
       <c r="D273">
@@ -6666,7 +6667,7 @@
       <c r="B274">
         <v>195800</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274">
         <v>117480</v>
       </c>
       <c r="D274">
@@ -6683,7 +6684,7 @@
       <c r="B275">
         <v>119900</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275">
         <v>59950</v>
       </c>
       <c r="D275">
@@ -6700,7 +6701,7 @@
       <c r="B276">
         <v>80500</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276">
         <v>56350</v>
       </c>
       <c r="D276">
@@ -6717,7 +6718,7 @@
       <c r="B277">
         <v>159700</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277">
         <v>95820</v>
       </c>
       <c r="D277">
@@ -6734,7 +6735,7 @@
       <c r="B278">
         <v>189400</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278">
         <v>94700</v>
       </c>
       <c r="D278">
@@ -6751,7 +6752,7 @@
       <c r="B279">
         <v>104200</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279">
         <v>52100</v>
       </c>
       <c r="D279">
@@ -6768,7 +6769,7 @@
       <c r="B280">
         <v>71300</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280">
         <v>49910</v>
       </c>
       <c r="D280">
@@ -6785,7 +6786,7 @@
       <c r="B281">
         <v>72500</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281">
         <v>29000</v>
       </c>
       <c r="D281">
@@ -6802,7 +6803,7 @@
       <c r="B282">
         <v>184500</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282">
         <v>73800</v>
       </c>
       <c r="D282">
@@ -6819,7 +6820,7 @@
       <c r="B283">
         <v>60300</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283">
         <v>30150</v>
       </c>
       <c r="D283">
@@ -6836,7 +6837,7 @@
       <c r="B284">
         <v>167300</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284">
         <v>117110</v>
       </c>
       <c r="D284">
@@ -6853,7 +6854,7 @@
       <c r="B285">
         <v>70300</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285">
         <v>56240</v>
       </c>
       <c r="D285">
@@ -6870,7 +6871,7 @@
       <c r="B286">
         <v>191100</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286">
         <v>76440</v>
       </c>
       <c r="D286">
@@ -6887,7 +6888,7 @@
       <c r="B287">
         <v>126700</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287">
         <v>63350</v>
       </c>
       <c r="D287">
@@ -6904,7 +6905,7 @@
       <c r="B288">
         <v>145900</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288">
         <v>87540</v>
       </c>
       <c r="D288">
@@ -6921,7 +6922,7 @@
       <c r="B289">
         <v>89200</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289">
         <v>71360</v>
       </c>
       <c r="D289">
@@ -6938,7 +6939,7 @@
       <c r="B290">
         <v>134100</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290">
         <v>107280</v>
       </c>
       <c r="D290">
@@ -6955,7 +6956,7 @@
       <c r="B291">
         <v>180400</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291">
         <v>108240</v>
       </c>
       <c r="D291">
@@ -6972,7 +6973,7 @@
       <c r="B292">
         <v>126900</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292">
         <v>101520</v>
       </c>
       <c r="D292">
@@ -6989,7 +6990,7 @@
       <c r="B293">
         <v>177500</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293">
         <v>106500</v>
       </c>
       <c r="D293">
@@ -7006,7 +7007,7 @@
       <c r="B294">
         <v>182000</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294">
         <v>145600</v>
       </c>
       <c r="D294">
@@ -7023,7 +7024,7 @@
       <c r="B295">
         <v>61900</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295">
         <v>24760</v>
       </c>
       <c r="D295">
@@ -7040,7 +7041,7 @@
       <c r="B296">
         <v>117300</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296">
         <v>93840</v>
       </c>
       <c r="D296">
@@ -7057,7 +7058,7 @@
       <c r="B297">
         <v>141000</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297">
         <v>84600</v>
       </c>
       <c r="D297">
@@ -7074,7 +7075,7 @@
       <c r="B298">
         <v>119700</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298">
         <v>71820</v>
       </c>
       <c r="D298">
@@ -7091,7 +7092,7 @@
       <c r="B299">
         <v>135500</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299">
         <v>94850</v>
       </c>
       <c r="D299">
@@ -7108,7 +7109,7 @@
       <c r="B300">
         <v>63900</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300">
         <v>51120</v>
       </c>
       <c r="D300">
@@ -7125,7 +7126,7 @@
       <c r="B301">
         <v>83500</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301">
         <v>58450</v>
       </c>
       <c r="D301">
@@ -7142,7 +7143,7 @@
       <c r="B302">
         <v>197600</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302">
         <v>98800</v>
       </c>
       <c r="D302">
@@ -7159,7 +7160,7 @@
       <c r="B303">
         <v>127700</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303">
         <v>63850</v>
       </c>
       <c r="D303">
@@ -7176,7 +7177,7 @@
       <c r="B304">
         <v>181500</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304">
         <v>127050</v>
       </c>
       <c r="D304">
@@ -7193,7 +7194,7 @@
       <c r="B305">
         <v>128200</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305">
         <v>76920</v>
       </c>
       <c r="D305">
@@ -7210,7 +7211,7 @@
       <c r="B306">
         <v>184700</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306">
         <v>92350</v>
       </c>
       <c r="D306">
@@ -7227,7 +7228,7 @@
       <c r="B307">
         <v>63100</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307">
         <v>50480</v>
       </c>
       <c r="D307">
@@ -7244,7 +7245,7 @@
       <c r="B308">
         <v>145500</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308">
         <v>72750</v>
       </c>
       <c r="D308">
@@ -7261,7 +7262,7 @@
       <c r="B309">
         <v>93700</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309">
         <v>37480</v>
       </c>
       <c r="D309">
@@ -7278,7 +7279,7 @@
       <c r="B310">
         <v>96600</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310">
         <v>57960</v>
       </c>
       <c r="D310">
@@ -7295,7 +7296,7 @@
       <c r="B311">
         <v>160100</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311">
         <v>112070</v>
       </c>
       <c r="D311">
@@ -7312,7 +7313,7 @@
       <c r="B312">
         <v>145600</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312">
         <v>87360</v>
       </c>
       <c r="D312">
@@ -7329,7 +7330,7 @@
       <c r="B313">
         <v>86400</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313">
         <v>69120</v>
       </c>
       <c r="D313">
@@ -7346,7 +7347,7 @@
       <c r="B314">
         <v>84900</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314">
         <v>50940</v>
       </c>
       <c r="D314">
@@ -7363,7 +7364,7 @@
       <c r="B315">
         <v>118300</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315">
         <v>82810</v>
       </c>
       <c r="D315">
@@ -7380,7 +7381,7 @@
       <c r="B316">
         <v>86700</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316">
         <v>69360</v>
       </c>
       <c r="D316">
@@ -7397,7 +7398,7 @@
       <c r="B317">
         <v>74100</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317">
         <v>29640</v>
       </c>
       <c r="D317">
@@ -7414,7 +7415,7 @@
       <c r="B318">
         <v>70600</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318">
         <v>56480</v>
       </c>
       <c r="D318">
@@ -7431,7 +7432,7 @@
       <c r="B319">
         <v>125800</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319">
         <v>75480</v>
       </c>
       <c r="D319">
@@ -7448,7 +7449,7 @@
       <c r="B320">
         <v>126100</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320">
         <v>75660</v>
       </c>
       <c r="D320">
@@ -7465,7 +7466,7 @@
       <c r="B321">
         <v>184200</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321">
         <v>73680</v>
       </c>
       <c r="D321">
@@ -7482,7 +7483,7 @@
       <c r="B322">
         <v>195400</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322">
         <v>136780</v>
       </c>
       <c r="D322">
@@ -7499,7 +7500,7 @@
       <c r="B323">
         <v>68700</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323">
         <v>48090</v>
       </c>
       <c r="D323">
@@ -7516,7 +7517,7 @@
       <c r="B324">
         <v>54200</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324">
         <v>27100</v>
       </c>
       <c r="D324">
@@ -7533,7 +7534,7 @@
       <c r="B325">
         <v>110300</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325">
         <v>66180</v>
       </c>
       <c r="D325">
@@ -7550,7 +7551,7 @@
       <c r="B326">
         <v>90700</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326">
         <v>54420</v>
       </c>
       <c r="D326">
@@ -7567,7 +7568,7 @@
       <c r="B327">
         <v>181800</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327">
         <v>72720</v>
       </c>
       <c r="D327">
@@ -7584,7 +7585,7 @@
       <c r="B328">
         <v>170600</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328">
         <v>85300</v>
       </c>
       <c r="D328">
@@ -7601,7 +7602,7 @@
       <c r="B329">
         <v>168200</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329">
         <v>117740</v>
       </c>
       <c r="D329">
@@ -7618,7 +7619,7 @@
       <c r="B330">
         <v>95900</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330">
         <v>67130</v>
       </c>
       <c r="D330">
@@ -7635,7 +7636,7 @@
       <c r="B331">
         <v>76700</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331">
         <v>30680</v>
       </c>
       <c r="D331">
@@ -7652,7 +7653,7 @@
       <c r="B332">
         <v>117400</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332">
         <v>82180</v>
       </c>
       <c r="D332">
@@ -7669,7 +7670,7 @@
       <c r="B333">
         <v>109900</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333">
         <v>76930</v>
       </c>
       <c r="D333">
@@ -7686,7 +7687,7 @@
       <c r="B334">
         <v>136600</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334">
         <v>95620</v>
       </c>
       <c r="D334">
@@ -7703,7 +7704,7 @@
       <c r="B335">
         <v>98300</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335">
         <v>58980</v>
       </c>
       <c r="D335">
@@ -7720,7 +7721,7 @@
       <c r="B336">
         <v>55400</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336">
         <v>27700</v>
       </c>
       <c r="D336">
@@ -7737,7 +7738,7 @@
       <c r="B337">
         <v>135500</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337">
         <v>81300</v>
       </c>
       <c r="D337">
@@ -7754,7 +7755,7 @@
       <c r="B338">
         <v>124200</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338">
         <v>86940</v>
       </c>
       <c r="D338">
@@ -7771,7 +7772,7 @@
       <c r="B339">
         <v>77200</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339">
         <v>46320</v>
       </c>
       <c r="D339">
@@ -7788,7 +7789,7 @@
       <c r="B340">
         <v>165400</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340">
         <v>82700</v>
       </c>
       <c r="D340">
@@ -7805,7 +7806,7 @@
       <c r="B341">
         <v>72000</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341">
         <v>50400</v>
       </c>
       <c r="D341">
@@ -7822,7 +7823,7 @@
       <c r="B342">
         <v>159600</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342">
         <v>79800</v>
       </c>
       <c r="D342">
@@ -7839,7 +7840,7 @@
       <c r="B343">
         <v>148200</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343">
         <v>88920</v>
       </c>
       <c r="D343">
@@ -7856,7 +7857,7 @@
       <c r="B344">
         <v>101400</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344">
         <v>81120</v>
       </c>
       <c r="D344">
@@ -7873,7 +7874,7 @@
       <c r="B345">
         <v>53200</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345">
         <v>21280</v>
       </c>
       <c r="D345">
@@ -7890,7 +7891,7 @@
       <c r="B346">
         <v>138800</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346">
         <v>69400</v>
       </c>
       <c r="D346">
@@ -7907,7 +7908,7 @@
       <c r="B347">
         <v>78400</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347">
         <v>31360</v>
       </c>
       <c r="D347">
@@ -7924,7 +7925,7 @@
       <c r="B348">
         <v>177600</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348">
         <v>106560</v>
       </c>
       <c r="D348">
@@ -7941,7 +7942,7 @@
       <c r="B349">
         <v>72700</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349">
         <v>36350</v>
       </c>
       <c r="D349">
@@ -7958,7 +7959,7 @@
       <c r="B350">
         <v>115500</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350">
         <v>46200</v>
       </c>
       <c r="D350">
@@ -7975,7 +7976,7 @@
       <c r="B351">
         <v>76700</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351">
         <v>46020</v>
       </c>
       <c r="D351">
@@ -7992,7 +7993,7 @@
       <c r="B352">
         <v>163300</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352">
         <v>130640</v>
       </c>
       <c r="D352">
@@ -8009,7 +8010,7 @@
       <c r="B353">
         <v>130800</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353">
         <v>65400</v>
       </c>
       <c r="D353">
@@ -8026,7 +8027,7 @@
       <c r="B354">
         <v>101400</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354">
         <v>50700</v>
       </c>
       <c r="D354">
@@ -8043,7 +8044,7 @@
       <c r="B355">
         <v>174400</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355">
         <v>104640</v>
       </c>
       <c r="D355">
@@ -8060,7 +8061,7 @@
       <c r="B356">
         <v>188500</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356">
         <v>150800</v>
       </c>
       <c r="D356">
@@ -8077,7 +8078,7 @@
       <c r="B357">
         <v>141300</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357">
         <v>70650</v>
       </c>
       <c r="D357">
@@ -8094,7 +8095,7 @@
       <c r="B358">
         <v>59400</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358">
         <v>35640</v>
       </c>
       <c r="D358">
@@ -8111,7 +8112,7 @@
       <c r="B359">
         <v>110700</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359">
         <v>44280</v>
       </c>
       <c r="D359">
@@ -8128,7 +8129,7 @@
       <c r="B360">
         <v>154200</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360">
         <v>92520</v>
       </c>
       <c r="D360">
@@ -8145,7 +8146,7 @@
       <c r="B361">
         <v>54400</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361">
         <v>43520</v>
       </c>
       <c r="D361">
@@ -8162,7 +8163,7 @@
       <c r="B362">
         <v>83500</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362">
         <v>58450</v>
       </c>
       <c r="D362">
@@ -8179,7 +8180,7 @@
       <c r="B363">
         <v>163500</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363">
         <v>98100</v>
       </c>
       <c r="D363">
@@ -8196,7 +8197,7 @@
       <c r="B364">
         <v>97200</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364">
         <v>58320</v>
       </c>
       <c r="D364">
@@ -8213,7 +8214,7 @@
       <c r="B365">
         <v>114000</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365">
         <v>91200</v>
       </c>
       <c r="D365">
@@ -8230,7 +8231,7 @@
       <c r="B366">
         <v>189400</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366">
         <v>113640</v>
       </c>
       <c r="D366">
@@ -8247,7 +8248,7 @@
       <c r="B367">
         <v>87700</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367">
         <v>35080</v>
       </c>
       <c r="D367">
@@ -8264,7 +8265,7 @@
       <c r="B368">
         <v>50500</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368">
         <v>20200</v>
       </c>
       <c r="D368">
@@ -8281,7 +8282,7 @@
       <c r="B369">
         <v>156800</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369">
         <v>62720</v>
       </c>
       <c r="D369">
@@ -8298,7 +8299,7 @@
       <c r="B370">
         <v>89700</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370">
         <v>71760</v>
       </c>
       <c r="D370">
@@ -8315,7 +8316,7 @@
       <c r="B371">
         <v>139900</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371">
         <v>69950</v>
       </c>
       <c r="D371">
@@ -8332,7 +8333,7 @@
       <c r="B372">
         <v>82100</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372">
         <v>41050</v>
       </c>
       <c r="D372">
@@ -8349,7 +8350,7 @@
       <c r="B373">
         <v>155200</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373">
         <v>62080</v>
       </c>
       <c r="D373">
@@ -8366,7 +8367,7 @@
       <c r="B374">
         <v>106700</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374">
         <v>64020</v>
       </c>
       <c r="D374">
@@ -8383,7 +8384,7 @@
       <c r="B375">
         <v>81100</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375">
         <v>40550</v>
       </c>
       <c r="D375">
@@ -8400,7 +8401,7 @@
       <c r="B376">
         <v>86400</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376">
         <v>43200</v>
       </c>
       <c r="D376">
@@ -8417,7 +8418,7 @@
       <c r="B377">
         <v>95700</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377">
         <v>38280</v>
       </c>
       <c r="D377">
@@ -8434,7 +8435,7 @@
       <c r="B378">
         <v>143900</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378">
         <v>57560</v>
       </c>
       <c r="D378">
@@ -8451,7 +8452,7 @@
       <c r="B379">
         <v>164700</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379">
         <v>115290</v>
       </c>
       <c r="D379">
@@ -8468,7 +8469,7 @@
       <c r="B380">
         <v>192700</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380">
         <v>134890</v>
       </c>
       <c r="D380">
@@ -8485,7 +8486,7 @@
       <c r="B381">
         <v>115400</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381">
         <v>92320</v>
       </c>
       <c r="D381">
@@ -8502,7 +8503,7 @@
       <c r="B382">
         <v>146400</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382">
         <v>87840</v>
       </c>
       <c r="D382">
@@ -8519,7 +8520,7 @@
       <c r="B383">
         <v>52100</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383">
         <v>20840</v>
       </c>
       <c r="D383">
@@ -8536,7 +8537,7 @@
       <c r="B384">
         <v>63200</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384">
         <v>37920</v>
       </c>
       <c r="D384">
@@ -8553,7 +8554,7 @@
       <c r="B385">
         <v>148100</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385">
         <v>74050</v>
       </c>
       <c r="D385">
@@ -8570,7 +8571,7 @@
       <c r="B386">
         <v>172600</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386">
         <v>103560</v>
       </c>
       <c r="D386">
@@ -8587,7 +8588,7 @@
       <c r="B387">
         <v>119400</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387">
         <v>59700</v>
       </c>
       <c r="D387">
@@ -8604,7 +8605,7 @@
       <c r="B388">
         <v>127800</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388">
         <v>63900</v>
       </c>
       <c r="D388">
@@ -8621,7 +8622,7 @@
       <c r="B389">
         <v>90800</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389">
         <v>72640</v>
       </c>
       <c r="D389">
@@ -8638,7 +8639,7 @@
       <c r="B390">
         <v>99100</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390">
         <v>49550</v>
       </c>
       <c r="D390">
@@ -8655,7 +8656,7 @@
       <c r="B391">
         <v>170200</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391">
         <v>102120</v>
       </c>
       <c r="D391">
@@ -8672,7 +8673,7 @@
       <c r="B392">
         <v>186700</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392">
         <v>74680</v>
       </c>
       <c r="D392">
@@ -8689,7 +8690,7 @@
       <c r="B393">
         <v>156200</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393">
         <v>93720</v>
       </c>
       <c r="D393">
@@ -8706,7 +8707,7 @@
       <c r="B394">
         <v>192000</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394">
         <v>76800</v>
       </c>
       <c r="D394">
@@ -8723,7 +8724,7 @@
       <c r="B395">
         <v>172400</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395">
         <v>137920</v>
       </c>
       <c r="D395">
@@ -8740,7 +8741,7 @@
       <c r="B396">
         <v>113100</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396">
         <v>79170</v>
       </c>
       <c r="D396">
@@ -8757,7 +8758,7 @@
       <c r="B397">
         <v>83300</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397">
         <v>66640</v>
       </c>
       <c r="D397">
@@ -8774,7 +8775,7 @@
       <c r="B398">
         <v>109900</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398">
         <v>43960</v>
       </c>
       <c r="D398">
@@ -8791,7 +8792,7 @@
       <c r="B399">
         <v>154200</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399">
         <v>77100</v>
       </c>
       <c r="D399">
@@ -8808,7 +8809,7 @@
       <c r="B400">
         <v>76900</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400">
         <v>61520</v>
       </c>
       <c r="D400">
@@ -8825,7 +8826,7 @@
       <c r="B401">
         <v>184500</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401">
         <v>110700</v>
       </c>
       <c r="D401">
@@ -8842,7 +8843,7 @@
       <c r="B402">
         <v>176800</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402">
         <v>70720</v>
       </c>
       <c r="D402">
@@ -8859,7 +8860,7 @@
       <c r="B403">
         <v>91200</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403">
         <v>54720</v>
       </c>
       <c r="D403">
@@ -8876,7 +8877,7 @@
       <c r="B404">
         <v>172800</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404">
         <v>86400</v>
       </c>
       <c r="D404">
@@ -8893,7 +8894,7 @@
       <c r="B405">
         <v>99400</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405">
         <v>79520</v>
       </c>
       <c r="D405">
@@ -8910,7 +8911,7 @@
       <c r="B406">
         <v>194100</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406">
         <v>77640</v>
       </c>
       <c r="D406">
@@ -8927,7 +8928,7 @@
       <c r="B407">
         <v>196700</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407">
         <v>98350</v>
       </c>
       <c r="D407">
@@ -8944,7 +8945,7 @@
       <c r="B408">
         <v>134100</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408">
         <v>93870</v>
       </c>
       <c r="D408">
@@ -8961,7 +8962,7 @@
       <c r="B409">
         <v>96100</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409">
         <v>57660</v>
       </c>
       <c r="D409">
@@ -8978,7 +8979,7 @@
       <c r="B410">
         <v>186900</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410">
         <v>130830</v>
       </c>
       <c r="D410">
@@ -8995,7 +8996,7 @@
       <c r="B411">
         <v>171900</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411">
         <v>103140</v>
       </c>
       <c r="D411">
@@ -9012,7 +9013,7 @@
       <c r="B412">
         <v>138700</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412">
         <v>55480</v>
       </c>
       <c r="D412">
@@ -9029,7 +9030,7 @@
       <c r="B413">
         <v>167700</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413">
         <v>134160</v>
       </c>
       <c r="D413">
@@ -9046,7 +9047,7 @@
       <c r="B414">
         <v>87000</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414">
         <v>34800</v>
       </c>
       <c r="D414">
@@ -9063,7 +9064,7 @@
       <c r="B415">
         <v>113900</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415">
         <v>68340</v>
       </c>
       <c r="D415">
@@ -9080,7 +9081,7 @@
       <c r="B416">
         <v>76300</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416">
         <v>61040</v>
       </c>
       <c r="D416">
@@ -9097,7 +9098,7 @@
       <c r="B417">
         <v>145800</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417">
         <v>116640</v>
       </c>
       <c r="D417">
@@ -9114,7 +9115,7 @@
       <c r="B418">
         <v>98400</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418">
         <v>39360</v>
       </c>
       <c r="D418">
@@ -9131,7 +9132,7 @@
       <c r="B419">
         <v>66300</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419">
         <v>46410</v>
       </c>
       <c r="D419">
@@ -9148,7 +9149,7 @@
       <c r="B420">
         <v>170900</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420">
         <v>85450</v>
       </c>
       <c r="D420">
@@ -9165,7 +9166,7 @@
       <c r="B421">
         <v>75400</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421">
         <v>30160</v>
       </c>
       <c r="D421">
@@ -9182,7 +9183,7 @@
       <c r="B422">
         <v>131500</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422">
         <v>65750</v>
       </c>
       <c r="D422">
@@ -9199,7 +9200,7 @@
       <c r="B423">
         <v>132000</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423">
         <v>92400</v>
       </c>
       <c r="D423">
@@ -9216,7 +9217,7 @@
       <c r="B424">
         <v>73300</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424">
         <v>29320</v>
       </c>
       <c r="D424">
@@ -9233,7 +9234,7 @@
       <c r="B425">
         <v>129800</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425">
         <v>64900</v>
       </c>
       <c r="D425">
@@ -9250,7 +9251,7 @@
       <c r="B426">
         <v>131500</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426">
         <v>105200</v>
       </c>
       <c r="D426">
@@ -9267,7 +9268,7 @@
       <c r="B427">
         <v>125600</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427">
         <v>100480</v>
       </c>
       <c r="D427">
@@ -9284,7 +9285,7 @@
       <c r="B428">
         <v>184000</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428">
         <v>147200</v>
       </c>
       <c r="D428">
@@ -9301,7 +9302,7 @@
       <c r="B429">
         <v>97000</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429">
         <v>58200</v>
       </c>
       <c r="D429">
@@ -9318,7 +9319,7 @@
       <c r="B430">
         <v>199100</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430">
         <v>139370</v>
       </c>
       <c r="D430">
@@ -9335,7 +9336,7 @@
       <c r="B431">
         <v>167700</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431">
         <v>100620</v>
       </c>
       <c r="D431">
@@ -9352,7 +9353,7 @@
       <c r="B432">
         <v>121000</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432">
         <v>96800</v>
       </c>
       <c r="D432">
@@ -9369,7 +9370,7 @@
       <c r="B433">
         <v>70800</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433">
         <v>56640</v>
       </c>
       <c r="D433">
@@ -9386,7 +9387,7 @@
       <c r="B434">
         <v>133400</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434">
         <v>53360</v>
       </c>
       <c r="D434">
@@ -9403,7 +9404,7 @@
       <c r="B435">
         <v>119100</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435">
         <v>95280</v>
       </c>
       <c r="D435">
@@ -9420,7 +9421,7 @@
       <c r="B436">
         <v>73600</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436">
         <v>51520</v>
       </c>
       <c r="D436">
@@ -9437,7 +9438,7 @@
       <c r="B437">
         <v>72700</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437">
         <v>36350</v>
       </c>
       <c r="D437">
@@ -9454,7 +9455,7 @@
       <c r="B438">
         <v>189900</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438">
         <v>151920</v>
       </c>
       <c r="D438">
@@ -9471,7 +9472,7 @@
       <c r="B439">
         <v>59000</v>
       </c>
-      <c r="C439" s="4">
+      <c r="C439">
         <v>47200</v>
       </c>
       <c r="D439">
@@ -9488,7 +9489,7 @@
       <c r="B440">
         <v>52800</v>
       </c>
-      <c r="C440" s="4">
+      <c r="C440">
         <v>26400</v>
       </c>
       <c r="D440">
@@ -9505,7 +9506,7 @@
       <c r="B441">
         <v>175500</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441">
         <v>140400</v>
       </c>
       <c r="D441">
@@ -9522,7 +9523,7 @@
       <c r="B442">
         <v>62300</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442">
         <v>24920</v>
       </c>
       <c r="D442">
@@ -9539,7 +9540,7 @@
       <c r="B443">
         <v>165000</v>
       </c>
-      <c r="C443" s="4">
+      <c r="C443">
         <v>66000</v>
       </c>
       <c r="D443">
@@ -9556,7 +9557,7 @@
       <c r="B444">
         <v>51200</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444">
         <v>20480</v>
       </c>
       <c r="D444">
@@ -9573,7 +9574,7 @@
       <c r="B445">
         <v>172600</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445">
         <v>120820</v>
       </c>
       <c r="D445">
@@ -9590,7 +9591,7 @@
       <c r="B446">
         <v>195000</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446">
         <v>97500</v>
       </c>
       <c r="D446">
@@ -9607,7 +9608,7 @@
       <c r="B447">
         <v>110900</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447">
         <v>77630</v>
       </c>
       <c r="D447">
@@ -9624,7 +9625,7 @@
       <c r="B448">
         <v>160300</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448">
         <v>128240</v>
       </c>
       <c r="D448">
@@ -9641,7 +9642,7 @@
       <c r="B449">
         <v>168600</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449">
         <v>118020</v>
       </c>
       <c r="D449">
@@ -9658,7 +9659,7 @@
       <c r="B450">
         <v>69900</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450">
         <v>48930</v>
       </c>
       <c r="D450">
@@ -9675,7 +9676,7 @@
       <c r="B451">
         <v>101400</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451">
         <v>50700</v>
       </c>
       <c r="D451">
@@ -9692,7 +9693,7 @@
       <c r="B452">
         <v>126700</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452">
         <v>101360</v>
       </c>
       <c r="D452">
@@ -9709,7 +9710,7 @@
       <c r="B453">
         <v>89700</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453">
         <v>35880</v>
       </c>
       <c r="D453">
@@ -9726,7 +9727,7 @@
       <c r="B454">
         <v>84400</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454">
         <v>33760</v>
       </c>
       <c r="D454">
@@ -9743,7 +9744,7 @@
       <c r="B455">
         <v>196800</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455">
         <v>137760</v>
       </c>
       <c r="D455">
@@ -9760,7 +9761,7 @@
       <c r="B456">
         <v>135000</v>
       </c>
-      <c r="C456" s="4">
+      <c r="C456">
         <v>108000</v>
       </c>
       <c r="D456">
@@ -9777,7 +9778,7 @@
       <c r="B457">
         <v>61800</v>
       </c>
-      <c r="C457" s="4">
+      <c r="C457">
         <v>24720</v>
       </c>
       <c r="D457">
@@ -9794,7 +9795,7 @@
       <c r="B458">
         <v>109800</v>
       </c>
-      <c r="C458" s="4">
+      <c r="C458">
         <v>76860</v>
       </c>
       <c r="D458">
@@ -9811,7 +9812,7 @@
       <c r="B459">
         <v>80800</v>
       </c>
-      <c r="C459" s="4">
+      <c r="C459">
         <v>64640</v>
       </c>
       <c r="D459">
@@ -9828,7 +9829,7 @@
       <c r="B460">
         <v>52300</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C460">
         <v>26150</v>
       </c>
       <c r="D460">
@@ -9845,7 +9846,7 @@
       <c r="B461">
         <v>81300</v>
       </c>
-      <c r="C461" s="4">
+      <c r="C461">
         <v>56910</v>
       </c>
       <c r="D461">
@@ -9862,7 +9863,7 @@
       <c r="B462">
         <v>58100</v>
       </c>
-      <c r="C462" s="4">
+      <c r="C462">
         <v>29050</v>
       </c>
       <c r="D462">
@@ -9879,7 +9880,7 @@
       <c r="B463">
         <v>127600</v>
       </c>
-      <c r="C463" s="4">
+      <c r="C463">
         <v>102080</v>
       </c>
       <c r="D463">
@@ -9896,7 +9897,7 @@
       <c r="B464">
         <v>179800</v>
       </c>
-      <c r="C464" s="4">
+      <c r="C464">
         <v>143840</v>
       </c>
       <c r="D464">
@@ -9913,7 +9914,7 @@
       <c r="B465">
         <v>181000</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C465">
         <v>144800</v>
       </c>
       <c r="D465">
@@ -9930,7 +9931,7 @@
       <c r="B466">
         <v>107800</v>
       </c>
-      <c r="C466" s="4">
+      <c r="C466">
         <v>64680</v>
       </c>
       <c r="D466">
@@ -9947,7 +9948,7 @@
       <c r="B467">
         <v>84200</v>
       </c>
-      <c r="C467" s="4">
+      <c r="C467">
         <v>42100</v>
       </c>
       <c r="D467">
@@ -9964,7 +9965,7 @@
       <c r="B468">
         <v>199500</v>
       </c>
-      <c r="C468" s="4">
+      <c r="C468">
         <v>99750</v>
       </c>
       <c r="D468">
@@ -9981,7 +9982,7 @@
       <c r="B469">
         <v>177500</v>
       </c>
-      <c r="C469" s="4">
+      <c r="C469">
         <v>142000</v>
       </c>
       <c r="D469">
@@ -9998,7 +9999,7 @@
       <c r="B470">
         <v>198900</v>
       </c>
-      <c r="C470" s="4">
+      <c r="C470">
         <v>119340</v>
       </c>
       <c r="D470">
@@ -10015,7 +10016,7 @@
       <c r="B471">
         <v>90600</v>
       </c>
-      <c r="C471" s="4">
+      <c r="C471">
         <v>54360</v>
       </c>
       <c r="D471">
@@ -10032,7 +10033,7 @@
       <c r="B472">
         <v>156700</v>
       </c>
-      <c r="C472" s="4">
+      <c r="C472">
         <v>109690</v>
       </c>
       <c r="D472">
@@ -10049,7 +10050,7 @@
       <c r="B473">
         <v>146000</v>
       </c>
-      <c r="C473" s="4">
+      <c r="C473">
         <v>87600</v>
       </c>
       <c r="D473">
@@ -10066,7 +10067,7 @@
       <c r="B474">
         <v>68500</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C474">
         <v>47950</v>
       </c>
       <c r="D474">
@@ -10083,7 +10084,7 @@
       <c r="B475">
         <v>152300</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C475">
         <v>106610</v>
       </c>
       <c r="D475">
@@ -10100,7 +10101,7 @@
       <c r="B476">
         <v>144900</v>
       </c>
-      <c r="C476" s="4">
+      <c r="C476">
         <v>72450</v>
       </c>
       <c r="D476">
@@ -10117,7 +10118,7 @@
       <c r="B477">
         <v>175200</v>
       </c>
-      <c r="C477" s="4">
+      <c r="C477">
         <v>140160</v>
       </c>
       <c r="D477">
@@ -10134,7 +10135,7 @@
       <c r="B478">
         <v>166400</v>
       </c>
-      <c r="C478" s="4">
+      <c r="C478">
         <v>133120</v>
       </c>
       <c r="D478">
@@ -10151,7 +10152,7 @@
       <c r="B479">
         <v>183500</v>
       </c>
-      <c r="C479" s="4">
+      <c r="C479">
         <v>73400</v>
       </c>
       <c r="D479">
@@ -10168,7 +10169,7 @@
       <c r="B480">
         <v>123200</v>
       </c>
-      <c r="C480" s="4">
+      <c r="C480">
         <v>49280</v>
       </c>
       <c r="D480">
@@ -10185,7 +10186,7 @@
       <c r="B481">
         <v>179100</v>
       </c>
-      <c r="C481" s="4">
+      <c r="C481">
         <v>107460</v>
       </c>
       <c r="D481">
@@ -10202,7 +10203,7 @@
       <c r="B482">
         <v>103000</v>
       </c>
-      <c r="C482" s="4">
+      <c r="C482">
         <v>61800</v>
       </c>
       <c r="D482">
@@ -10219,7 +10220,7 @@
       <c r="B483">
         <v>117700</v>
       </c>
-      <c r="C483" s="4">
+      <c r="C483">
         <v>70620</v>
       </c>
       <c r="D483">
@@ -10236,7 +10237,7 @@
       <c r="B484">
         <v>98700</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484">
         <v>59220</v>
       </c>
       <c r="D484">
@@ -10253,7 +10254,7 @@
       <c r="B485">
         <v>114400</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485">
         <v>91520</v>
       </c>
       <c r="D485">
@@ -10270,7 +10271,7 @@
       <c r="B486">
         <v>52500</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486">
         <v>42000</v>
       </c>
       <c r="D486">
@@ -10287,7 +10288,7 @@
       <c r="B487">
         <v>57500</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487">
         <v>23000</v>
       </c>
       <c r="D487">
@@ -10304,7 +10305,7 @@
       <c r="B488">
         <v>181400</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488">
         <v>90700</v>
       </c>
       <c r="D488">
@@ -10321,7 +10322,7 @@
       <c r="B489">
         <v>180600</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489">
         <v>90300</v>
       </c>
       <c r="D489">
@@ -10338,7 +10339,7 @@
       <c r="B490">
         <v>178700</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490">
         <v>125090</v>
       </c>
       <c r="D490">
@@ -10355,7 +10356,7 @@
       <c r="B491">
         <v>158100</v>
       </c>
-      <c r="C491" s="4">
+      <c r="C491">
         <v>110670</v>
       </c>
       <c r="D491">
@@ -10372,7 +10373,7 @@
       <c r="B492">
         <v>95700</v>
       </c>
-      <c r="C492" s="4">
+      <c r="C492">
         <v>76560</v>
       </c>
       <c r="D492">
@@ -10389,7 +10390,7 @@
       <c r="B493">
         <v>199800</v>
       </c>
-      <c r="C493" s="4">
+      <c r="C493">
         <v>119880</v>
       </c>
       <c r="D493">
@@ -10406,7 +10407,7 @@
       <c r="B494">
         <v>134400</v>
       </c>
-      <c r="C494" s="4">
+      <c r="C494">
         <v>107520</v>
       </c>
       <c r="D494">
@@ -10423,7 +10424,7 @@
       <c r="B495">
         <v>154700</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495">
         <v>123760</v>
       </c>
       <c r="D495">
@@ -10440,7 +10441,7 @@
       <c r="B496">
         <v>122000</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496">
         <v>97600</v>
       </c>
       <c r="D496">
@@ -10457,7 +10458,7 @@
       <c r="B497">
         <v>126300</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497">
         <v>88410</v>
       </c>
       <c r="D497">
@@ -10474,7 +10475,7 @@
       <c r="B498">
         <v>75300</v>
       </c>
-      <c r="C498" s="4">
+      <c r="C498">
         <v>45180</v>
       </c>
       <c r="D498">
@@ -10491,7 +10492,7 @@
       <c r="B499">
         <v>101300</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C499">
         <v>60780</v>
       </c>
       <c r="D499">
@@ -10508,7 +10509,7 @@
       <c r="B500">
         <v>144600</v>
       </c>
-      <c r="C500" s="4">
+      <c r="C500">
         <v>86760</v>
       </c>
       <c r="D500">
@@ -10525,7 +10526,7 @@
       <c r="B501">
         <v>136600</v>
       </c>
-      <c r="C501" s="4">
+      <c r="C501">
         <v>68300</v>
       </c>
       <c r="D501">
@@ -10542,7 +10543,7 @@
       <c r="B502">
         <v>142300</v>
       </c>
-      <c r="C502" s="4">
+      <c r="C502">
         <v>85380</v>
       </c>
       <c r="D502">
@@ -10559,7 +10560,7 @@
       <c r="B503">
         <v>121100</v>
       </c>
-      <c r="C503" s="4">
+      <c r="C503">
         <v>48440</v>
       </c>
       <c r="D503">
@@ -10576,7 +10577,7 @@
       <c r="B504">
         <v>172600</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504">
         <v>138080</v>
       </c>
       <c r="D504">
@@ -10593,7 +10594,7 @@
       <c r="B505">
         <v>159500</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505">
         <v>63800</v>
       </c>
       <c r="D505">
@@ -10610,7 +10611,7 @@
       <c r="B506">
         <v>147100</v>
       </c>
-      <c r="C506" s="4">
+      <c r="C506">
         <v>102970</v>
       </c>
       <c r="D506">
@@ -10627,7 +10628,7 @@
       <c r="B507">
         <v>100700</v>
       </c>
-      <c r="C507" s="4">
+      <c r="C507">
         <v>50350</v>
       </c>
       <c r="D507">
@@ -10644,7 +10645,7 @@
       <c r="B508">
         <v>112000</v>
       </c>
-      <c r="C508" s="4">
+      <c r="C508">
         <v>67200</v>
       </c>
       <c r="D508">
@@ -10661,7 +10662,7 @@
       <c r="B509">
         <v>198400</v>
       </c>
-      <c r="C509" s="4">
+      <c r="C509">
         <v>79360</v>
       </c>
       <c r="D509">
@@ -10678,7 +10679,7 @@
       <c r="B510">
         <v>68000</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C510">
         <v>54400</v>
       </c>
       <c r="D510">
@@ -10695,7 +10696,7 @@
       <c r="B511">
         <v>181900</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511">
         <v>145520</v>
       </c>
       <c r="D511">
@@ -10712,7 +10713,7 @@
       <c r="B512">
         <v>194700</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512">
         <v>116820</v>
       </c>
       <c r="D512">
@@ -10729,7 +10730,7 @@
       <c r="B513">
         <v>136900</v>
       </c>
-      <c r="C513" s="4">
+      <c r="C513">
         <v>82140</v>
       </c>
       <c r="D513">
@@ -10746,7 +10747,7 @@
       <c r="B514">
         <v>150600</v>
       </c>
-      <c r="C514" s="4">
+      <c r="C514">
         <v>60240</v>
       </c>
       <c r="D514">
@@ -10763,7 +10764,7 @@
       <c r="B515">
         <v>76200</v>
       </c>
-      <c r="C515" s="4">
+      <c r="C515">
         <v>53340</v>
       </c>
       <c r="D515">
@@ -10780,7 +10781,7 @@
       <c r="B516">
         <v>175300</v>
       </c>
-      <c r="C516" s="4">
+      <c r="C516">
         <v>122710</v>
       </c>
       <c r="D516">
@@ -10797,7 +10798,7 @@
       <c r="B517">
         <v>102400</v>
       </c>
-      <c r="C517" s="4">
+      <c r="C517">
         <v>81920</v>
       </c>
       <c r="D517">
@@ -10814,7 +10815,7 @@
       <c r="B518">
         <v>60000</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C518">
         <v>30000</v>
       </c>
       <c r="D518">
@@ -10831,7 +10832,7 @@
       <c r="B519">
         <v>103400</v>
       </c>
-      <c r="C519" s="4">
+      <c r="C519">
         <v>72380</v>
       </c>
       <c r="D519">
@@ -10848,7 +10849,7 @@
       <c r="B520">
         <v>93300</v>
       </c>
-      <c r="C520" s="4">
+      <c r="C520">
         <v>65310</v>
       </c>
       <c r="D520">
@@ -10865,7 +10866,7 @@
       <c r="B521">
         <v>126200</v>
       </c>
-      <c r="C521" s="4">
+      <c r="C521">
         <v>75720</v>
       </c>
       <c r="D521">
@@ -10882,7 +10883,7 @@
       <c r="B522">
         <v>197000</v>
       </c>
-      <c r="C522" s="4">
+      <c r="C522">
         <v>118200</v>
       </c>
       <c r="D522">
@@ -10899,7 +10900,7 @@
       <c r="B523">
         <v>187000</v>
       </c>
-      <c r="C523" s="4">
+      <c r="C523">
         <v>149600</v>
       </c>
       <c r="D523">
@@ -10916,7 +10917,7 @@
       <c r="B524">
         <v>169300</v>
       </c>
-      <c r="C524" s="4">
+      <c r="C524">
         <v>135440</v>
       </c>
       <c r="D524">
@@ -10934,5 +10935,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
+++ b/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarap\Documents\GitHub\Web_Desarrollo\veterinaria\src\main\resources\static\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\web\veterinaria\src\main\resources\static\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268FCE08-8739-4591-A345-328A74DEFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA6B14-8397-4766-9EDE-64AAE4FC63F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICAMENTOS BD FINAL" sheetId="10" r:id="rId1"/>
@@ -1713,16 +1713,15 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ESVAC OK" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2006,19 +2005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22169EE9-4596-4307-A7B5-C6523647A88D}">
   <dimension ref="A1:E524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="E457" sqref="E457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2035,31 +2034,31 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
         <v>151300</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>60520</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3">
         <v>155100</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>124080</v>
       </c>
       <c r="D3">
@@ -2069,14 +2068,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
       <c r="B4">
         <v>114800</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>91840</v>
       </c>
       <c r="D4">
@@ -2086,14 +2085,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5">
         <v>147600</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>103320</v>
       </c>
       <c r="D5">
@@ -2103,14 +2102,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6">
         <v>129000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>64500</v>
       </c>
       <c r="D6">
@@ -2120,14 +2119,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
       <c r="B7">
         <v>164900</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>115430</v>
       </c>
       <c r="D7">
@@ -2137,14 +2136,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
       <c r="B8">
         <v>125800</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>100640</v>
       </c>
       <c r="D8">
@@ -2154,14 +2153,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>510</v>
       </c>
       <c r="B9">
         <v>79100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>47460</v>
       </c>
       <c r="D9">
@@ -2171,14 +2170,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
       <c r="B10">
         <v>182000</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>109200</v>
       </c>
       <c r="D10">
@@ -2188,14 +2187,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
       <c r="B11">
         <v>133400</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11">
         <v>80040</v>
       </c>
       <c r="D11">
@@ -2205,14 +2204,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
       <c r="B12">
         <v>135500</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>108400</v>
       </c>
       <c r="D12">
@@ -2222,14 +2221,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
       <c r="B13">
         <v>86800</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>52080</v>
       </c>
       <c r="D13">
@@ -2239,14 +2238,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
       <c r="B14">
         <v>182900</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>109740</v>
       </c>
       <c r="D14">
@@ -2256,14 +2255,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15">
         <v>141600</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>70800</v>
       </c>
       <c r="D15">
@@ -2273,14 +2272,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16">
         <v>146800</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>102760</v>
       </c>
       <c r="D16">
@@ -2290,14 +2289,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17">
         <v>58600</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>29300</v>
       </c>
       <c r="D17">
@@ -2307,14 +2306,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
       <c r="B18">
         <v>50700</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>25350</v>
       </c>
       <c r="D18">
@@ -2324,14 +2323,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
       <c r="B19">
         <v>198200</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>158560</v>
       </c>
       <c r="D19">
@@ -2341,14 +2340,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
       <c r="B20">
         <v>84500</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>59150</v>
       </c>
       <c r="D20">
@@ -2358,14 +2357,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
       <c r="B21">
         <v>64000</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>44800</v>
       </c>
       <c r="D21">
@@ -2375,14 +2374,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
       <c r="B22">
         <v>182300</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>91150</v>
       </c>
       <c r="D22">
@@ -2392,14 +2391,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
       <c r="B23">
         <v>93100</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>65170</v>
       </c>
       <c r="D23">
@@ -2409,14 +2408,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
       <c r="B24">
         <v>86100</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>34440</v>
       </c>
       <c r="D24">
@@ -2426,14 +2425,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
       <c r="B25">
         <v>52600</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>21040</v>
       </c>
       <c r="D25">
@@ -2443,31 +2442,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26">
         <v>142800</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>114240</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
       <c r="B27">
         <v>133500</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>93450</v>
       </c>
       <c r="D27">
@@ -2477,14 +2476,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
       <c r="B28">
         <v>90200</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>45100</v>
       </c>
       <c r="D28">
@@ -2494,14 +2493,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
       <c r="B29">
         <v>104500</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29">
         <v>41800</v>
       </c>
       <c r="D29">
@@ -2511,14 +2510,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
       <c r="B30">
         <v>151400</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30">
         <v>75700</v>
       </c>
       <c r="D30">
@@ -2528,14 +2527,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
       <c r="B31">
         <v>193000</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31">
         <v>77200</v>
       </c>
       <c r="D31">
@@ -2545,14 +2544,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
       <c r="B32">
         <v>190000</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32">
         <v>95000</v>
       </c>
       <c r="D32">
@@ -2562,14 +2561,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>82</v>
       </c>
       <c r="B33">
         <v>162000</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33">
         <v>97200</v>
       </c>
       <c r="D33">
@@ -2579,14 +2578,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
       <c r="B34">
         <v>190200</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34">
         <v>152160</v>
       </c>
       <c r="D34">
@@ -2596,14 +2595,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
       <c r="B35">
         <v>177900</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35">
         <v>124530</v>
       </c>
       <c r="D35">
@@ -2613,14 +2612,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
       <c r="B36">
         <v>141800</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36">
         <v>99260</v>
       </c>
       <c r="D36">
@@ -2630,14 +2629,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>511</v>
       </c>
       <c r="B37">
         <v>144200</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37">
         <v>57680</v>
       </c>
       <c r="D37">
@@ -2647,14 +2646,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
       <c r="B38">
         <v>188700</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38">
         <v>75480</v>
       </c>
       <c r="D38">
@@ -2664,14 +2663,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
       <c r="B39">
         <v>155400</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39">
         <v>77700</v>
       </c>
       <c r="D39">
@@ -2681,14 +2680,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>88</v>
       </c>
       <c r="B40">
         <v>110500</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40">
         <v>77350</v>
       </c>
       <c r="D40">
@@ -2698,14 +2697,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
       <c r="B41">
         <v>118100</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41">
         <v>47240</v>
       </c>
       <c r="D41">
@@ -2715,14 +2714,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42">
         <v>148700</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42">
         <v>89220</v>
       </c>
       <c r="D42">
@@ -2732,14 +2731,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>90</v>
       </c>
       <c r="B43">
         <v>155700</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43">
         <v>77850</v>
       </c>
       <c r="D43">
@@ -2749,14 +2748,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
       <c r="B44">
         <v>131000</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44">
         <v>65500</v>
       </c>
       <c r="D44">
@@ -2766,14 +2765,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45">
         <v>106400</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45">
         <v>85120</v>
       </c>
       <c r="D45">
@@ -2783,14 +2782,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
       <c r="B46">
         <v>131300</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46">
         <v>105040</v>
       </c>
       <c r="D46">
@@ -2800,31 +2799,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
       <c r="B47">
         <v>63000</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47">
         <v>31500</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
       <c r="B48">
         <v>181800</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48">
         <v>109080</v>
       </c>
       <c r="D48">
@@ -2834,14 +2833,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49">
         <v>131900</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49">
         <v>79140</v>
       </c>
       <c r="D49">
@@ -2851,14 +2850,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
       <c r="B50">
         <v>53600</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50">
         <v>37520</v>
       </c>
       <c r="D50">
@@ -2868,14 +2867,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
       <c r="B51">
         <v>167700</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51">
         <v>117390</v>
       </c>
       <c r="D51">
@@ -2885,14 +2884,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
       <c r="B52">
         <v>125700</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52">
         <v>87990</v>
       </c>
       <c r="D52">
@@ -2902,14 +2901,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
       <c r="B53">
         <v>143200</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53">
         <v>57280</v>
       </c>
       <c r="D53">
@@ -2919,14 +2918,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
       <c r="B54">
         <v>76000</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54">
         <v>53200</v>
       </c>
       <c r="D54">
@@ -2936,14 +2935,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
       <c r="B55">
         <v>113700</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55">
         <v>90960</v>
       </c>
       <c r="D55">
@@ -2953,14 +2952,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
       <c r="B56">
         <v>58500</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56">
         <v>40950</v>
       </c>
       <c r="D56">
@@ -2970,14 +2969,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
       <c r="B57">
         <v>64400</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57">
         <v>38640</v>
       </c>
       <c r="D57">
@@ -2987,14 +2986,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
       <c r="B58">
         <v>142300</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58">
         <v>71150</v>
       </c>
       <c r="D58">
@@ -3004,31 +3003,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
       <c r="B59">
         <v>108800</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59">
         <v>76160</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
         <v>113500</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60">
         <v>56750</v>
       </c>
       <c r="D60">
@@ -3038,14 +3037,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
       <c r="B61">
         <v>124700</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61">
         <v>99760</v>
       </c>
       <c r="D61">
@@ -3055,14 +3054,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>106</v>
       </c>
       <c r="B62">
         <v>198800</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62">
         <v>99400</v>
       </c>
       <c r="D62">
@@ -3072,14 +3071,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>107</v>
       </c>
       <c r="B63">
         <v>185500</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63">
         <v>148400</v>
       </c>
       <c r="D63">
@@ -3089,31 +3088,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>108</v>
       </c>
       <c r="B64">
         <v>139400</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64">
         <v>111520</v>
       </c>
       <c r="D64">
         <v>7</v>
       </c>
       <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
       <c r="B65">
         <v>178300</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65">
         <v>142640</v>
       </c>
       <c r="D65">
@@ -3123,14 +3122,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
       <c r="B66">
         <v>96800</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66">
         <v>48400</v>
       </c>
       <c r="D66">
@@ -3140,14 +3139,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>52</v>
       </c>
       <c r="B67">
         <v>180200</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67">
         <v>126140</v>
       </c>
       <c r="D67">
@@ -3157,14 +3156,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>111</v>
       </c>
       <c r="B68">
         <v>92400</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68">
         <v>64680</v>
       </c>
       <c r="D68">
@@ -3174,14 +3173,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
       <c r="B69">
         <v>67600</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69">
         <v>54080</v>
       </c>
       <c r="D69">
@@ -3191,14 +3190,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>113</v>
       </c>
       <c r="B70">
         <v>107600</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70">
         <v>53800</v>
       </c>
       <c r="D70">
@@ -3208,14 +3207,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
       <c r="B71">
         <v>165800</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71">
         <v>132640</v>
       </c>
       <c r="D71">
@@ -3225,14 +3224,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>115</v>
       </c>
       <c r="B72">
         <v>109700</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72">
         <v>65820</v>
       </c>
       <c r="D72">
@@ -3242,14 +3241,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
       <c r="B73">
         <v>137600</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73">
         <v>96320</v>
       </c>
       <c r="D73">
@@ -3259,14 +3258,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>117</v>
       </c>
       <c r="B74">
         <v>90300</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74">
         <v>63210</v>
       </c>
       <c r="D74">
@@ -3276,14 +3275,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
       <c r="B75">
         <v>129700</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75">
         <v>77820</v>
       </c>
       <c r="D75">
@@ -3293,14 +3292,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
       <c r="B76">
         <v>108600</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76">
         <v>86880</v>
       </c>
       <c r="D76">
@@ -3310,14 +3309,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>120</v>
       </c>
       <c r="B77">
         <v>167300</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77">
         <v>100380</v>
       </c>
       <c r="D77">
@@ -3327,14 +3326,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
       <c r="B78">
         <v>76100</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78">
         <v>53270</v>
       </c>
       <c r="D78">
@@ -3344,14 +3343,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
       <c r="B79">
         <v>58500</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79">
         <v>23400</v>
       </c>
       <c r="D79">
@@ -3361,14 +3360,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>123</v>
       </c>
       <c r="B80">
         <v>143500</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80">
         <v>100450</v>
       </c>
       <c r="D80">
@@ -3378,14 +3377,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>124</v>
       </c>
       <c r="B81">
         <v>92800</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81">
         <v>37120</v>
       </c>
       <c r="D81">
@@ -3395,14 +3394,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>125</v>
       </c>
       <c r="B82">
         <v>163400</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82">
         <v>130720</v>
       </c>
       <c r="D82">
@@ -3412,14 +3411,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>126</v>
       </c>
       <c r="B83">
         <v>55000</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83">
         <v>38500</v>
       </c>
       <c r="D83">
@@ -3429,14 +3428,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>127</v>
       </c>
       <c r="B84">
         <v>160700</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84">
         <v>64280</v>
       </c>
       <c r="D84">
@@ -3446,14 +3445,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>128</v>
       </c>
       <c r="B85">
         <v>58000</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85">
         <v>46400</v>
       </c>
       <c r="D85">
@@ -3463,14 +3462,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>129</v>
       </c>
       <c r="B86">
         <v>120900</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86">
         <v>48360</v>
       </c>
       <c r="D86">
@@ -3480,14 +3479,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>130</v>
       </c>
       <c r="B87">
         <v>117500</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87">
         <v>94000</v>
       </c>
       <c r="D87">
@@ -3497,14 +3496,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
       <c r="B88">
         <v>98600</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88">
         <v>69020</v>
       </c>
       <c r="D88">
@@ -3514,14 +3513,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>132</v>
       </c>
       <c r="B89">
         <v>57600</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89">
         <v>40320</v>
       </c>
       <c r="D89">
@@ -3531,14 +3530,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>133</v>
       </c>
       <c r="B90">
         <v>104500</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90">
         <v>62700</v>
       </c>
       <c r="D90">
@@ -3548,14 +3547,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>134</v>
       </c>
       <c r="B91">
         <v>118100</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91">
         <v>82670</v>
       </c>
       <c r="D91">
@@ -3565,14 +3564,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>135</v>
       </c>
       <c r="B92">
         <v>51500</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92">
         <v>36050</v>
       </c>
       <c r="D92">
@@ -3582,14 +3581,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>136</v>
       </c>
       <c r="B93">
         <v>183900</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93">
         <v>128730</v>
       </c>
       <c r="D93">
@@ -3599,14 +3598,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>137</v>
       </c>
       <c r="B94">
         <v>156600</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94">
         <v>78300</v>
       </c>
       <c r="D94">
@@ -3616,14 +3615,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>138</v>
       </c>
       <c r="B95">
         <v>62700</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95">
         <v>43890</v>
       </c>
       <c r="D95">
@@ -3633,14 +3632,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
       <c r="B96">
         <v>52200</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96">
         <v>26100</v>
       </c>
       <c r="D96">
@@ -3650,31 +3649,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>140</v>
       </c>
       <c r="B97">
         <v>186800</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97">
         <v>112080</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>141</v>
       </c>
       <c r="B98">
         <v>133000</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98">
         <v>53200</v>
       </c>
       <c r="D98">
@@ -3684,14 +3683,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>142</v>
       </c>
       <c r="B99">
         <v>197200</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99">
         <v>118320</v>
       </c>
       <c r="D99">
@@ -3701,14 +3700,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>143</v>
       </c>
       <c r="B100">
         <v>179900</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100">
         <v>125930</v>
       </c>
       <c r="D100">
@@ -3718,14 +3717,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>144</v>
       </c>
       <c r="B101">
         <v>152200</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101">
         <v>91320</v>
       </c>
       <c r="D101">
@@ -3735,14 +3734,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>145</v>
       </c>
       <c r="B102">
         <v>110800</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102">
         <v>55400</v>
       </c>
       <c r="D102">
@@ -3752,14 +3751,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>146</v>
       </c>
       <c r="B103">
         <v>52000</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103">
         <v>26000</v>
       </c>
       <c r="D103">
@@ -3769,14 +3768,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>147</v>
       </c>
       <c r="B104">
         <v>112500</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104">
         <v>90000</v>
       </c>
       <c r="D104">
@@ -3786,14 +3785,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>148</v>
       </c>
       <c r="B105">
         <v>118500</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105">
         <v>71100</v>
       </c>
       <c r="D105">
@@ -3803,14 +3802,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>149</v>
       </c>
       <c r="B106">
         <v>71100</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106">
         <v>35550</v>
       </c>
       <c r="D106">
@@ -3820,14 +3819,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>150</v>
       </c>
       <c r="B107">
         <v>199900</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107">
         <v>119940</v>
       </c>
       <c r="D107">
@@ -3837,14 +3836,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>151</v>
       </c>
       <c r="B108">
         <v>91600</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108">
         <v>64120</v>
       </c>
       <c r="D108">
@@ -3854,14 +3853,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>152</v>
       </c>
       <c r="B109">
         <v>58800</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109">
         <v>41160</v>
       </c>
       <c r="D109">
@@ -3871,14 +3870,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
       <c r="B110">
         <v>87800</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110">
         <v>52680</v>
       </c>
       <c r="D110">
@@ -3888,14 +3887,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>154</v>
       </c>
       <c r="B111">
         <v>195800</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111">
         <v>97900</v>
       </c>
       <c r="D111">
@@ -3905,14 +3904,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>155</v>
       </c>
       <c r="B112">
         <v>102100</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112">
         <v>61260</v>
       </c>
       <c r="D112">
@@ -3922,14 +3921,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>156</v>
       </c>
       <c r="B113">
         <v>56100</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113">
         <v>33660</v>
       </c>
       <c r="D113">
@@ -3939,14 +3938,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>3</v>
       </c>
       <c r="B114">
         <v>84400</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114">
         <v>50640</v>
       </c>
       <c r="D114">
@@ -3956,31 +3955,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>157</v>
       </c>
       <c r="B115">
         <v>181700</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115">
         <v>109020</v>
       </c>
       <c r="D115">
         <v>6</v>
       </c>
       <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>158</v>
       </c>
       <c r="B116">
         <v>196000</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116">
         <v>156800</v>
       </c>
       <c r="D116">
@@ -3990,14 +3989,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>159</v>
       </c>
       <c r="B117">
         <v>59300</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117">
         <v>47440</v>
       </c>
       <c r="D117">
@@ -4007,14 +4006,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>160</v>
       </c>
       <c r="B118">
         <v>177800</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118">
         <v>71120</v>
       </c>
       <c r="D118">
@@ -4024,14 +4023,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>161</v>
       </c>
       <c r="B119">
         <v>168400</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119">
         <v>134720</v>
       </c>
       <c r="D119">
@@ -4041,14 +4040,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>162</v>
       </c>
       <c r="B120">
         <v>146900</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120">
         <v>117520</v>
       </c>
       <c r="D120">
@@ -4058,14 +4057,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>163</v>
       </c>
       <c r="B121">
         <v>190600</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121">
         <v>152480</v>
       </c>
       <c r="D121">
@@ -4075,14 +4074,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>164</v>
       </c>
       <c r="B122">
         <v>75700</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122">
         <v>60560</v>
       </c>
       <c r="D122">
@@ -4092,14 +4091,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>31</v>
       </c>
       <c r="B123">
         <v>78400</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123">
         <v>39200</v>
       </c>
       <c r="D123">
@@ -4109,14 +4108,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>165</v>
       </c>
       <c r="B124">
         <v>128400</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124">
         <v>64200</v>
       </c>
       <c r="D124">
@@ -4126,14 +4125,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>166</v>
       </c>
       <c r="B125">
         <v>99300</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125">
         <v>59580</v>
       </c>
       <c r="D125">
@@ -4143,14 +4142,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>167</v>
       </c>
       <c r="B126">
         <v>82900</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126">
         <v>49740</v>
       </c>
       <c r="D126">
@@ -4160,14 +4159,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>168</v>
       </c>
       <c r="B127">
         <v>149000</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127">
         <v>104300</v>
       </c>
       <c r="D127">
@@ -4177,14 +4176,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>169</v>
       </c>
       <c r="B128">
         <v>77600</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128">
         <v>54320</v>
       </c>
       <c r="D128">
@@ -4194,14 +4193,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>0</v>
       </c>
       <c r="B129">
         <v>94800</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129">
         <v>75840</v>
       </c>
       <c r="D129">
@@ -4211,14 +4210,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>36</v>
       </c>
       <c r="B130">
         <v>123300</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130">
         <v>73980</v>
       </c>
       <c r="D130">
@@ -4228,31 +4227,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>170</v>
       </c>
       <c r="B131">
         <v>129900</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131">
         <v>51960</v>
       </c>
       <c r="D131">
         <v>9</v>
       </c>
       <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>171</v>
       </c>
       <c r="B132">
         <v>162500</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132">
         <v>113750</v>
       </c>
       <c r="D132">
@@ -4262,14 +4261,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>512</v>
       </c>
       <c r="B133">
         <v>196700</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133">
         <v>157360</v>
       </c>
       <c r="D133">
@@ -4279,14 +4278,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>172</v>
       </c>
       <c r="B134">
         <v>183900</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134">
         <v>110340</v>
       </c>
       <c r="D134">
@@ -4296,14 +4295,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>30</v>
       </c>
       <c r="B135">
         <v>145300</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135">
         <v>116240</v>
       </c>
       <c r="D135">
@@ -4313,14 +4312,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>173</v>
       </c>
       <c r="B136">
         <v>84700</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136">
         <v>67760</v>
       </c>
       <c r="D136">
@@ -4330,14 +4329,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>174</v>
       </c>
       <c r="B137">
         <v>134600</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137">
         <v>107680</v>
       </c>
       <c r="D137">
@@ -4347,14 +4346,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>175</v>
       </c>
       <c r="B138">
         <v>110000</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138">
         <v>88000</v>
       </c>
       <c r="D138">
@@ -4364,14 +4363,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>176</v>
       </c>
       <c r="B139">
         <v>156300</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139">
         <v>125040</v>
       </c>
       <c r="D139">
@@ -4381,14 +4380,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>177</v>
       </c>
       <c r="B140">
         <v>108300</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140">
         <v>54150</v>
       </c>
       <c r="D140">
@@ -4398,14 +4397,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>40</v>
       </c>
       <c r="B141">
         <v>133700</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141">
         <v>80220</v>
       </c>
       <c r="D141">
@@ -4415,14 +4414,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>178</v>
       </c>
       <c r="B142">
         <v>143000</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142">
         <v>85800</v>
       </c>
       <c r="D142">
@@ -4432,14 +4431,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>179</v>
       </c>
       <c r="B143">
         <v>139700</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143">
         <v>111760</v>
       </c>
       <c r="D143">
@@ -4449,14 +4448,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>180</v>
       </c>
       <c r="B144">
         <v>112700</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144">
         <v>56350</v>
       </c>
       <c r="D144">
@@ -4466,14 +4465,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>181</v>
       </c>
       <c r="B145">
         <v>196200</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145">
         <v>137340</v>
       </c>
       <c r="D145">
@@ -4483,14 +4482,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>182</v>
       </c>
       <c r="B146">
         <v>195000</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146">
         <v>156000</v>
       </c>
       <c r="D146">
@@ -4500,14 +4499,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>183</v>
       </c>
       <c r="B147">
         <v>123900</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147">
         <v>49560</v>
       </c>
       <c r="D147">
@@ -4517,31 +4516,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>184</v>
       </c>
       <c r="B148">
         <v>155500</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148">
         <v>93300</v>
       </c>
       <c r="D148">
         <v>5</v>
       </c>
       <c r="E148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>28</v>
       </c>
       <c r="B149">
         <v>158400</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149">
         <v>110880</v>
       </c>
       <c r="D149">
@@ -4551,14 +4550,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>185</v>
       </c>
       <c r="B150">
         <v>199400</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150">
         <v>99700</v>
       </c>
       <c r="D150">
@@ -4568,14 +4567,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>186</v>
       </c>
       <c r="B151">
         <v>68500</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151">
         <v>47950</v>
       </c>
       <c r="D151">
@@ -4585,14 +4584,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>187</v>
       </c>
       <c r="B152">
         <v>112800</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152">
         <v>45120</v>
       </c>
       <c r="D152">
@@ -4602,14 +4601,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>188</v>
       </c>
       <c r="B153">
         <v>173400</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153">
         <v>104040</v>
       </c>
       <c r="D153">
@@ -4619,14 +4618,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>189</v>
       </c>
       <c r="B154">
         <v>192600</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154">
         <v>115560</v>
       </c>
       <c r="D154">
@@ -4636,14 +4635,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>190</v>
       </c>
       <c r="B155">
         <v>162900</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155">
         <v>65160</v>
       </c>
       <c r="D155">
@@ -4653,14 +4652,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>191</v>
       </c>
       <c r="B156">
         <v>156600</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156">
         <v>62640</v>
       </c>
       <c r="D156">
@@ -4670,14 +4669,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>192</v>
       </c>
       <c r="B157">
         <v>91800</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157">
         <v>45900</v>
       </c>
       <c r="D157">
@@ -4687,14 +4686,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>193</v>
       </c>
       <c r="B158">
         <v>177000</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158">
         <v>123900</v>
       </c>
       <c r="D158">
@@ -4704,14 +4703,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>194</v>
       </c>
       <c r="B159">
         <v>108100</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159">
         <v>43240</v>
       </c>
       <c r="D159">
@@ -4721,14 +4720,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>195</v>
       </c>
       <c r="B160">
         <v>161100</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160">
         <v>96660</v>
       </c>
       <c r="D160">
@@ -4738,14 +4737,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>196</v>
       </c>
       <c r="B161">
         <v>167100</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161">
         <v>83550</v>
       </c>
       <c r="D161">
@@ -4755,14 +4754,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>197</v>
       </c>
       <c r="B162">
         <v>143800</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162">
         <v>100660</v>
       </c>
       <c r="D162">
@@ -4772,14 +4771,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>42</v>
       </c>
       <c r="B163">
         <v>175000</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163">
         <v>70000</v>
       </c>
       <c r="D163">
@@ -4789,14 +4788,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>198</v>
       </c>
       <c r="B164">
         <v>186300</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164">
         <v>111780</v>
       </c>
       <c r="D164">
@@ -4806,31 +4805,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>199</v>
       </c>
       <c r="B165">
         <v>133500</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165">
         <v>66750</v>
       </c>
       <c r="D165">
         <v>4</v>
       </c>
       <c r="E165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>200</v>
       </c>
       <c r="B166">
         <v>137300</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166">
         <v>109840</v>
       </c>
       <c r="D166">
@@ -4840,14 +4839,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>201</v>
       </c>
       <c r="B167">
         <v>169200</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167">
         <v>101520</v>
       </c>
       <c r="D167">
@@ -4857,14 +4856,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>202</v>
       </c>
       <c r="B168">
         <v>120600</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168">
         <v>96480</v>
       </c>
       <c r="D168">
@@ -4874,14 +4873,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>203</v>
       </c>
       <c r="B169">
         <v>177600</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169">
         <v>142080</v>
       </c>
       <c r="D169">
@@ -4891,14 +4890,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>204</v>
       </c>
       <c r="B170">
         <v>143800</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170">
         <v>71900</v>
       </c>
       <c r="D170">
@@ -4908,14 +4907,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>205</v>
       </c>
       <c r="B171">
         <v>102900</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171">
         <v>41160</v>
       </c>
       <c r="D171">
@@ -4925,14 +4924,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>206</v>
       </c>
       <c r="B172">
         <v>166400</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172">
         <v>116480</v>
       </c>
       <c r="D172">
@@ -4942,14 +4941,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>207</v>
       </c>
       <c r="B173">
         <v>178100</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173">
         <v>106860</v>
       </c>
       <c r="D173">
@@ -4959,14 +4958,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>208</v>
       </c>
       <c r="B174">
         <v>87800</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174">
         <v>70240</v>
       </c>
       <c r="D174">
@@ -4976,14 +4975,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>209</v>
       </c>
       <c r="B175">
         <v>136300</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175">
         <v>109040</v>
       </c>
       <c r="D175">
@@ -4993,14 +4992,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>210</v>
       </c>
       <c r="B176">
         <v>90100</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176">
         <v>54060</v>
       </c>
       <c r="D176">
@@ -5010,14 +5009,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>211</v>
       </c>
       <c r="B177">
         <v>192100</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177">
         <v>115260</v>
       </c>
       <c r="D177">
@@ -5027,14 +5026,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>212</v>
       </c>
       <c r="B178">
         <v>118700</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178">
         <v>83090</v>
       </c>
       <c r="D178">
@@ -5044,14 +5043,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>213</v>
       </c>
       <c r="B179">
         <v>58400</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179">
         <v>40880</v>
       </c>
       <c r="D179">
@@ -5061,14 +5060,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>513</v>
       </c>
       <c r="B180">
         <v>51700</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180">
         <v>36190</v>
       </c>
       <c r="D180">
@@ -5078,14 +5077,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>214</v>
       </c>
       <c r="B181">
         <v>139400</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181">
         <v>55760</v>
       </c>
       <c r="D181">
@@ -5095,31 +5094,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>215</v>
       </c>
       <c r="B182">
         <v>152200</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182">
         <v>91320</v>
       </c>
       <c r="D182">
         <v>3</v>
       </c>
       <c r="E182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>216</v>
       </c>
       <c r="B183">
         <v>136700</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183">
         <v>82020</v>
       </c>
       <c r="D183">
@@ -5129,14 +5128,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>37</v>
       </c>
       <c r="B184">
         <v>103200</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184">
         <v>61920</v>
       </c>
       <c r="D184">
@@ -5146,14 +5145,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>217</v>
       </c>
       <c r="B185">
         <v>81600</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185">
         <v>40800</v>
       </c>
       <c r="D185">
@@ -5163,14 +5162,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>514</v>
       </c>
       <c r="B186">
         <v>200000</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186">
         <v>120000</v>
       </c>
       <c r="D186">
@@ -5180,14 +5179,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>218</v>
       </c>
       <c r="B187">
         <v>53600</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187">
         <v>32160</v>
       </c>
       <c r="D187">
@@ -5197,14 +5196,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
       <c r="B188">
         <v>141700</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188">
         <v>56680</v>
       </c>
       <c r="D188">
@@ -5214,14 +5213,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>219</v>
       </c>
       <c r="B189">
         <v>196900</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189">
         <v>137830</v>
       </c>
       <c r="D189">
@@ -5231,14 +5230,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>220</v>
       </c>
       <c r="B190">
         <v>136100</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190">
         <v>108880</v>
       </c>
       <c r="D190">
@@ -5248,14 +5247,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>38</v>
       </c>
       <c r="B191">
         <v>112200</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191">
         <v>89760</v>
       </c>
       <c r="D191">
@@ -5265,14 +5264,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>221</v>
       </c>
       <c r="B192">
         <v>198400</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192">
         <v>99200</v>
       </c>
       <c r="D192">
@@ -5282,14 +5281,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>222</v>
       </c>
       <c r="B193">
         <v>136600</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193">
         <v>68300</v>
       </c>
       <c r="D193">
@@ -5299,14 +5298,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>223</v>
       </c>
       <c r="B194">
         <v>65400</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194">
         <v>39240</v>
       </c>
       <c r="D194">
@@ -5316,31 +5315,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>224</v>
       </c>
       <c r="B195">
         <v>91200</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195">
         <v>36480</v>
       </c>
       <c r="D195">
         <v>8</v>
       </c>
       <c r="E195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>35</v>
       </c>
       <c r="B196">
         <v>180600</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196">
         <v>144480</v>
       </c>
       <c r="D196">
@@ -5350,14 +5349,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>225</v>
       </c>
       <c r="B197">
         <v>164500</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197">
         <v>82250</v>
       </c>
       <c r="D197">
@@ -5367,14 +5366,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>226</v>
       </c>
       <c r="B198">
         <v>168000</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198">
         <v>134400</v>
       </c>
       <c r="D198">
@@ -5384,14 +5383,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>227</v>
       </c>
       <c r="B199">
         <v>55700</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199">
         <v>22280</v>
       </c>
       <c r="D199">
@@ -5401,14 +5400,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>228</v>
       </c>
       <c r="B200">
         <v>136100</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200">
         <v>81660</v>
       </c>
       <c r="D200">
@@ -5418,14 +5417,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>229</v>
       </c>
       <c r="B201">
         <v>82600</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201">
         <v>57820</v>
       </c>
       <c r="D201">
@@ -5435,14 +5434,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>230</v>
       </c>
       <c r="B202">
         <v>170100</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202">
         <v>102060</v>
       </c>
       <c r="D202">
@@ -5452,14 +5451,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>41</v>
       </c>
       <c r="B203">
         <v>179300</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203">
         <v>125510</v>
       </c>
       <c r="D203">
@@ -5469,14 +5468,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>231</v>
       </c>
       <c r="B204">
         <v>169600</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204">
         <v>67840</v>
       </c>
       <c r="D204">
@@ -5486,14 +5485,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>515</v>
       </c>
       <c r="B205">
         <v>69300</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205">
         <v>55440</v>
       </c>
       <c r="D205">
@@ -5503,14 +5502,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>232</v>
       </c>
       <c r="B206">
         <v>177500</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206">
         <v>124250</v>
       </c>
       <c r="D206">
@@ -5520,14 +5519,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>233</v>
       </c>
       <c r="B207">
         <v>107300</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207">
         <v>85840</v>
       </c>
       <c r="D207">
@@ -5537,14 +5536,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>234</v>
       </c>
       <c r="B208">
         <v>140400</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208">
         <v>84240</v>
       </c>
       <c r="D208">
@@ -5554,14 +5553,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>235</v>
       </c>
       <c r="B209">
         <v>57900</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209">
         <v>28950</v>
       </c>
       <c r="D209">
@@ -5571,14 +5570,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>236</v>
       </c>
       <c r="B210">
         <v>165400</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210">
         <v>82700</v>
       </c>
       <c r="D210">
@@ -5588,14 +5587,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>237</v>
       </c>
       <c r="B211">
         <v>53300</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211">
         <v>31980</v>
       </c>
       <c r="D211">
@@ -5605,14 +5604,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>238</v>
       </c>
       <c r="B212">
         <v>118300</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212">
         <v>47320</v>
       </c>
       <c r="D212">
@@ -5622,31 +5621,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>239</v>
       </c>
       <c r="B213">
         <v>120500</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213">
         <v>72300</v>
       </c>
       <c r="D213">
         <v>10</v>
       </c>
       <c r="E213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>240</v>
       </c>
       <c r="B214">
         <v>65700</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214">
         <v>32850</v>
       </c>
       <c r="D214">
@@ -5656,14 +5655,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>241</v>
       </c>
       <c r="B215">
         <v>53200</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215">
         <v>42560</v>
       </c>
       <c r="D215">
@@ -5673,14 +5672,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>516</v>
       </c>
       <c r="B216">
         <v>160700</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216">
         <v>64280</v>
       </c>
       <c r="D216">
@@ -5690,14 +5689,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>242</v>
       </c>
       <c r="B217">
         <v>181400</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217">
         <v>108840</v>
       </c>
       <c r="D217">
@@ -5707,14 +5706,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>243</v>
       </c>
       <c r="B218">
         <v>127700</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218">
         <v>89390</v>
       </c>
       <c r="D218">
@@ -5724,14 +5723,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>244</v>
       </c>
       <c r="B219">
         <v>97800</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219">
         <v>78240</v>
       </c>
       <c r="D219">
@@ -5741,14 +5740,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>49</v>
       </c>
       <c r="B220">
         <v>80600</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220">
         <v>32240</v>
       </c>
       <c r="D220">
@@ -5758,14 +5757,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>245</v>
       </c>
       <c r="B221">
         <v>133900</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221">
         <v>80340</v>
       </c>
       <c r="D221">
@@ -5775,14 +5774,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>246</v>
       </c>
       <c r="B222">
         <v>168100</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222">
         <v>84050</v>
       </c>
       <c r="D222">
@@ -5792,14 +5791,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>247</v>
       </c>
       <c r="B223">
         <v>162700</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223">
         <v>97620</v>
       </c>
       <c r="D223">
@@ -5809,31 +5808,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>248</v>
       </c>
       <c r="B224">
         <v>84100</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224">
         <v>50460</v>
       </c>
       <c r="D224">
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>5</v>
       </c>
       <c r="B225">
         <v>107200</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225">
         <v>75040</v>
       </c>
       <c r="D225">
@@ -5843,14 +5842,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>249</v>
       </c>
       <c r="B226">
         <v>129000</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226">
         <v>64500</v>
       </c>
       <c r="D226">
@@ -5860,14 +5859,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>250</v>
       </c>
       <c r="B227">
         <v>177100</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227">
         <v>106260</v>
       </c>
       <c r="D227">
@@ -5877,14 +5876,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
       <c r="B228">
         <v>172900</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228">
         <v>138320</v>
       </c>
       <c r="D228">
@@ -5894,14 +5893,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>252</v>
       </c>
       <c r="B229">
         <v>84300</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229">
         <v>67440</v>
       </c>
       <c r="D229">
@@ -5911,14 +5910,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>253</v>
       </c>
       <c r="B230">
         <v>62100</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230">
         <v>49680</v>
       </c>
       <c r="D230">
@@ -5928,14 +5927,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>254</v>
       </c>
       <c r="B231">
         <v>61700</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231">
         <v>37020</v>
       </c>
       <c r="D231">
@@ -5945,14 +5944,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>255</v>
       </c>
       <c r="B232">
         <v>124000</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232">
         <v>99200</v>
       </c>
       <c r="D232">
@@ -5962,14 +5961,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>47</v>
       </c>
       <c r="B233">
         <v>154700</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233">
         <v>92820</v>
       </c>
       <c r="D233">
@@ -5979,14 +5978,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>256</v>
       </c>
       <c r="B234">
         <v>135100</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234">
         <v>67550</v>
       </c>
       <c r="D234">
@@ -5996,14 +5995,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>257</v>
       </c>
       <c r="B235">
         <v>124200</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235">
         <v>74520</v>
       </c>
       <c r="D235">
@@ -6013,14 +6012,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>24</v>
       </c>
       <c r="B236">
         <v>105100</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236">
         <v>42040</v>
       </c>
       <c r="D236">
@@ -6030,14 +6029,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
       <c r="B237">
         <v>121000</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237">
         <v>48400</v>
       </c>
       <c r="D237">
@@ -6047,14 +6046,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>259</v>
       </c>
       <c r="B238">
         <v>115600</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238">
         <v>57800</v>
       </c>
       <c r="D238">
@@ -6064,14 +6063,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>260</v>
       </c>
       <c r="B239">
         <v>138800</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239">
         <v>69400</v>
       </c>
       <c r="D239">
@@ -6081,14 +6080,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>261</v>
       </c>
       <c r="B240">
         <v>161800</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240">
         <v>97080</v>
       </c>
       <c r="D240">
@@ -6098,14 +6097,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>262</v>
       </c>
       <c r="B241">
         <v>161300</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241">
         <v>129040</v>
       </c>
       <c r="D241">
@@ -6115,14 +6114,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>263</v>
       </c>
       <c r="B242">
         <v>141600</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242">
         <v>99120</v>
       </c>
       <c r="D242">
@@ -6132,14 +6131,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>264</v>
       </c>
       <c r="B243">
         <v>108000</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243">
         <v>75600</v>
       </c>
       <c r="D243">
@@ -6149,14 +6148,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>265</v>
       </c>
       <c r="B244">
         <v>86700</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244">
         <v>52020</v>
       </c>
       <c r="D244">
@@ -6166,14 +6165,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>11</v>
       </c>
       <c r="B245">
         <v>96700</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245">
         <v>67690</v>
       </c>
       <c r="D245">
@@ -6183,14 +6182,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>266</v>
       </c>
       <c r="B246">
         <v>166300</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246">
         <v>83150</v>
       </c>
       <c r="D246">
@@ -6200,14 +6199,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>267</v>
       </c>
       <c r="B247">
         <v>157000</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247">
         <v>94200</v>
       </c>
       <c r="D247">
@@ -6217,14 +6216,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>9</v>
       </c>
       <c r="B248">
         <v>160900</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248">
         <v>80450</v>
       </c>
       <c r="D248">
@@ -6234,14 +6233,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>268</v>
       </c>
       <c r="B249">
         <v>185200</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249">
         <v>111120</v>
       </c>
       <c r="D249">
@@ -6251,14 +6250,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>269</v>
       </c>
       <c r="B250">
         <v>101200</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250">
         <v>50600</v>
       </c>
       <c r="D250">
@@ -6268,31 +6267,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>270</v>
       </c>
       <c r="B251">
         <v>113000</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251">
         <v>90400</v>
       </c>
       <c r="D251">
         <v>4</v>
       </c>
       <c r="E251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>271</v>
       </c>
       <c r="B252">
         <v>68200</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252">
         <v>47740</v>
       </c>
       <c r="D252">
@@ -6302,14 +6301,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>272</v>
       </c>
       <c r="B253">
         <v>126300</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253">
         <v>88410</v>
       </c>
       <c r="D253">
@@ -6319,14 +6318,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>273</v>
       </c>
       <c r="B254">
         <v>60300</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254">
         <v>48240</v>
       </c>
       <c r="D254">
@@ -6336,14 +6335,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>274</v>
       </c>
       <c r="B255">
         <v>70000</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255">
         <v>49000</v>
       </c>
       <c r="D255">
@@ -6353,14 +6352,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>275</v>
       </c>
       <c r="B256">
         <v>144000</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256">
         <v>100800</v>
       </c>
       <c r="D256">
@@ -6370,14 +6369,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>276</v>
       </c>
       <c r="B257">
         <v>162000</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257">
         <v>129600</v>
       </c>
       <c r="D257">
@@ -6387,14 +6386,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>277</v>
       </c>
       <c r="B258">
         <v>134600</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258">
         <v>80760</v>
       </c>
       <c r="D258">
@@ -6404,14 +6403,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>278</v>
       </c>
       <c r="B259">
         <v>77300</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259">
         <v>61840</v>
       </c>
       <c r="D259">
@@ -6421,14 +6420,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>279</v>
       </c>
       <c r="B260">
         <v>98700</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260">
         <v>59220</v>
       </c>
       <c r="D260">
@@ -6438,14 +6437,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>280</v>
       </c>
       <c r="B261">
         <v>76100</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261">
         <v>60880</v>
       </c>
       <c r="D261">
@@ -6455,14 +6454,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>281</v>
       </c>
       <c r="B262">
         <v>185900</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262">
         <v>74360</v>
       </c>
       <c r="D262">
@@ -6472,14 +6471,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>517</v>
       </c>
       <c r="B263">
         <v>168300</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263">
         <v>117810</v>
       </c>
       <c r="D263">
@@ -6489,14 +6488,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>282</v>
       </c>
       <c r="B264">
         <v>189100</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264">
         <v>113460</v>
       </c>
       <c r="D264">
@@ -6506,14 +6505,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>283</v>
       </c>
       <c r="B265">
         <v>116900</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265">
         <v>70140</v>
       </c>
       <c r="D265">
@@ -6523,14 +6522,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>284</v>
       </c>
       <c r="B266">
         <v>161100</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266">
         <v>80550</v>
       </c>
       <c r="D266">
@@ -6540,14 +6539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>285</v>
       </c>
       <c r="B267">
         <v>110600</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267">
         <v>88480</v>
       </c>
       <c r="D267">
@@ -6557,14 +6556,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>518</v>
       </c>
       <c r="B268">
         <v>57900</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268">
         <v>46320</v>
       </c>
       <c r="D268">
@@ -6574,31 +6573,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>286</v>
       </c>
       <c r="B269">
         <v>138500</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269">
         <v>69250</v>
       </c>
       <c r="D269">
         <v>8</v>
       </c>
       <c r="E269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>287</v>
       </c>
       <c r="B270">
         <v>80400</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270">
         <v>32160</v>
       </c>
       <c r="D270">
@@ -6608,14 +6607,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>32</v>
       </c>
       <c r="B271">
         <v>172700</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271">
         <v>69080</v>
       </c>
       <c r="D271">
@@ -6625,14 +6624,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>288</v>
       </c>
       <c r="B272">
         <v>138000</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272">
         <v>96600</v>
       </c>
       <c r="D272">
@@ -6642,14 +6641,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>50</v>
       </c>
       <c r="B273">
         <v>111500</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273">
         <v>89200</v>
       </c>
       <c r="D273">
@@ -6659,14 +6658,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>26</v>
       </c>
       <c r="B274">
         <v>195800</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274">
         <v>117480</v>
       </c>
       <c r="D274">
@@ -6676,14 +6675,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>289</v>
       </c>
       <c r="B275">
         <v>119900</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275">
         <v>59950</v>
       </c>
       <c r="D275">
@@ -6693,14 +6692,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>290</v>
       </c>
       <c r="B276">
         <v>80500</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276">
         <v>56350</v>
       </c>
       <c r="D276">
@@ -6710,14 +6709,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>291</v>
       </c>
       <c r="B277">
         <v>159700</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277">
         <v>95820</v>
       </c>
       <c r="D277">
@@ -6727,14 +6726,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
       <c r="B278">
         <v>189400</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278">
         <v>94700</v>
       </c>
       <c r="D278">
@@ -6744,31 +6743,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>292</v>
       </c>
       <c r="B279">
         <v>104200</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279">
         <v>52100</v>
       </c>
       <c r="D279">
         <v>3</v>
       </c>
       <c r="E279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>293</v>
       </c>
       <c r="B280">
         <v>71300</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280">
         <v>49910</v>
       </c>
       <c r="D280">
@@ -6778,14 +6777,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>294</v>
       </c>
       <c r="B281">
         <v>72500</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281">
         <v>29000</v>
       </c>
       <c r="D281">
@@ -6795,14 +6794,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>295</v>
       </c>
       <c r="B282">
         <v>184500</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282">
         <v>73800</v>
       </c>
       <c r="D282">
@@ -6812,14 +6811,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>296</v>
       </c>
       <c r="B283">
         <v>60300</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283">
         <v>30150</v>
       </c>
       <c r="D283">
@@ -6829,14 +6828,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>297</v>
       </c>
       <c r="B284">
         <v>167300</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284">
         <v>117110</v>
       </c>
       <c r="D284">
@@ -6846,14 +6845,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>27</v>
       </c>
       <c r="B285">
         <v>70300</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285">
         <v>56240</v>
       </c>
       <c r="D285">
@@ -6863,14 +6862,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>298</v>
       </c>
       <c r="B286">
         <v>191100</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286">
         <v>76440</v>
       </c>
       <c r="D286">
@@ -6880,14 +6879,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>299</v>
       </c>
       <c r="B287">
         <v>126700</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287">
         <v>63350</v>
       </c>
       <c r="D287">
@@ -6897,14 +6896,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>300</v>
       </c>
       <c r="B288">
         <v>145900</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288">
         <v>87540</v>
       </c>
       <c r="D288">
@@ -6914,31 +6913,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>301</v>
       </c>
       <c r="B289">
         <v>89200</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289">
         <v>71360</v>
       </c>
       <c r="D289">
         <v>9</v>
       </c>
       <c r="E289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>302</v>
       </c>
       <c r="B290">
         <v>134100</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290">
         <v>107280</v>
       </c>
       <c r="D290">
@@ -6948,14 +6947,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
       <c r="B291">
         <v>180400</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291">
         <v>108240</v>
       </c>
       <c r="D291">
@@ -6965,14 +6964,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>303</v>
       </c>
       <c r="B292">
         <v>126900</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292">
         <v>101520</v>
       </c>
       <c r="D292">
@@ -6982,14 +6981,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>304</v>
       </c>
       <c r="B293">
         <v>177500</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293">
         <v>106500</v>
       </c>
       <c r="D293">
@@ -6999,14 +6998,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>305</v>
       </c>
       <c r="B294">
         <v>182000</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294">
         <v>145600</v>
       </c>
       <c r="D294">
@@ -7016,14 +7015,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>306</v>
       </c>
       <c r="B295">
         <v>61900</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295">
         <v>24760</v>
       </c>
       <c r="D295">
@@ -7033,14 +7032,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>307</v>
       </c>
       <c r="B296">
         <v>117300</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296">
         <v>93840</v>
       </c>
       <c r="D296">
@@ -7050,14 +7049,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>308</v>
       </c>
       <c r="B297">
         <v>141000</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297">
         <v>84600</v>
       </c>
       <c r="D297">
@@ -7067,14 +7066,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>309</v>
       </c>
       <c r="B298">
         <v>119700</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298">
         <v>71820</v>
       </c>
       <c r="D298">
@@ -7084,14 +7083,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>310</v>
       </c>
       <c r="B299">
         <v>135500</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299">
         <v>94850</v>
       </c>
       <c r="D299">
@@ -7101,14 +7100,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>311</v>
       </c>
       <c r="B300">
         <v>63900</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300">
         <v>51120</v>
       </c>
       <c r="D300">
@@ -7118,14 +7117,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>312</v>
       </c>
       <c r="B301">
         <v>83500</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301">
         <v>58450</v>
       </c>
       <c r="D301">
@@ -7135,14 +7134,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>313</v>
       </c>
       <c r="B302">
         <v>197600</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302">
         <v>98800</v>
       </c>
       <c r="D302">
@@ -7152,14 +7151,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>314</v>
       </c>
       <c r="B303">
         <v>127700</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303">
         <v>63850</v>
       </c>
       <c r="D303">
@@ -7169,31 +7168,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>315</v>
       </c>
       <c r="B304">
         <v>181500</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304">
         <v>127050</v>
       </c>
       <c r="D304">
         <v>10</v>
       </c>
       <c r="E304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>316</v>
       </c>
       <c r="B305">
         <v>128200</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305">
         <v>76920</v>
       </c>
       <c r="D305">
@@ -7203,14 +7202,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>317</v>
       </c>
       <c r="B306">
         <v>184700</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306">
         <v>92350</v>
       </c>
       <c r="D306">
@@ -7220,14 +7219,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>318</v>
       </c>
       <c r="B307">
         <v>63100</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307">
         <v>50480</v>
       </c>
       <c r="D307">
@@ -7237,14 +7236,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>22</v>
       </c>
       <c r="B308">
         <v>145500</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308">
         <v>72750</v>
       </c>
       <c r="D308">
@@ -7254,14 +7253,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>319</v>
       </c>
       <c r="B309">
         <v>93700</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309">
         <v>37480</v>
       </c>
       <c r="D309">
@@ -7271,14 +7270,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>320</v>
       </c>
       <c r="B310">
         <v>96600</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310">
         <v>57960</v>
       </c>
       <c r="D310">
@@ -7288,14 +7287,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>321</v>
       </c>
       <c r="B311">
         <v>160100</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311">
         <v>112070</v>
       </c>
       <c r="D311">
@@ -7305,14 +7304,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>322</v>
       </c>
       <c r="B312">
         <v>145600</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312">
         <v>87360</v>
       </c>
       <c r="D312">
@@ -7322,14 +7321,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>323</v>
       </c>
       <c r="B313">
         <v>86400</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313">
         <v>69120</v>
       </c>
       <c r="D313">
@@ -7339,14 +7338,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>324</v>
       </c>
       <c r="B314">
         <v>84900</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314">
         <v>50940</v>
       </c>
       <c r="D314">
@@ -7356,14 +7355,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>8</v>
       </c>
       <c r="B315">
         <v>118300</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315">
         <v>82810</v>
       </c>
       <c r="D315">
@@ -7373,31 +7372,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>325</v>
       </c>
       <c r="B316">
         <v>86700</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316">
         <v>69360</v>
       </c>
       <c r="D316">
         <v>10</v>
       </c>
       <c r="E316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>326</v>
       </c>
       <c r="B317">
         <v>74100</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317">
         <v>29640</v>
       </c>
       <c r="D317">
@@ -7407,14 +7406,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>327</v>
       </c>
       <c r="B318">
         <v>70600</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318">
         <v>56480</v>
       </c>
       <c r="D318">
@@ -7424,14 +7423,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>328</v>
       </c>
       <c r="B319">
         <v>125800</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319">
         <v>75480</v>
       </c>
       <c r="D319">
@@ -7441,14 +7440,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>329</v>
       </c>
       <c r="B320">
         <v>126100</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320">
         <v>75660</v>
       </c>
       <c r="D320">
@@ -7458,14 +7457,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>330</v>
       </c>
       <c r="B321">
         <v>184200</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321">
         <v>73680</v>
       </c>
       <c r="D321">
@@ -7475,14 +7474,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>331</v>
       </c>
       <c r="B322">
         <v>195400</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322">
         <v>136780</v>
       </c>
       <c r="D322">
@@ -7492,14 +7491,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>23</v>
       </c>
       <c r="B323">
         <v>68700</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323">
         <v>48090</v>
       </c>
       <c r="D323">
@@ -7509,14 +7508,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>332</v>
       </c>
       <c r="B324">
         <v>54200</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324">
         <v>27100</v>
       </c>
       <c r="D324">
@@ -7526,14 +7525,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>333</v>
       </c>
       <c r="B325">
         <v>110300</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325">
         <v>66180</v>
       </c>
       <c r="D325">
@@ -7543,14 +7542,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>334</v>
       </c>
       <c r="B326">
         <v>90700</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326">
         <v>54420</v>
       </c>
       <c r="D326">
@@ -7560,14 +7559,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>335</v>
       </c>
       <c r="B327">
         <v>181800</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327">
         <v>72720</v>
       </c>
       <c r="D327">
@@ -7577,14 +7576,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>336</v>
       </c>
       <c r="B328">
         <v>170600</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328">
         <v>85300</v>
       </c>
       <c r="D328">
@@ -7594,14 +7593,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>337</v>
       </c>
       <c r="B329">
         <v>168200</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329">
         <v>117740</v>
       </c>
       <c r="D329">
@@ -7611,14 +7610,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>338</v>
       </c>
       <c r="B330">
         <v>95900</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330">
         <v>67130</v>
       </c>
       <c r="D330">
@@ -7628,31 +7627,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>339</v>
       </c>
       <c r="B331">
         <v>76700</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331">
         <v>30680</v>
       </c>
       <c r="D331">
         <v>10</v>
       </c>
       <c r="E331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>340</v>
       </c>
       <c r="B332">
         <v>117400</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332">
         <v>82180</v>
       </c>
       <c r="D332">
@@ -7662,14 +7661,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>341</v>
       </c>
       <c r="B333">
         <v>109900</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333">
         <v>76930</v>
       </c>
       <c r="D333">
@@ -7679,14 +7678,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>342</v>
       </c>
       <c r="B334">
         <v>136600</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334">
         <v>95620</v>
       </c>
       <c r="D334">
@@ -7696,14 +7695,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>343</v>
       </c>
       <c r="B335">
         <v>98300</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335">
         <v>58980</v>
       </c>
       <c r="D335">
@@ -7713,14 +7712,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>344</v>
       </c>
       <c r="B336">
         <v>55400</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336">
         <v>27700</v>
       </c>
       <c r="D336">
@@ -7730,14 +7729,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>345</v>
       </c>
       <c r="B337">
         <v>135500</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337">
         <v>81300</v>
       </c>
       <c r="D337">
@@ -7747,14 +7746,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>346</v>
       </c>
       <c r="B338">
         <v>124200</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338">
         <v>86940</v>
       </c>
       <c r="D338">
@@ -7764,14 +7763,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>347</v>
       </c>
       <c r="B339">
         <v>77200</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339">
         <v>46320</v>
       </c>
       <c r="D339">
@@ -7781,14 +7780,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>348</v>
       </c>
       <c r="B340">
         <v>165400</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340">
         <v>82700</v>
       </c>
       <c r="D340">
@@ -7798,14 +7797,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>349</v>
       </c>
       <c r="B341">
         <v>72000</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341">
         <v>50400</v>
       </c>
       <c r="D341">
@@ -7815,14 +7814,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>350</v>
       </c>
       <c r="B342">
         <v>159600</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342">
         <v>79800</v>
       </c>
       <c r="D342">
@@ -7832,14 +7831,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>351</v>
       </c>
       <c r="B343">
         <v>148200</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343">
         <v>88920</v>
       </c>
       <c r="D343">
@@ -7849,14 +7848,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>519</v>
       </c>
       <c r="B344">
         <v>101400</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344">
         <v>81120</v>
       </c>
       <c r="D344">
@@ -7866,14 +7865,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>352</v>
       </c>
       <c r="B345">
         <v>53200</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345">
         <v>21280</v>
       </c>
       <c r="D345">
@@ -7883,14 +7882,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>353</v>
       </c>
       <c r="B346">
         <v>138800</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346">
         <v>69400</v>
       </c>
       <c r="D346">
@@ -7900,31 +7899,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>354</v>
       </c>
       <c r="B347">
         <v>78400</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347">
         <v>31360</v>
       </c>
       <c r="D347">
         <v>5</v>
       </c>
       <c r="E347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>355</v>
       </c>
       <c r="B348">
         <v>177600</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348">
         <v>106560</v>
       </c>
       <c r="D348">
@@ -7934,14 +7933,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>356</v>
       </c>
       <c r="B349">
         <v>72700</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349">
         <v>36350</v>
       </c>
       <c r="D349">
@@ -7951,14 +7950,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>357</v>
       </c>
       <c r="B350">
         <v>115500</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350">
         <v>46200</v>
       </c>
       <c r="D350">
@@ -7968,14 +7967,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>358</v>
       </c>
       <c r="B351">
         <v>76700</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351">
         <v>46020</v>
       </c>
       <c r="D351">
@@ -7985,14 +7984,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>359</v>
       </c>
       <c r="B352">
         <v>163300</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352">
         <v>130640</v>
       </c>
       <c r="D352">
@@ -8002,14 +8001,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>360</v>
       </c>
       <c r="B353">
         <v>130800</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353">
         <v>65400</v>
       </c>
       <c r="D353">
@@ -8019,14 +8018,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>361</v>
       </c>
       <c r="B354">
         <v>101400</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354">
         <v>50700</v>
       </c>
       <c r="D354">
@@ -8036,14 +8035,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>362</v>
       </c>
       <c r="B355">
         <v>174400</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355">
         <v>104640</v>
       </c>
       <c r="D355">
@@ -8053,14 +8052,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>10</v>
       </c>
       <c r="B356">
         <v>188500</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356">
         <v>150800</v>
       </c>
       <c r="D356">
@@ -8070,31 +8069,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>33</v>
       </c>
       <c r="B357">
         <v>141300</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357">
         <v>70650</v>
       </c>
       <c r="D357">
         <v>10</v>
       </c>
       <c r="E357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>363</v>
       </c>
       <c r="B358">
         <v>59400</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358">
         <v>35640</v>
       </c>
       <c r="D358">
@@ -8104,14 +8103,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>364</v>
       </c>
       <c r="B359">
         <v>110700</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359">
         <v>44280</v>
       </c>
       <c r="D359">
@@ -8121,14 +8120,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>365</v>
       </c>
       <c r="B360">
         <v>154200</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360">
         <v>92520</v>
       </c>
       <c r="D360">
@@ -8138,14 +8137,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>366</v>
       </c>
       <c r="B361">
         <v>54400</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361">
         <v>43520</v>
       </c>
       <c r="D361">
@@ -8155,14 +8154,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>367</v>
       </c>
       <c r="B362">
         <v>83500</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362">
         <v>58450</v>
       </c>
       <c r="D362">
@@ -8172,14 +8171,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>368</v>
       </c>
       <c r="B363">
         <v>163500</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363">
         <v>98100</v>
       </c>
       <c r="D363">
@@ -8189,14 +8188,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>369</v>
       </c>
       <c r="B364">
         <v>97200</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364">
         <v>58320</v>
       </c>
       <c r="D364">
@@ -8206,31 +8205,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>370</v>
       </c>
       <c r="B365">
         <v>114000</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365">
         <v>91200</v>
       </c>
       <c r="D365">
         <v>10</v>
       </c>
       <c r="E365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>18</v>
       </c>
       <c r="B366">
         <v>189400</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366">
         <v>113640</v>
       </c>
       <c r="D366">
@@ -8240,14 +8239,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>371</v>
       </c>
       <c r="B367">
         <v>87700</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367">
         <v>35080</v>
       </c>
       <c r="D367">
@@ -8257,14 +8256,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>12</v>
       </c>
       <c r="B368">
         <v>50500</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368">
         <v>20200</v>
       </c>
       <c r="D368">
@@ -8274,14 +8273,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>372</v>
       </c>
       <c r="B369">
         <v>156800</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369">
         <v>62720</v>
       </c>
       <c r="D369">
@@ -8291,31 +8290,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>373</v>
       </c>
       <c r="B370">
         <v>89700</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370">
         <v>71760</v>
       </c>
       <c r="D370">
         <v>8</v>
       </c>
       <c r="E370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>374</v>
       </c>
       <c r="B371">
         <v>139900</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371">
         <v>69950</v>
       </c>
       <c r="D371">
@@ -8325,14 +8324,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>375</v>
       </c>
       <c r="B372">
         <v>82100</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372">
         <v>41050</v>
       </c>
       <c r="D372">
@@ -8342,14 +8341,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>376</v>
       </c>
       <c r="B373">
         <v>155200</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373">
         <v>62080</v>
       </c>
       <c r="D373">
@@ -8359,14 +8358,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>13</v>
       </c>
       <c r="B374">
         <v>106700</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374">
         <v>64020</v>
       </c>
       <c r="D374">
@@ -8376,14 +8375,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>377</v>
       </c>
       <c r="B375">
         <v>81100</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375">
         <v>40550</v>
       </c>
       <c r="D375">
@@ -8393,14 +8392,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>378</v>
       </c>
       <c r="B376">
         <v>86400</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376">
         <v>43200</v>
       </c>
       <c r="D376">
@@ -8410,218 +8409,218 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>379</v>
       </c>
       <c r="B377">
         <v>95700</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377">
         <v>38280</v>
       </c>
       <c r="D377">
         <v>6</v>
       </c>
       <c r="E377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>380</v>
       </c>
       <c r="B378">
         <v>143900</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378">
         <v>57560</v>
       </c>
       <c r="D378">
         <v>4</v>
       </c>
       <c r="E378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>381</v>
       </c>
       <c r="B379">
         <v>164700</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379">
         <v>115290</v>
       </c>
       <c r="D379">
         <v>4</v>
       </c>
       <c r="E379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>382</v>
       </c>
       <c r="B380">
         <v>192700</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380">
         <v>134890</v>
       </c>
       <c r="D380">
         <v>1</v>
       </c>
       <c r="E380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>383</v>
       </c>
       <c r="B381">
         <v>115400</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381">
         <v>92320</v>
       </c>
       <c r="D381">
         <v>1</v>
       </c>
       <c r="E381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>384</v>
       </c>
       <c r="B382">
         <v>146400</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382">
         <v>87840</v>
       </c>
       <c r="D382">
         <v>10</v>
       </c>
       <c r="E382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>385</v>
       </c>
       <c r="B383">
         <v>52100</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383">
         <v>20840</v>
       </c>
       <c r="D383">
         <v>10</v>
       </c>
       <c r="E383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>386</v>
       </c>
       <c r="B384">
         <v>63200</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384">
         <v>37920</v>
       </c>
       <c r="D384">
         <v>4</v>
       </c>
       <c r="E384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>387</v>
       </c>
       <c r="B385">
         <v>148100</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385">
         <v>74050</v>
       </c>
       <c r="D385">
         <v>3</v>
       </c>
       <c r="E385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>388</v>
       </c>
       <c r="B386">
         <v>172600</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386">
         <v>103560</v>
       </c>
       <c r="D386">
         <v>4</v>
       </c>
       <c r="E386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>389</v>
       </c>
       <c r="B387">
         <v>119400</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387">
         <v>59700</v>
       </c>
       <c r="D387">
         <v>7</v>
       </c>
       <c r="E387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>390</v>
       </c>
       <c r="B388">
         <v>127800</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388">
         <v>63900</v>
       </c>
       <c r="D388">
         <v>4</v>
       </c>
       <c r="E388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>391</v>
       </c>
       <c r="B389">
         <v>90800</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389">
         <v>72640</v>
       </c>
       <c r="D389">
@@ -8631,14 +8630,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>44</v>
       </c>
       <c r="B390">
         <v>99100</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390">
         <v>49550</v>
       </c>
       <c r="D390">
@@ -8648,14 +8647,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>392</v>
       </c>
       <c r="B391">
         <v>170200</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391">
         <v>102120</v>
       </c>
       <c r="D391">
@@ -8665,14 +8664,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>393</v>
       </c>
       <c r="B392">
         <v>186700</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392">
         <v>74680</v>
       </c>
       <c r="D392">
@@ -8682,14 +8681,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>394</v>
       </c>
       <c r="B393">
         <v>156200</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393">
         <v>93720</v>
       </c>
       <c r="D393">
@@ -8699,14 +8698,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>51</v>
       </c>
       <c r="B394">
         <v>192000</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394">
         <v>76800</v>
       </c>
       <c r="D394">
@@ -8716,14 +8715,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>395</v>
       </c>
       <c r="B395">
         <v>172400</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395">
         <v>137920</v>
       </c>
       <c r="D395">
@@ -8733,14 +8732,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>396</v>
       </c>
       <c r="B396">
         <v>113100</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396">
         <v>79170</v>
       </c>
       <c r="D396">
@@ -8750,14 +8749,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>397</v>
       </c>
       <c r="B397">
         <v>83300</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397">
         <v>66640</v>
       </c>
       <c r="D397">
@@ -8767,14 +8766,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
       <c r="B398">
         <v>109900</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398">
         <v>43960</v>
       </c>
       <c r="D398">
@@ -8784,14 +8783,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>399</v>
       </c>
       <c r="B399">
         <v>154200</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399">
         <v>77100</v>
       </c>
       <c r="D399">
@@ -8801,14 +8800,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>400</v>
       </c>
       <c r="B400">
         <v>76900</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400">
         <v>61520</v>
       </c>
       <c r="D400">
@@ -8818,14 +8817,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>401</v>
       </c>
       <c r="B401">
         <v>184500</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401">
         <v>110700</v>
       </c>
       <c r="D401">
@@ -8835,14 +8834,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>402</v>
       </c>
       <c r="B402">
         <v>176800</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402">
         <v>70720</v>
       </c>
       <c r="D402">
@@ -8852,14 +8851,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>403</v>
       </c>
       <c r="B403">
         <v>91200</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403">
         <v>54720</v>
       </c>
       <c r="D403">
@@ -8869,14 +8868,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>404</v>
       </c>
       <c r="B404">
         <v>172800</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404">
         <v>86400</v>
       </c>
       <c r="D404">
@@ -8886,898 +8885,898 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>405</v>
       </c>
       <c r="B405">
         <v>99400</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405">
         <v>79520</v>
       </c>
       <c r="D405">
         <v>9</v>
       </c>
       <c r="E405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>14</v>
       </c>
       <c r="B406">
         <v>194100</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406">
         <v>77640</v>
       </c>
       <c r="D406">
         <v>8</v>
       </c>
       <c r="E406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
       <c r="B407">
         <v>196700</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407">
         <v>98350</v>
       </c>
       <c r="D407">
         <v>1</v>
       </c>
       <c r="E407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>39</v>
       </c>
       <c r="B408">
         <v>134100</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408">
         <v>93870</v>
       </c>
       <c r="D408">
         <v>6</v>
       </c>
       <c r="E408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>407</v>
       </c>
       <c r="B409">
         <v>96100</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409">
         <v>57660</v>
       </c>
       <c r="D409">
         <v>8</v>
       </c>
       <c r="E409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>408</v>
       </c>
       <c r="B410">
         <v>186900</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410">
         <v>130830</v>
       </c>
       <c r="D410">
         <v>5</v>
       </c>
       <c r="E410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>409</v>
       </c>
       <c r="B411">
         <v>171900</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411">
         <v>103140</v>
       </c>
       <c r="D411">
         <v>6</v>
       </c>
       <c r="E411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>410</v>
       </c>
       <c r="B412">
         <v>138700</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412">
         <v>55480</v>
       </c>
       <c r="D412">
         <v>9</v>
       </c>
       <c r="E412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>411</v>
       </c>
       <c r="B413">
         <v>167700</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413">
         <v>134160</v>
       </c>
       <c r="D413">
         <v>5</v>
       </c>
       <c r="E413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>412</v>
       </c>
       <c r="B414">
         <v>87000</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414">
         <v>34800</v>
       </c>
       <c r="D414">
         <v>1</v>
       </c>
       <c r="E414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>413</v>
       </c>
       <c r="B415">
         <v>113900</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415">
         <v>68340</v>
       </c>
       <c r="D415">
         <v>1</v>
       </c>
       <c r="E415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>414</v>
       </c>
       <c r="B416">
         <v>76300</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416">
         <v>61040</v>
       </c>
       <c r="D416">
         <v>8</v>
       </c>
       <c r="E416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>415</v>
       </c>
       <c r="B417">
         <v>145800</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417">
         <v>116640</v>
       </c>
       <c r="D417">
         <v>8</v>
       </c>
       <c r="E417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>416</v>
       </c>
       <c r="B418">
         <v>98400</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418">
         <v>39360</v>
       </c>
       <c r="D418">
         <v>2</v>
       </c>
       <c r="E418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>417</v>
       </c>
       <c r="B419">
         <v>66300</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419">
         <v>46410</v>
       </c>
       <c r="D419">
         <v>8</v>
       </c>
       <c r="E419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>418</v>
       </c>
       <c r="B420">
         <v>170900</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420">
         <v>85450</v>
       </c>
       <c r="D420">
         <v>8</v>
       </c>
       <c r="E420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>419</v>
       </c>
       <c r="B421">
         <v>75400</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421">
         <v>30160</v>
       </c>
       <c r="D421">
         <v>8</v>
       </c>
       <c r="E421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>420</v>
       </c>
       <c r="B422">
         <v>131500</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422">
         <v>65750</v>
       </c>
       <c r="D422">
         <v>9</v>
       </c>
       <c r="E422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>421</v>
       </c>
       <c r="B423">
         <v>132000</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423">
         <v>92400</v>
       </c>
       <c r="D423">
         <v>5</v>
       </c>
       <c r="E423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>422</v>
       </c>
       <c r="B424">
         <v>73300</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424">
         <v>29320</v>
       </c>
       <c r="D424">
         <v>6</v>
       </c>
       <c r="E424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>423</v>
       </c>
       <c r="B425">
         <v>129800</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425">
         <v>64900</v>
       </c>
       <c r="D425">
         <v>5</v>
       </c>
       <c r="E425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>424</v>
       </c>
       <c r="B426">
         <v>131500</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426">
         <v>105200</v>
       </c>
       <c r="D426">
         <v>7</v>
       </c>
       <c r="E426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>520</v>
       </c>
       <c r="B427">
         <v>125600</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427">
         <v>100480</v>
       </c>
       <c r="D427">
         <v>5</v>
       </c>
       <c r="E427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>425</v>
       </c>
       <c r="B428">
         <v>184000</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428">
         <v>147200</v>
       </c>
       <c r="D428">
         <v>5</v>
       </c>
       <c r="E428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>426</v>
       </c>
       <c r="B429">
         <v>97000</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429">
         <v>58200</v>
       </c>
       <c r="D429">
         <v>4</v>
       </c>
       <c r="E429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>427</v>
       </c>
       <c r="B430">
         <v>199100</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430">
         <v>139370</v>
       </c>
       <c r="D430">
         <v>1</v>
       </c>
       <c r="E430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>428</v>
       </c>
       <c r="B431">
         <v>167700</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431">
         <v>100620</v>
       </c>
       <c r="D431">
         <v>5</v>
       </c>
       <c r="E431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>429</v>
       </c>
       <c r="B432">
         <v>121000</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432">
         <v>96800</v>
       </c>
       <c r="D432">
         <v>5</v>
       </c>
       <c r="E432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>521</v>
       </c>
       <c r="B433">
         <v>70800</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433">
         <v>56640</v>
       </c>
       <c r="D433">
         <v>2</v>
       </c>
       <c r="E433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>430</v>
       </c>
       <c r="B434">
         <v>133400</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434">
         <v>53360</v>
       </c>
       <c r="D434">
         <v>3</v>
       </c>
       <c r="E434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>431</v>
       </c>
       <c r="B435">
         <v>119100</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435">
         <v>95280</v>
       </c>
       <c r="D435">
         <v>9</v>
       </c>
       <c r="E435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>432</v>
       </c>
       <c r="B436">
         <v>73600</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436">
         <v>51520</v>
       </c>
       <c r="D436">
         <v>8</v>
       </c>
       <c r="E436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>433</v>
       </c>
       <c r="B437">
         <v>72700</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437">
         <v>36350</v>
       </c>
       <c r="D437">
         <v>2</v>
       </c>
       <c r="E437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>434</v>
       </c>
       <c r="B438">
         <v>189900</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438">
         <v>151920</v>
       </c>
       <c r="D438">
         <v>3</v>
       </c>
       <c r="E438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>435</v>
       </c>
       <c r="B439">
         <v>59000</v>
       </c>
-      <c r="C439" s="4">
+      <c r="C439">
         <v>47200</v>
       </c>
       <c r="D439">
         <v>7</v>
       </c>
       <c r="E439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>29</v>
       </c>
       <c r="B440">
         <v>52800</v>
       </c>
-      <c r="C440" s="4">
+      <c r="C440">
         <v>26400</v>
       </c>
       <c r="D440">
         <v>4</v>
       </c>
       <c r="E440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>436</v>
       </c>
       <c r="B441">
         <v>175500</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441">
         <v>140400</v>
       </c>
       <c r="D441">
         <v>10</v>
       </c>
       <c r="E441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>437</v>
       </c>
       <c r="B442">
         <v>62300</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442">
         <v>24920</v>
       </c>
       <c r="D442">
         <v>6</v>
       </c>
       <c r="E442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>438</v>
       </c>
       <c r="B443">
         <v>165000</v>
       </c>
-      <c r="C443" s="4">
+      <c r="C443">
         <v>66000</v>
       </c>
       <c r="D443">
         <v>9</v>
       </c>
       <c r="E443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>439</v>
       </c>
       <c r="B444">
         <v>51200</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444">
         <v>20480</v>
       </c>
       <c r="D444">
         <v>2</v>
       </c>
       <c r="E444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>440</v>
       </c>
       <c r="B445">
         <v>172600</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445">
         <v>120820</v>
       </c>
       <c r="D445">
         <v>1</v>
       </c>
       <c r="E445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>15</v>
       </c>
       <c r="B446">
         <v>195000</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446">
         <v>97500</v>
       </c>
       <c r="D446">
         <v>9</v>
       </c>
       <c r="E446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>441</v>
       </c>
       <c r="B447">
         <v>110900</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447">
         <v>77630</v>
       </c>
       <c r="D447">
         <v>3</v>
       </c>
       <c r="E447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>442</v>
       </c>
       <c r="B448">
         <v>160300</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448">
         <v>128240</v>
       </c>
       <c r="D448">
         <v>5</v>
       </c>
       <c r="E448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>443</v>
       </c>
       <c r="B449">
         <v>168600</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449">
         <v>118020</v>
       </c>
       <c r="D449">
         <v>10</v>
       </c>
       <c r="E449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>444</v>
       </c>
       <c r="B450">
         <v>69900</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450">
         <v>48930</v>
       </c>
       <c r="D450">
         <v>6</v>
       </c>
       <c r="E450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>445</v>
       </c>
       <c r="B451">
         <v>101400</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451">
         <v>50700</v>
       </c>
       <c r="D451">
         <v>10</v>
       </c>
       <c r="E451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>446</v>
       </c>
       <c r="B452">
         <v>126700</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452">
         <v>101360</v>
       </c>
       <c r="D452">
         <v>7</v>
       </c>
       <c r="E452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>447</v>
       </c>
       <c r="B453">
         <v>89700</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453">
         <v>35880</v>
       </c>
       <c r="D453">
         <v>7</v>
       </c>
       <c r="E453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>448</v>
       </c>
       <c r="B454">
         <v>84400</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454">
         <v>33760</v>
       </c>
       <c r="D454">
         <v>6</v>
       </c>
       <c r="E454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>449</v>
       </c>
       <c r="B455">
         <v>196800</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455">
         <v>137760</v>
       </c>
       <c r="D455">
         <v>5</v>
       </c>
       <c r="E455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>450</v>
       </c>
       <c r="B456">
         <v>135000</v>
       </c>
-      <c r="C456" s="4">
+      <c r="C456">
         <v>108000</v>
       </c>
       <c r="D456">
         <v>5</v>
       </c>
       <c r="E456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>451</v>
       </c>
       <c r="B457">
         <v>61800</v>
       </c>
-      <c r="C457" s="4">
+      <c r="C457">
         <v>24720</v>
       </c>
       <c r="D457">
@@ -9787,14 +9786,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>19</v>
       </c>
       <c r="B458">
         <v>109800</v>
       </c>
-      <c r="C458" s="4">
+      <c r="C458">
         <v>76860</v>
       </c>
       <c r="D458">
@@ -9804,14 +9803,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>452</v>
       </c>
       <c r="B459">
         <v>80800</v>
       </c>
-      <c r="C459" s="4">
+      <c r="C459">
         <v>64640</v>
       </c>
       <c r="D459">
@@ -9821,14 +9820,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>453</v>
       </c>
       <c r="B460">
         <v>52300</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C460">
         <v>26150</v>
       </c>
       <c r="D460">
@@ -9838,14 +9837,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>454</v>
       </c>
       <c r="B461">
         <v>81300</v>
       </c>
-      <c r="C461" s="4">
+      <c r="C461">
         <v>56910</v>
       </c>
       <c r="D461">
@@ -9855,14 +9854,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>455</v>
       </c>
       <c r="B462">
         <v>58100</v>
       </c>
-      <c r="C462" s="4">
+      <c r="C462">
         <v>29050</v>
       </c>
       <c r="D462">
@@ -9872,14 +9871,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>456</v>
       </c>
       <c r="B463">
         <v>127600</v>
       </c>
-      <c r="C463" s="4">
+      <c r="C463">
         <v>102080</v>
       </c>
       <c r="D463">
@@ -9889,1041 +9888,1041 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>457</v>
       </c>
       <c r="B464">
         <v>179800</v>
       </c>
-      <c r="C464" s="4">
+      <c r="C464">
         <v>143840</v>
       </c>
       <c r="D464">
         <v>10</v>
       </c>
       <c r="E464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>458</v>
       </c>
       <c r="B465">
         <v>181000</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C465">
         <v>144800</v>
       </c>
       <c r="D465">
         <v>4</v>
       </c>
       <c r="E465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>459</v>
       </c>
       <c r="B466">
         <v>107800</v>
       </c>
-      <c r="C466" s="4">
+      <c r="C466">
         <v>64680</v>
       </c>
       <c r="D466">
         <v>6</v>
       </c>
       <c r="E466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>460</v>
       </c>
       <c r="B467">
         <v>84200</v>
       </c>
-      <c r="C467" s="4">
+      <c r="C467">
         <v>42100</v>
       </c>
       <c r="D467">
         <v>10</v>
       </c>
       <c r="E467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>461</v>
       </c>
       <c r="B468">
         <v>199500</v>
       </c>
-      <c r="C468" s="4">
+      <c r="C468">
         <v>99750</v>
       </c>
       <c r="D468">
         <v>4</v>
       </c>
       <c r="E468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>462</v>
       </c>
       <c r="B469">
         <v>177500</v>
       </c>
-      <c r="C469" s="4">
+      <c r="C469">
         <v>142000</v>
       </c>
       <c r="D469">
         <v>7</v>
       </c>
       <c r="E469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>463</v>
       </c>
       <c r="B470">
         <v>198900</v>
       </c>
-      <c r="C470" s="4">
+      <c r="C470">
         <v>119340</v>
       </c>
       <c r="D470">
         <v>6</v>
       </c>
       <c r="E470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>464</v>
       </c>
       <c r="B471">
         <v>90600</v>
       </c>
-      <c r="C471" s="4">
+      <c r="C471">
         <v>54360</v>
       </c>
       <c r="D471">
         <v>9</v>
       </c>
       <c r="E471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>465</v>
       </c>
       <c r="B472">
         <v>156700</v>
       </c>
-      <c r="C472" s="4">
+      <c r="C472">
         <v>109690</v>
       </c>
       <c r="D472">
         <v>4</v>
       </c>
       <c r="E472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>43</v>
       </c>
       <c r="B473">
         <v>146000</v>
       </c>
-      <c r="C473" s="4">
+      <c r="C473">
         <v>87600</v>
       </c>
       <c r="D473">
         <v>7</v>
       </c>
       <c r="E473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>522</v>
       </c>
       <c r="B474">
         <v>68500</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C474">
         <v>47950</v>
       </c>
       <c r="D474">
         <v>10</v>
       </c>
       <c r="E474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>466</v>
       </c>
       <c r="B475">
         <v>152300</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C475">
         <v>106610</v>
       </c>
       <c r="D475">
         <v>2</v>
       </c>
       <c r="E475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>467</v>
       </c>
       <c r="B476">
         <v>144900</v>
       </c>
-      <c r="C476" s="4">
+      <c r="C476">
         <v>72450</v>
       </c>
       <c r="D476">
         <v>7</v>
       </c>
       <c r="E476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>16</v>
       </c>
       <c r="B477">
         <v>175200</v>
       </c>
-      <c r="C477" s="4">
+      <c r="C477">
         <v>140160</v>
       </c>
       <c r="D477">
         <v>3</v>
       </c>
       <c r="E477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>468</v>
       </c>
       <c r="B478">
         <v>166400</v>
       </c>
-      <c r="C478" s="4">
+      <c r="C478">
         <v>133120</v>
       </c>
       <c r="D478">
         <v>5</v>
       </c>
       <c r="E478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>45</v>
       </c>
       <c r="B479">
         <v>183500</v>
       </c>
-      <c r="C479" s="4">
+      <c r="C479">
         <v>73400</v>
       </c>
       <c r="D479">
         <v>8</v>
       </c>
       <c r="E479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>469</v>
       </c>
       <c r="B480">
         <v>123200</v>
       </c>
-      <c r="C480" s="4">
+      <c r="C480">
         <v>49280</v>
       </c>
       <c r="D480">
         <v>9</v>
       </c>
       <c r="E480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>470</v>
       </c>
       <c r="B481">
         <v>179100</v>
       </c>
-      <c r="C481" s="4">
+      <c r="C481">
         <v>107460</v>
       </c>
       <c r="D481">
         <v>4</v>
       </c>
       <c r="E481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>471</v>
       </c>
       <c r="B482">
         <v>103000</v>
       </c>
-      <c r="C482" s="4">
+      <c r="C482">
         <v>61800</v>
       </c>
       <c r="D482">
         <v>6</v>
       </c>
       <c r="E482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>472</v>
       </c>
       <c r="B483">
         <v>117700</v>
       </c>
-      <c r="C483" s="4">
+      <c r="C483">
         <v>70620</v>
       </c>
       <c r="D483">
         <v>6</v>
       </c>
       <c r="E483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>473</v>
       </c>
       <c r="B484">
         <v>98700</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484">
         <v>59220</v>
       </c>
       <c r="D484">
         <v>7</v>
       </c>
       <c r="E484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>474</v>
       </c>
       <c r="B485">
         <v>114400</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485">
         <v>91520</v>
       </c>
       <c r="D485">
         <v>6</v>
       </c>
       <c r="E485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>475</v>
       </c>
       <c r="B486">
         <v>52500</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486">
         <v>42000</v>
       </c>
       <c r="D486">
         <v>3</v>
       </c>
       <c r="E486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>476</v>
       </c>
       <c r="B487">
         <v>57500</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487">
         <v>23000</v>
       </c>
       <c r="D487">
         <v>10</v>
       </c>
       <c r="E487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>477</v>
       </c>
       <c r="B488">
         <v>181400</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488">
         <v>90700</v>
       </c>
       <c r="D488">
         <v>10</v>
       </c>
       <c r="E488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>478</v>
       </c>
       <c r="B489">
         <v>180600</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489">
         <v>90300</v>
       </c>
       <c r="D489">
         <v>5</v>
       </c>
       <c r="E489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>479</v>
       </c>
       <c r="B490">
         <v>178700</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490">
         <v>125090</v>
       </c>
       <c r="D490">
         <v>10</v>
       </c>
       <c r="E490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>480</v>
       </c>
       <c r="B491">
         <v>158100</v>
       </c>
-      <c r="C491" s="4">
+      <c r="C491">
         <v>110670</v>
       </c>
       <c r="D491">
         <v>9</v>
       </c>
       <c r="E491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>481</v>
       </c>
       <c r="B492">
         <v>95700</v>
       </c>
-      <c r="C492" s="4">
+      <c r="C492">
         <v>76560</v>
       </c>
       <c r="D492">
         <v>3</v>
       </c>
       <c r="E492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>482</v>
       </c>
       <c r="B493">
         <v>199800</v>
       </c>
-      <c r="C493" s="4">
+      <c r="C493">
         <v>119880</v>
       </c>
       <c r="D493">
         <v>6</v>
       </c>
       <c r="E493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>483</v>
       </c>
       <c r="B494">
         <v>134400</v>
       </c>
-      <c r="C494" s="4">
+      <c r="C494">
         <v>107520</v>
       </c>
       <c r="D494">
         <v>10</v>
       </c>
       <c r="E494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>484</v>
       </c>
       <c r="B495">
         <v>154700</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495">
         <v>123760</v>
       </c>
       <c r="D495">
         <v>8</v>
       </c>
       <c r="E495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>485</v>
       </c>
       <c r="B496">
         <v>122000</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496">
         <v>97600</v>
       </c>
       <c r="D496">
         <v>3</v>
       </c>
       <c r="E496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>486</v>
       </c>
       <c r="B497">
         <v>126300</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497">
         <v>88410</v>
       </c>
       <c r="D497">
         <v>6</v>
       </c>
       <c r="E497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>487</v>
       </c>
       <c r="B498">
         <v>75300</v>
       </c>
-      <c r="C498" s="4">
+      <c r="C498">
         <v>45180</v>
       </c>
       <c r="D498">
         <v>10</v>
       </c>
       <c r="E498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>488</v>
       </c>
       <c r="B499">
         <v>101300</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C499">
         <v>60780</v>
       </c>
       <c r="D499">
         <v>3</v>
       </c>
       <c r="E499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>489</v>
       </c>
       <c r="B500">
         <v>144600</v>
       </c>
-      <c r="C500" s="4">
+      <c r="C500">
         <v>86760</v>
       </c>
       <c r="D500">
         <v>8</v>
       </c>
       <c r="E500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>490</v>
       </c>
       <c r="B501">
         <v>136600</v>
       </c>
-      <c r="C501" s="4">
+      <c r="C501">
         <v>68300</v>
       </c>
       <c r="D501">
         <v>5</v>
       </c>
       <c r="E501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>523</v>
       </c>
       <c r="B502">
         <v>142300</v>
       </c>
-      <c r="C502" s="4">
+      <c r="C502">
         <v>85380</v>
       </c>
       <c r="D502">
         <v>8</v>
       </c>
       <c r="E502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>17</v>
       </c>
       <c r="B503">
         <v>121100</v>
       </c>
-      <c r="C503" s="4">
+      <c r="C503">
         <v>48440</v>
       </c>
       <c r="D503">
         <v>7</v>
       </c>
       <c r="E503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>491</v>
       </c>
       <c r="B504">
         <v>172600</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504">
         <v>138080</v>
       </c>
       <c r="D504">
         <v>10</v>
       </c>
       <c r="E504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>492</v>
       </c>
       <c r="B505">
         <v>159500</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505">
         <v>63800</v>
       </c>
       <c r="D505">
         <v>6</v>
       </c>
       <c r="E505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>493</v>
       </c>
       <c r="B506">
         <v>147100</v>
       </c>
-      <c r="C506" s="4">
+      <c r="C506">
         <v>102970</v>
       </c>
       <c r="D506">
         <v>1</v>
       </c>
       <c r="E506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>494</v>
       </c>
       <c r="B507">
         <v>100700</v>
       </c>
-      <c r="C507" s="4">
+      <c r="C507">
         <v>50350</v>
       </c>
       <c r="D507">
         <v>4</v>
       </c>
       <c r="E507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>495</v>
       </c>
       <c r="B508">
         <v>112000</v>
       </c>
-      <c r="C508" s="4">
+      <c r="C508">
         <v>67200</v>
       </c>
       <c r="D508">
         <v>9</v>
       </c>
       <c r="E508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>496</v>
       </c>
       <c r="B509">
         <v>198400</v>
       </c>
-      <c r="C509" s="4">
+      <c r="C509">
         <v>79360</v>
       </c>
       <c r="D509">
         <v>1</v>
       </c>
       <c r="E509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>497</v>
       </c>
       <c r="B510">
         <v>68000</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C510">
         <v>54400</v>
       </c>
       <c r="D510">
         <v>7</v>
       </c>
       <c r="E510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>498</v>
       </c>
       <c r="B511">
         <v>181900</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511">
         <v>145520</v>
       </c>
       <c r="D511">
         <v>3</v>
       </c>
       <c r="E511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>499</v>
       </c>
       <c r="B512">
         <v>194700</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512">
         <v>116820</v>
       </c>
       <c r="D512">
         <v>9</v>
       </c>
       <c r="E512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>34</v>
       </c>
       <c r="B513">
         <v>136900</v>
       </c>
-      <c r="C513" s="4">
+      <c r="C513">
         <v>82140</v>
       </c>
       <c r="D513">
         <v>1</v>
       </c>
       <c r="E513">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>25</v>
       </c>
       <c r="B514">
         <v>150600</v>
       </c>
-      <c r="C514" s="4">
+      <c r="C514">
         <v>60240</v>
       </c>
       <c r="D514">
         <v>10</v>
       </c>
       <c r="E514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>500</v>
       </c>
       <c r="B515">
         <v>76200</v>
       </c>
-      <c r="C515" s="4">
+      <c r="C515">
         <v>53340</v>
       </c>
       <c r="D515">
         <v>4</v>
       </c>
       <c r="E515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>501</v>
       </c>
       <c r="B516">
         <v>175300</v>
       </c>
-      <c r="C516" s="4">
+      <c r="C516">
         <v>122710</v>
       </c>
       <c r="D516">
         <v>1</v>
       </c>
       <c r="E516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>502</v>
       </c>
       <c r="B517">
         <v>102400</v>
       </c>
-      <c r="C517" s="4">
+      <c r="C517">
         <v>81920</v>
       </c>
       <c r="D517">
         <v>1</v>
       </c>
       <c r="E517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>503</v>
       </c>
       <c r="B518">
         <v>60000</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C518">
         <v>30000</v>
       </c>
       <c r="D518">
         <v>4</v>
       </c>
       <c r="E518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>504</v>
       </c>
       <c r="B519">
         <v>103400</v>
       </c>
-      <c r="C519" s="4">
+      <c r="C519">
         <v>72380</v>
       </c>
       <c r="D519">
         <v>6</v>
       </c>
       <c r="E519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>505</v>
       </c>
       <c r="B520">
         <v>93300</v>
       </c>
-      <c r="C520" s="4">
+      <c r="C520">
         <v>65310</v>
       </c>
       <c r="D520">
         <v>1</v>
       </c>
       <c r="E520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>506</v>
       </c>
       <c r="B521">
         <v>126200</v>
       </c>
-      <c r="C521" s="4">
+      <c r="C521">
         <v>75720</v>
       </c>
       <c r="D521">
         <v>5</v>
       </c>
       <c r="E521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>507</v>
       </c>
       <c r="B522">
         <v>197000</v>
       </c>
-      <c r="C522" s="4">
+      <c r="C522">
         <v>118200</v>
       </c>
       <c r="D522">
         <v>3</v>
       </c>
       <c r="E522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>508</v>
       </c>
       <c r="B523">
         <v>187000</v>
       </c>
-      <c r="C523" s="4">
+      <c r="C523">
         <v>149600</v>
       </c>
       <c r="D523">
         <v>9</v>
       </c>
       <c r="E523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>509</v>
       </c>
       <c r="B524">
         <v>169300</v>
       </c>
-      <c r="C524" s="4">
+      <c r="C524">
         <v>135440</v>
       </c>
       <c r="D524">
         <v>9</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
+++ b/veterinaria/src/main/resources/static/Archivos/MEDICAMENTOS_VETERINARIA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\web\veterinaria\src\main\resources\static\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f54372214df82fd/Escritorio/web/Web_Desarrollo/veterinaria/src/main/resources/static/Archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA6B14-8397-4766-9EDE-64AAE4FC63F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{268FCE08-8739-4591-A345-328A74DEFD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912283B1-2D43-4F33-9B85-2804AA192FFD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICAMENTOS BD FINAL" sheetId="10" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1722,6 +1722,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ESVAC OK" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2003,21 +2004,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22169EE9-4596-4307-A7B5-C6523647A88D}">
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="E457" sqref="E457"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2047,11 +2048,11 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2101,8 +2102,9 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>510</v>
       </c>
@@ -2170,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2238,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2456,10 +2458,10 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>511</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2714,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -2799,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2813,10 +2815,10 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -2986,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -3017,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -3088,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -3102,10 +3104,10 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -3428,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -3462,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -3496,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -3564,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -3663,10 +3665,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -3683,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>143</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -3802,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -3836,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>154</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>155</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>156</v>
       </c>
@@ -3938,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>157</v>
       </c>
@@ -3969,10 +3971,10 @@
         <v>6</v>
       </c>
       <c r="E115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>158</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>159</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>160</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>162</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>163</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -4108,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>166</v>
       </c>
@@ -4142,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>167</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>169</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>0</v>
       </c>
@@ -4210,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>36</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -4241,10 +4243,10 @@
         <v>9</v>
       </c>
       <c r="E131">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -4261,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>512</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>172</v>
       </c>
@@ -4295,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>30</v>
       </c>
@@ -4312,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>174</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>175</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>176</v>
       </c>
@@ -4380,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>177</v>
       </c>
@@ -4397,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>178</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -4448,7 +4450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -4465,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>181</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>182</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>183</v>
       </c>
@@ -4516,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -4530,10 +4532,10 @@
         <v>5</v>
       </c>
       <c r="E148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>185</v>
       </c>
@@ -4567,7 +4569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>186</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>187</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>188</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>189</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>190</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>191</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>192</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>193</v>
       </c>
@@ -4703,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -4720,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>195</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>196</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>197</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>42</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>198</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>199</v>
       </c>
@@ -4819,10 +4821,10 @@
         <v>4</v>
       </c>
       <c r="E165">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>200</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>201</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>203</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>204</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>205</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>206</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>207</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>208</v>
       </c>
@@ -4975,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>209</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>211</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>212</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>213</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>513</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>214</v>
       </c>
@@ -5094,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>215</v>
       </c>
@@ -5108,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="E182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>216</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>217</v>
       </c>
@@ -5162,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>514</v>
       </c>
@@ -5179,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>218</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>219</v>
       </c>
@@ -5230,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>220</v>
       </c>
@@ -5247,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -5264,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>222</v>
       </c>
@@ -5298,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>223</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>224</v>
       </c>
@@ -5329,10 +5331,10 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>35</v>
       </c>
@@ -5349,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>225</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>226</v>
       </c>
@@ -5383,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>227</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>228</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>229</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -5468,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>231</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>515</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -5536,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>235</v>
       </c>
@@ -5570,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>236</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -5635,10 +5637,10 @@
         <v>10</v>
       </c>
       <c r="E213">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>516</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>242</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>243</v>
       </c>
@@ -5723,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>244</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>49</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>245</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>246</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>247</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>248</v>
       </c>
@@ -5822,10 +5824,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>249</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>250</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -5893,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>252</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>253</v>
       </c>
@@ -5927,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -5944,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>255</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>47</v>
       </c>
@@ -5978,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>256</v>
       </c>
@@ -5995,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>257</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>24</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -6046,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>259</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>260</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>261</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>263</v>
       </c>
@@ -6131,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>264</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>265</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>266</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>267</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>268</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>269</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -6281,10 +6283,10 @@
         <v>4</v>
       </c>
       <c r="E251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>271</v>
       </c>
@@ -6301,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>272</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>273</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>274</v>
       </c>
@@ -6352,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>275</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>276</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>277</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>278</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>279</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>280</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>281</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>517</v>
       </c>
@@ -6488,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>282</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>283</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>284</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>285</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>518</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>286</v>
       </c>
@@ -6587,10 +6589,10 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>287</v>
       </c>
@@ -6607,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>32</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -6641,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>50</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>26</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>289</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>290</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>291</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>292</v>
       </c>
@@ -6757,10 +6759,10 @@
         <v>3</v>
       </c>
       <c r="E279">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -6777,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>294</v>
       </c>
@@ -6794,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>295</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>27</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>298</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>299</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>300</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>301</v>
       </c>
@@ -6927,10 +6929,10 @@
         <v>9</v>
       </c>
       <c r="E289">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>302</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>303</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>304</v>
       </c>
@@ -6998,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>305</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>306</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>307</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>308</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>309</v>
       </c>
@@ -7083,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>310</v>
       </c>
@@ -7100,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>311</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>312</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>313</v>
       </c>
@@ -7151,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -7168,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>315</v>
       </c>
@@ -7182,10 +7184,10 @@
         <v>10</v>
       </c>
       <c r="E304">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>316</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>317</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>318</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>22</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>319</v>
       </c>
@@ -7270,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>321</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>322</v>
       </c>
@@ -7321,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -7338,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>324</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>325</v>
       </c>
@@ -7386,10 +7388,10 @@
         <v>10</v>
       </c>
       <c r="E316">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>326</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>327</v>
       </c>
@@ -7423,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>328</v>
       </c>
@@ -7440,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>329</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>330</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>331</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>23</v>
       </c>
@@ -7508,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>332</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>333</v>
       </c>
@@ -7542,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>334</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>335</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>336</v>
       </c>
@@ -7593,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>337</v>
       </c>
@@ -7610,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>338</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>339</v>
       </c>
@@ -7641,10 +7643,10 @@
         <v>10</v>
       </c>
       <c r="E331">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>340</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>341</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>342</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>343</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>344</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>345</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>346</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>347</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>348</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>349</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>350</v>
       </c>
@@ -7831,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>351</v>
       </c>
@@ -7848,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>519</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>352</v>
       </c>
@@ -7882,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>353</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>354</v>
       </c>
@@ -7913,10 +7915,10 @@
         <v>5</v>
       </c>
       <c r="E347">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>355</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>356</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>357</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>358</v>
       </c>
@@ -7984,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>359</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>360</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>361</v>
       </c>
@@ -8035,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>362</v>
       </c>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>10</v>
       </c>
@@ -8069,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>33</v>
       </c>
@@ -8083,10 +8085,10 @@
         <v>10</v>
       </c>
       <c r="E357">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>363</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>364</v>
       </c>
@@ -8120,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>365</v>
       </c>
@@ -8137,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>366</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>367</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>368</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>369</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>370</v>
       </c>
@@ -8219,10 +8221,10 @@
         <v>10</v>
       </c>
       <c r="E365">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>18</v>
       </c>
@@ -8239,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>371</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>12</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>372</v>
       </c>
@@ -8290,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -8304,10 +8306,10 @@
         <v>8</v>
       </c>
       <c r="E370">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -8324,7 +8326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -8375,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -8392,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -8423,10 +8425,10 @@
         <v>6</v>
       </c>
       <c r="E377">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -8440,10 +8442,10 @@
         <v>4</v>
       </c>
       <c r="E378">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -8457,10 +8459,10 @@
         <v>4</v>
       </c>
       <c r="E379">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -8474,10 +8476,10 @@
         <v>1</v>
       </c>
       <c r="E380">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -8491,10 +8493,10 @@
         <v>1</v>
       </c>
       <c r="E381">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -8508,10 +8510,10 @@
         <v>10</v>
       </c>
       <c r="E382">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -8525,10 +8527,10 @@
         <v>10</v>
       </c>
       <c r="E383">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -8542,10 +8544,10 @@
         <v>4</v>
       </c>
       <c r="E384">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -8559,10 +8561,10 @@
         <v>3</v>
       </c>
       <c r="E385">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -8576,10 +8578,10 @@
         <v>4</v>
       </c>
       <c r="E386">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -8593,10 +8595,10 @@
         <v>7</v>
       </c>
       <c r="E387">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -8610,10 +8612,10 @@
         <v>4</v>
       </c>
       <c r="E388">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -8630,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>44</v>
       </c>
@@ -8647,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -8664,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>393</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>394</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>51</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -8732,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -8749,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -8783,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -8851,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -8868,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -8899,10 +8901,10 @@
         <v>9</v>
       </c>
       <c r="E405">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>14</v>
       </c>
@@ -8916,10 +8918,10 @@
         <v>8</v>
       </c>
       <c r="E406">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -8933,10 +8935,10 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -8950,10 +8952,10 @@
         <v>6</v>
       </c>
       <c r="E408">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -8967,10 +8969,10 @@
         <v>8</v>
       </c>
       <c r="E409">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -8984,10 +8986,10 @@
         <v>5</v>
       </c>
       <c r="E410">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -9001,10 +9003,10 @@
         <v>6</v>
       </c>
       <c r="E411">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -9018,10 +9020,10 @@
         <v>9</v>
       </c>
       <c r="E412">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -9035,10 +9037,10 @@
         <v>5</v>
       </c>
       <c r="E413">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -9052,10 +9054,10 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -9069,10 +9071,10 @@
         <v>1</v>
       </c>
       <c r="E415">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -9086,10 +9088,10 @@
         <v>8</v>
       </c>
       <c r="E416">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -9103,10 +9105,10 @@
         <v>8</v>
       </c>
       <c r="E417">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -9120,10 +9122,10 @@
         <v>2</v>
       </c>
       <c r="E418">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -9137,10 +9139,10 @@
         <v>8</v>
       </c>
       <c r="E419">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -9154,10 +9156,10 @@
         <v>8</v>
       </c>
       <c r="E420">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -9171,10 +9173,10 @@
         <v>8</v>
       </c>
       <c r="E421">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -9188,10 +9190,10 @@
         <v>9</v>
       </c>
       <c r="E422">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -9205,10 +9207,10 @@
         <v>5</v>
       </c>
       <c r="E423">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -9222,10 +9224,10 @@
         <v>6</v>
       </c>
       <c r="E424">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -9239,10 +9241,10 @@
         <v>5</v>
       </c>
       <c r="E425">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -9256,10 +9258,10 @@
         <v>7</v>
       </c>
       <c r="E426">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>520</v>
       </c>
@@ -9273,10 +9275,10 @@
         <v>5</v>
       </c>
       <c r="E427">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>425</v>
       </c>
@@ -9290,10 +9292,10 @@
         <v>5</v>
       </c>
       <c r="E428">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>426</v>
       </c>
@@ -9307,10 +9309,10 @@
         <v>4</v>
       </c>
       <c r="E429">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>427</v>
       </c>
@@ -9324,10 +9326,10 @@
         <v>1</v>
       </c>
       <c r="E430">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>428</v>
       </c>
@@ -9341,10 +9343,10 @@
         <v>5</v>
       </c>
       <c r="E431">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>429</v>
       </c>
@@ -9358,10 +9360,10 @@
         <v>5</v>
       </c>
       <c r="E432">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>521</v>
       </c>
@@ -9375,10 +9377,10 @@
         <v>2</v>
       </c>
       <c r="E433">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>430</v>
       </c>
@@ -9392,10 +9394,10 @@
         <v>3</v>
       </c>
       <c r="E434">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>431</v>
       </c>
@@ -9409,10 +9411,10 @@
         <v>9</v>
       </c>
       <c r="E435">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>432</v>
       </c>
@@ -9426,10 +9428,10 @@
         <v>8</v>
       </c>
       <c r="E436">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>433</v>
       </c>
@@ -9443,10 +9445,10 @@
         <v>2</v>
       </c>
       <c r="E437">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>434</v>
       </c>
@@ -9460,10 +9462,10 @@
         <v>3</v>
       </c>
       <c r="E438">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>435</v>
       </c>
@@ -9477,10 +9479,10 @@
         <v>7</v>
       </c>
       <c r="E439">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>29</v>
       </c>
@@ -9494,10 +9496,10 @@
         <v>4</v>
       </c>
       <c r="E440">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>436</v>
       </c>
@@ -9511,10 +9513,10 @@
         <v>10</v>
       </c>
       <c r="E441">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>437</v>
       </c>
@@ -9528,10 +9530,10 @@
         <v>6</v>
       </c>
       <c r="E442">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>438</v>
       </c>
@@ -9545,10 +9547,10 @@
         <v>9</v>
       </c>
       <c r="E443">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>439</v>
       </c>
@@ -9562,10 +9564,10 @@
         <v>2</v>
       </c>
       <c r="E444">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>440</v>
       </c>
@@ -9579,10 +9581,10 @@
         <v>1</v>
       </c>
       <c r="E445">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>15</v>
       </c>
@@ -9596,10 +9598,10 @@
         <v>9</v>
       </c>
       <c r="E446">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>441</v>
       </c>
@@ -9613,10 +9615,10 @@
         <v>3</v>
       </c>
       <c r="E447">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>442</v>
       </c>
@@ -9630,10 +9632,10 @@
         <v>5</v>
       </c>
       <c r="E448">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>443</v>
       </c>
@@ -9647,10 +9649,10 @@
         <v>10</v>
       </c>
       <c r="E449">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>444</v>
       </c>
@@ -9664,10 +9666,10 @@
         <v>6</v>
       </c>
       <c r="E450">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>445</v>
       </c>
@@ -9681,10 +9683,10 @@
         <v>10</v>
       </c>
       <c r="E451">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>446</v>
       </c>
@@ -9698,10 +9700,10 @@
         <v>7</v>
       </c>
       <c r="E452">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>447</v>
       </c>
@@ -9715,10 +9717,10 @@
         <v>7</v>
       </c>
       <c r="E453">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>448</v>
       </c>
@@ -9732,10 +9734,10 @@
         <v>6</v>
       </c>
       <c r="E454">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>449</v>
       </c>
@@ -9749,10 +9751,10 @@
         <v>5</v>
       </c>
       <c r="E455">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>450</v>
       </c>
@@ -9766,10 +9768,10 @@
         <v>5</v>
       </c>
       <c r="E456">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>451</v>
       </c>
@@ -9786,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>19</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>452</v>
       </c>
@@ -9820,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>453</v>
       </c>
@@ -9837,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>454</v>
       </c>
@@ -9854,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>455</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>456</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>457</v>
       </c>
@@ -9902,10 +9904,10 @@
         <v>10</v>
       </c>
       <c r="E464">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>458</v>
       </c>
@@ -9919,10 +9921,10 @@
         <v>4</v>
       </c>
       <c r="E465">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>459</v>
       </c>
@@ -9936,10 +9938,10 @@
         <v>6</v>
       </c>
       <c r="E466">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>460</v>
       </c>
@@ -9953,10 +9955,10 @@
         <v>10</v>
       </c>
       <c r="E467">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>461</v>
       </c>
@@ -9970,10 +9972,10 @@
         <v>4</v>
       </c>
       <c r="E468">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>462</v>
       </c>
@@ -9987,10 +9989,10 @@
         <v>7</v>
       </c>
       <c r="E469">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>463</v>
       </c>
@@ -10004,10 +10006,10 @@
         <v>6</v>
       </c>
       <c r="E470">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>464</v>
       </c>
@@ -10021,10 +10023,10 @@
         <v>9</v>
       </c>
       <c r="E471">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>465</v>
       </c>
@@ -10038,10 +10040,10 @@
         <v>4</v>
       </c>
       <c r="E472">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>43</v>
       </c>
@@ -10055,10 +10057,10 @@
         <v>7</v>
       </c>
       <c r="E473">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>522</v>
       </c>
@@ -10072,10 +10074,10 @@
         <v>10</v>
       </c>
       <c r="E474">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>466</v>
       </c>
@@ -10089,10 +10091,10 @@
         <v>2</v>
       </c>
       <c r="E475">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>467</v>
       </c>
@@ -10106,10 +10108,10 @@
         <v>7</v>
       </c>
       <c r="E476">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>16</v>
       </c>
@@ -10123,10 +10125,10 @@
         <v>3</v>
       </c>
       <c r="E477">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>468</v>
       </c>
@@ -10140,10 +10142,10 @@
         <v>5</v>
       </c>
       <c r="E478">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>45</v>
       </c>
@@ -10157,10 +10159,10 @@
         <v>8</v>
       </c>
       <c r="E479">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>469</v>
       </c>
@@ -10174,10 +10176,10 @@
         <v>9</v>
       </c>
       <c r="E480">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>470</v>
       </c>
@@ -10191,10 +10193,10 @@
         <v>4</v>
       </c>
       <c r="E481">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>471</v>
       </c>
@@ -10208,10 +10210,10 @@
         <v>6</v>
       </c>
       <c r="E482">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>472</v>
       </c>
@@ -10225,10 +10227,10 @@
         <v>6</v>
       </c>
       <c r="E483">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>473</v>
       </c>
@@ -10242,10 +10244,10 @@
         <v>7</v>
       </c>
       <c r="E484">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>474</v>
       </c>
@@ -10259,10 +10261,10 @@
         <v>6</v>
       </c>
       <c r="E485">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>475</v>
       </c>
@@ -10276,10 +10278,10 @@
         <v>3</v>
       </c>
       <c r="E486">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>476</v>
       </c>
@@ -10293,10 +10295,10 @@
         <v>10</v>
       </c>
       <c r="E487">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>477</v>
       </c>
@@ -10310,10 +10312,10 @@
         <v>10</v>
       </c>
       <c r="E488">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>478</v>
       </c>
@@ -10327,10 +10329,10 @@
         <v>5</v>
       </c>
       <c r="E489">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>479</v>
       </c>
@@ -10344,10 +10346,10 @@
         <v>10</v>
       </c>
       <c r="E490">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>480</v>
       </c>
@@ -10361,10 +10363,10 @@
         <v>9</v>
       </c>
       <c r="E491">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>481</v>
       </c>
@@ -10378,10 +10380,10 @@
         <v>3</v>
       </c>
       <c r="E492">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>482</v>
       </c>
@@ -10395,10 +10397,10 @@
         <v>6</v>
       </c>
       <c r="E493">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>483</v>
       </c>
@@ -10412,10 +10414,10 @@
         <v>10</v>
       </c>
       <c r="E494">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>484</v>
       </c>
@@ -10429,10 +10431,10 @@
         <v>8</v>
       </c>
       <c r="E495">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>485</v>
       </c>
@@ -10446,10 +10448,10 @@
         <v>3</v>
       </c>
       <c r="E496">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>486</v>
       </c>
@@ -10463,10 +10465,10 @@
         <v>6</v>
       </c>
       <c r="E497">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>487</v>
       </c>
@@ -10480,10 +10482,10 @@
         <v>10</v>
       </c>
       <c r="E498">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>488</v>
       </c>
@@ -10497,10 +10499,10 @@
         <v>3</v>
       </c>
       <c r="E499">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>489</v>
       </c>
@@ -10514,10 +10516,10 @@
         <v>8</v>
       </c>
       <c r="E500">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>490</v>
       </c>
@@ -10531,10 +10533,10 @@
         <v>5</v>
       </c>
       <c r="E501">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -10548,10 +10550,10 @@
         <v>8</v>
       </c>
       <c r="E502">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>17</v>
       </c>
@@ -10565,10 +10567,10 @@
         <v>7</v>
       </c>
       <c r="E503">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>491</v>
       </c>
@@ -10582,10 +10584,10 @@
         <v>10</v>
       </c>
       <c r="E504">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>492</v>
       </c>
@@ -10599,10 +10601,10 @@
         <v>6</v>
       </c>
       <c r="E505">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>493</v>
       </c>
@@ -10616,10 +10618,10 @@
         <v>1</v>
       </c>
       <c r="E506">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>494</v>
       </c>
@@ -10633,10 +10635,10 @@
         <v>4</v>
       </c>
       <c r="E507">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>495</v>
       </c>
@@ -10650,10 +10652,10 @@
         <v>9</v>
       </c>
       <c r="E508">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>496</v>
       </c>
@@ -10667,10 +10669,10 @@
         <v>1</v>
       </c>
       <c r="E509">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>497</v>
       </c>
@@ -10684,10 +10686,10 @@
         <v>7</v>
       </c>
       <c r="E510">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>498</v>
       </c>
@@ -10701,10 +10703,10 @@
         <v>3</v>
       </c>
       <c r="E511">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>499</v>
       </c>
@@ -10718,10 +10720,10 @@
         <v>9</v>
       </c>
       <c r="E512">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>34</v>
       </c>
@@ -10735,10 +10737,10 @@
         <v>1</v>
       </c>
       <c r="E513">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>25</v>
       </c>
@@ -10752,10 +10754,10 @@
         <v>10</v>
       </c>
       <c r="E514">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>500</v>
       </c>
@@ -10769,10 +10771,10 @@
         <v>4</v>
       </c>
       <c r="E515">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>501</v>
       </c>
@@ -10786,10 +10788,10 @@
         <v>1</v>
       </c>
       <c r="E516">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>502</v>
       </c>
@@ -10803,10 +10805,10 @@
         <v>1</v>
       </c>
       <c r="E517">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>503</v>
       </c>
@@ -10820,10 +10822,10 @@
         <v>4</v>
       </c>
       <c r="E518">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>504</v>
       </c>
@@ -10837,10 +10839,10 @@
         <v>6</v>
       </c>
       <c r="E519">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>505</v>
       </c>
@@ -10854,10 +10856,10 @@
         <v>1</v>
       </c>
       <c r="E520">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>506</v>
       </c>
@@ -10871,10 +10873,10 @@
         <v>5</v>
       </c>
       <c r="E521">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>507</v>
       </c>
@@ -10888,10 +10890,10 @@
         <v>3</v>
       </c>
       <c r="E522">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>508</v>
       </c>
@@ -10905,10 +10907,10 @@
         <v>9</v>
       </c>
       <c r="E523">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>509</v>
       </c>
@@ -10922,7 +10924,7 @@
         <v>9</v>
       </c>
       <c r="E524">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10933,5 +10935,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>